--- a/AAII_Financials/Quarterly/EXPO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/EXPO_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="92">
   <si>
     <t>EXPO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,206 +665,231 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43924</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43833</v>
+      </c>
+      <c r="F7" s="2">
         <v>43735</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43644</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43553</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43462</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43371</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43280</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43189</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43098</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43007</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42825</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42734</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>106000</v>
+      </c>
+      <c r="E8" s="3">
+        <v>110100</v>
+      </c>
+      <c r="F8" s="3">
         <v>101500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>106500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>99000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>92100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>95300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>95600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>96500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>88300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>87600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>87800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>84100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>77000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>77600</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>6200</v>
+      </c>
+      <c r="E9" s="3">
+        <v>7900</v>
+      </c>
+      <c r="F9" s="3">
         <v>6000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>6200</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>5600</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>6900</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>6600</v>
-      </c>
-      <c r="I9" s="3">
-        <v>5600</v>
-      </c>
-      <c r="J9" s="3">
-        <v>5800</v>
       </c>
       <c r="K9" s="3">
         <v>5600</v>
       </c>
       <c r="L9" s="3">
+        <v>5800</v>
+      </c>
+      <c r="M9" s="3">
+        <v>5600</v>
+      </c>
+      <c r="N9" s="3">
         <v>5200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>3700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>58100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>50800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>51200</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>99800</v>
+      </c>
+      <c r="E10" s="3">
+        <v>102200</v>
+      </c>
+      <c r="F10" s="3">
         <v>95500</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>100300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>93400</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>85200</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>88700</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>90000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>90700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>82700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>82400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>84100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>26000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>26200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>26400</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -881,8 +906,10 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -925,8 +952,14 @@
       <c r="P12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,8 +1002,14 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1013,8 +1052,14 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1057,8 +1102,14 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,96 +1123,110 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>70000</v>
+      </c>
+      <c r="E17" s="3">
+        <v>88800</v>
+      </c>
+      <c r="F17" s="3">
         <v>78400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>81700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>83300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>65400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>74700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>73100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>74900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>70500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>68300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>67500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>69500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>62100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>62000</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>36000</v>
+      </c>
+      <c r="E18" s="3">
+        <v>21300</v>
+      </c>
+      <c r="F18" s="3">
         <v>23100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>24800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>15700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>26700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>20600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>22500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>21600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>17800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>19400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>20300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>14600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>14900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>15600</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,96 +1243,110 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-12000</v>
+      </c>
+      <c r="E20" s="3">
+        <v>5500</v>
+      </c>
+      <c r="F20" s="3">
         <v>2100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>4000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>7600</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>-4800</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>3400</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>2500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>2900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>2700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>2100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>2800</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>1900</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>25800</v>
+      </c>
+      <c r="E21" s="3">
+        <v>28700</v>
+      </c>
+      <c r="F21" s="3">
         <v>26900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>30500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>24900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>23500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>25600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>26500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>24000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>22200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>23600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>24000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>19000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>18400</v>
       </c>
-      <c r="P21" s="3" t="s">
+      <c r="R21" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1310,96 +1389,114 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>24100</v>
+      </c>
+      <c r="E23" s="3">
+        <v>26800</v>
+      </c>
+      <c r="F23" s="3">
         <v>25200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>28900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>23300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>22000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>24000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>24900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>22500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>20700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>22000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>22300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>17400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>16800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>17900</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="E24" s="3">
+        <v>7700</v>
+      </c>
+      <c r="F24" s="3">
         <v>5600</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>7900</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>600</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>5900</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>6500</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>6500</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>2100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>7900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>7400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>8600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>800</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>6400</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>6600</v>
       </c>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,96 +1539,114 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>26300</v>
+      </c>
+      <c r="E26" s="3">
+        <v>19100</v>
+      </c>
+      <c r="F26" s="3">
         <v>19600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>21000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>22700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>16000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>17500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>18400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>20300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>12800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>14600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>13800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>16600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>10400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>11300</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>26300</v>
+      </c>
+      <c r="E27" s="3">
+        <v>19100</v>
+      </c>
+      <c r="F27" s="3">
         <v>19600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>21000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>22700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>16000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>17500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>18400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>20300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>12800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>14600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>13800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>16600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>10400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>11300</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1689,14 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1588,26 +1709,26 @@
       <c r="F29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G29" s="3">
-        <v>0</v>
+      <c r="G29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I29" s="3" t="s">
-        <v>8</v>
+      <c r="I29" s="3">
+        <v>0</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K29" s="3">
-        <v>-16500</v>
+      <c r="K29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>8</v>
+      <c r="M29" s="3">
+        <v>-16500</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>8</v>
@@ -1618,8 +1739,14 @@
       <c r="P29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1789,14 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,96 +1839,114 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>12000</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="F32" s="3">
         <v>-2100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>-4000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-7600</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>4800</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>-3400</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>-2500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-2900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-2700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-2100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-2800</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-1900</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>26300</v>
+      </c>
+      <c r="E33" s="3">
+        <v>19100</v>
+      </c>
+      <c r="F33" s="3">
         <v>19600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>21000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>22700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>16000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>17500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>18400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>20300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-3700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>14600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>13800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>16600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>10400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>11300</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,101 +1989,119 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>26300</v>
+      </c>
+      <c r="E35" s="3">
+        <v>19100</v>
+      </c>
+      <c r="F35" s="3">
         <v>19600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>21000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>22700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>16000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>17500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>18400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>20300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-3700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>14600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>13800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>16600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>10400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>11300</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43924</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43833</v>
+      </c>
+      <c r="F38" s="2">
         <v>43735</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43644</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43553</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43462</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43371</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43280</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43189</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43098</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43007</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42825</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42734</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2118,10 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,140 +2138,160 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>105600</v>
+      </c>
+      <c r="E41" s="3">
+        <v>176400</v>
+      </c>
+      <c r="F41" s="3">
         <v>132800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>104500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>79100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>127100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>121000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>117800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>103200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>124800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>89800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>90200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>87100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>115000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>98400</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>46400</v>
+      </c>
+      <c r="E42" s="3">
+        <v>55200</v>
+      </c>
+      <c r="F42" s="3">
         <v>77100</v>
       </c>
-      <c r="E42" s="3">
+      <c r="G42" s="3">
         <v>90000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="H42" s="3">
         <v>92700</v>
       </c>
-      <c r="G42" s="3">
+      <c r="I42" s="3">
         <v>81500</v>
       </c>
-      <c r="H42" s="3">
+      <c r="J42" s="3">
         <v>81400</v>
       </c>
-      <c r="I42" s="3">
+      <c r="K42" s="3">
         <v>75500</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>75500</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>71600</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>75800</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>71800</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>67800</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>58800</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>52000</v>
       </c>
     </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>127200</v>
+      </c>
+      <c r="E43" s="3">
+        <v>120100</v>
+      </c>
+      <c r="F43" s="3">
         <v>128300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>129700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>118900</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>105800</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>122900</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>116500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>117200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>110100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>124800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>107400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>96300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>87400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>94300</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2143,96 +2334,114 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>14100</v>
+      </c>
+      <c r="E45" s="3">
+        <v>12300</v>
+      </c>
+      <c r="F45" s="3">
         <v>13200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>10500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>14000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>12200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>11200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>9200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>9600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>9000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>10700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>9300</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>12400</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>12900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>12600</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>293400</v>
+      </c>
+      <c r="E46" s="3">
+        <v>364000</v>
+      </c>
+      <c r="F46" s="3">
         <v>351500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>334700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>304600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>326600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>336500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>319000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>305500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>315500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>301100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>278700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>263600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>274000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>257300</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2275,52 +2484,64 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>82300</v>
+      </c>
+      <c r="E48" s="3">
+        <v>84600</v>
+      </c>
+      <c r="F48" s="3">
         <v>83000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>78800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>74700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>46100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>44000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>41400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>40400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>35000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>35200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>35900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>36600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>36700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>37500</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2363,8 +2584,14 @@
       <c r="P49" s="3">
         <v>8600</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>8600</v>
+      </c>
+      <c r="R49" s="3">
+        <v>8600</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2634,14 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,52 +2684,64 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>101300</v>
+        <v>99300</v>
       </c>
       <c r="E52" s="3">
-        <v>98500</v>
+        <v>106200</v>
       </c>
       <c r="F52" s="3">
         <v>101300</v>
       </c>
       <c r="G52" s="3">
+        <v>98500</v>
+      </c>
+      <c r="H52" s="3">
+        <v>101300</v>
+      </c>
+      <c r="I52" s="3">
         <v>87600</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>91800</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>86700</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>86000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>80500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>90800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>86500</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>89400</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>84400</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>82000</v>
       </c>
     </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,52 +2784,64 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>483700</v>
+      </c>
+      <c r="E54" s="3">
+        <v>563400</v>
+      </c>
+      <c r="F54" s="3">
         <v>544500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>520600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>489200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>468900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>480900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>455700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>440500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>439600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>435600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>409700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>398200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>403700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>385400</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2858,10 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,52 +2878,60 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>14000</v>
+      </c>
+      <c r="E57" s="3">
+        <v>18600</v>
+      </c>
+      <c r="F57" s="3">
         <v>16500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>19700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>12400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>12300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>13200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>12400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>16500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>14700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>13800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>10600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>10200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>10100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>9700</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2707,96 +2974,114 @@
       <c r="P58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>63100</v>
+      </c>
+      <c r="E59" s="3">
+        <v>105400</v>
+      </c>
+      <c r="F59" s="3">
         <v>84500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>73200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>59800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>86000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>74900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>64900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>53200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>78400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>67500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>57500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>47200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>70200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>59500</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>77100</v>
+      </c>
+      <c r="E60" s="3">
+        <v>124000</v>
+      </c>
+      <c r="F60" s="3">
         <v>101000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>92900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>72200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>98300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>88100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>77300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>69600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>93100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>81300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>68100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>57400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>80200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>69200</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2839,52 +3124,64 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>83100</v>
+      </c>
+      <c r="E62" s="3">
+        <v>89200</v>
+      </c>
+      <c r="F62" s="3">
         <v>86200</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>83900</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>87900</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>56700</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>62100</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>59700</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>64200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>57400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>54300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>52200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>56000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>50200</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>49400</v>
       </c>
     </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3224,14 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3274,14 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,52 +3324,64 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>160200</v>
+      </c>
+      <c r="E66" s="3">
+        <v>213200</v>
+      </c>
+      <c r="F66" s="3">
         <v>187200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>176800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>160000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>155000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>150300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>136900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>133800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>150500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>135600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>120300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>113500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>130400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>118600</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3398,10 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3444,14 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3494,14 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3544,14 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,52 +3594,64 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>395600</v>
+      </c>
+      <c r="E72" s="3">
+        <v>384700</v>
+      </c>
+      <c r="F72" s="3">
         <v>374000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>363000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>350500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>342000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>332900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>322400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>311000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>304000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>313300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>304200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>296000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>291200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>285600</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3694,14 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3744,14 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,52 +3794,64 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>323500</v>
+      </c>
+      <c r="E76" s="3">
+        <v>350300</v>
+      </c>
+      <c r="F76" s="3">
         <v>357300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>343900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>329200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>313900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>330600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>318800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>306600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>289100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>300100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>289400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>284700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>273300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>266800</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,101 +3894,119 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43924</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43833</v>
+      </c>
+      <c r="F80" s="2">
         <v>43735</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43644</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43553</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43462</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43371</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43280</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43189</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43098</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43007</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42825</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42734</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>26300</v>
+      </c>
+      <c r="E81" s="3">
+        <v>19100</v>
+      </c>
+      <c r="F81" s="3">
         <v>19600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>21000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>22700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>16000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>17500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>18400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>20300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-3700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>14600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>13800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>16600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>10400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>11300</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,19 +4023,21 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E83" s="3">
+        <v>1900</v>
+      </c>
+      <c r="F83" s="3">
         <v>1700</v>
-      </c>
-      <c r="E83" s="3">
-        <v>1600</v>
-      </c>
-      <c r="F83" s="3">
-        <v>1600</v>
       </c>
       <c r="G83" s="3">
         <v>1600</v>
@@ -3655,13 +4052,13 @@
         <v>1600</v>
       </c>
       <c r="K83" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="L83" s="3">
         <v>1600</v>
       </c>
       <c r="M83" s="3">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="N83" s="3">
         <v>1600</v>
@@ -3669,11 +4066,17 @@
       <c r="O83" s="3">
         <v>1600</v>
       </c>
-      <c r="P83" s="3" t="s">
+      <c r="P83" s="3">
+        <v>1600</v>
+      </c>
+      <c r="Q83" s="3">
+        <v>1600</v>
+      </c>
+      <c r="R83" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +4119,14 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +4169,14 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4219,14 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4269,14 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,52 +4319,64 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-13800</v>
+      </c>
+      <c r="E89" s="3">
+        <v>55800</v>
+      </c>
+      <c r="F89" s="3">
         <v>27500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>37100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-12300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>44400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>18900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>24200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>3700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>40900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>9800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>19000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-1800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>29700</v>
       </c>
-      <c r="P89" s="3" t="s">
+      <c r="R89" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,52 +4393,60 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="F91" s="3">
         <v>-4500</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-6800</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-5700</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-4100</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-3200</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-2100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-6800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-1400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-1200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-1300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-1300</v>
       </c>
-      <c r="P91" s="3" t="s">
+      <c r="R91" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4489,14 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,52 +4539,64 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>7700</v>
+      </c>
+      <c r="E94" s="3">
+        <v>16000</v>
+      </c>
+      <c r="F94" s="3">
         <v>8500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-3700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-16500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-3900</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-9100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-2100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-10700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>2600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-4800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-5200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-10300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-8300</v>
       </c>
-      <c r="P94" s="3" t="s">
+      <c r="R94" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,52 +4613,60 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-8300</v>
+        <v>-10300</v>
       </c>
       <c r="E96" s="3">
         <v>-8300</v>
       </c>
       <c r="F96" s="3">
+        <v>-8300</v>
+      </c>
+      <c r="G96" s="3">
+        <v>-8300</v>
+      </c>
+      <c r="H96" s="3">
         <v>-8600</v>
       </c>
-      <c r="G96" s="3">
+      <c r="I96" s="3">
         <v>-6700</v>
       </c>
-      <c r="H96" s="3">
+      <c r="J96" s="3">
         <v>-6800</v>
       </c>
-      <c r="I96" s="3">
+      <c r="K96" s="3">
         <v>-6800</v>
       </c>
-      <c r="J96" s="3">
+      <c r="L96" s="3">
         <v>-7000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="M96" s="3">
         <v>-5400</v>
-      </c>
-      <c r="L96" s="3">
-        <v>-5400</v>
-      </c>
-      <c r="M96" s="3">
-        <v>-5600</v>
       </c>
       <c r="N96" s="3">
         <v>-5400</v>
       </c>
       <c r="O96" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="P96" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-4600</v>
       </c>
-      <c r="P96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4709,14 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4759,14 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,52 +4809,64 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-64300</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-29000</v>
+      </c>
+      <c r="F100" s="3">
         <v>-7200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-7800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-19400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-34200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-6600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-6400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-15300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-8600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-5800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-11000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-15900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-4300</v>
       </c>
-      <c r="P100" s="3" t="s">
+      <c r="R100" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4377,83 +4874,95 @@
         <v>-400</v>
       </c>
       <c r="E101" s="3">
-        <v>-200</v>
+        <v>800</v>
       </c>
       <c r="F101" s="3">
-        <v>200</v>
+        <v>-400</v>
       </c>
       <c r="G101" s="3">
         <v>-200</v>
       </c>
       <c r="H101" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="I101" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J101" s="3">
+        <v>0</v>
+      </c>
+      <c r="K101" s="3">
         <v>-1100</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>700</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>100</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>400</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>400</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>100</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>-500</v>
       </c>
-      <c r="P101" s="3" t="s">
+      <c r="R101" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-70800</v>
+      </c>
+      <c r="E102" s="3">
+        <v>43600</v>
+      </c>
+      <c r="F102" s="3">
         <v>28400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>25400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-48000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>6100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>3200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>14600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-21600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>35000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>3100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-27900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>16500</v>
       </c>
-      <c r="P102" s="3" t="s">
+      <c r="R102" s="3" t="s">
         <v>8</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/EXPO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/EXPO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="92">
   <si>
     <t>EXPO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,231 +665,244 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44015</v>
+      </c>
+      <c r="E7" s="2">
         <v>43924</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43833</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43735</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43644</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43553</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43462</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43371</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43280</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43189</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43098</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43007</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42734</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>92000</v>
+      </c>
+      <c r="E8" s="3">
         <v>106000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>110100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>101500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>106500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>99000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>92100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>95300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>95600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>96500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>88300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>87600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>87800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>84100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>77000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>77600</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E9" s="3">
         <v>6200</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>7900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>6000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>6200</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>5600</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>6900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>6600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>5600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>5800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>5600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>5200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>3700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>58100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>50800</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>51200</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>87800</v>
+      </c>
+      <c r="E10" s="3">
         <v>99800</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>102200</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>95500</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>100300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>93400</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>85200</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>88700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>90000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>90700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>82700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>82400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>84100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>26000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>26200</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>26400</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -908,8 +921,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -958,8 +972,11 @@
       <c r="R12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1008,8 +1025,11 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1058,8 +1078,11 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1108,8 +1131,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1125,108 +1151,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>82900</v>
+      </c>
+      <c r="E17" s="3">
         <v>70000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>88800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>78400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>81700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>83300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>65400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>74700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>73100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>74900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>70500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>68300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>67500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>69500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>62100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>62000</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>9100</v>
+      </c>
+      <c r="E18" s="3">
         <v>36000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>21300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>23100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>24800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>15700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>26700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>20600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>22500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>21600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>17800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>19400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>20300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>14600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>14900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>15600</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1245,108 +1278,115 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>12300</v>
+      </c>
+      <c r="E20" s="3">
         <v>-12000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>5500</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>2100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>4000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>7600</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-4800</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>3400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>2500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>2900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>2700</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>2100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>2800</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>1900</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>23100</v>
+      </c>
+      <c r="E21" s="3">
         <v>25800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>28700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>26900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>30500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>24900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>23500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>25600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>26500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>24000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>22200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>23600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>24000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>19000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>18400</v>
       </c>
-      <c r="R21" s="3" t="s">
+      <c r="S21" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1395,108 +1435,117 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>21400</v>
+      </c>
+      <c r="E23" s="3">
         <v>24100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>26800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>25200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>28900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>23300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>22000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>24000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>24900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>22500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>20700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>22000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>22300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>17400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>16800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>17900</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>5100</v>
+      </c>
+      <c r="E24" s="3">
         <v>-2200</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>7700</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>5600</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>7900</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>600</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>5900</v>
-      </c>
-      <c r="J24" s="3">
-        <v>6500</v>
       </c>
       <c r="K24" s="3">
         <v>6500</v>
       </c>
       <c r="L24" s="3">
+        <v>6500</v>
+      </c>
+      <c r="M24" s="3">
         <v>2100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>7900</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>7400</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>8600</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>800</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>6400</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>6600</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1545,108 +1594,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>16300</v>
+      </c>
+      <c r="E26" s="3">
         <v>26300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>19100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>19600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>21000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>22700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>16000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>17500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>18400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>20300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>12800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>14600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>13800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>16600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>10400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>11300</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>16300</v>
+      </c>
+      <c r="E27" s="3">
         <v>26300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>19100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>19600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>21000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>22700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>16000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>17500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>18400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>20300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>12800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>14600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>13800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>16600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>10400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>11300</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1695,8 +1753,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1715,11 +1776,11 @@
       <c r="H29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I29" s="3">
-        <v>0</v>
-      </c>
-      <c r="J29" s="3" t="s">
+      <c r="I29" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>8</v>
@@ -1727,11 +1788,11 @@
       <c r="L29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M29" s="3">
+      <c r="M29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N29" s="3">
         <v>-16500</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>8</v>
@@ -1745,8 +1806,11 @@
       <c r="R29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1795,8 +1859,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1845,108 +1912,117 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-12300</v>
+      </c>
+      <c r="E32" s="3">
         <v>12000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-5500</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-2100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-4000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-7600</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>4800</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-3400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-2500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-2900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-2700</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-2100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-2800</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-1900</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>16300</v>
+      </c>
+      <c r="E33" s="3">
         <v>26300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>19100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>19600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>21000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>22700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>16000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>17500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>18400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>20300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-3700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>14600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>13800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>16600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>10400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>11300</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1995,113 +2071,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>16300</v>
+      </c>
+      <c r="E35" s="3">
         <v>26300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>19100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>19600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>21000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>22700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>16000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>17500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>18400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>20300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-3700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>14600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>13800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>16600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>10400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>11300</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44015</v>
+      </c>
+      <c r="E38" s="2">
         <v>43924</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43833</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43735</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43644</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43553</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43462</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43371</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43280</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43189</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43098</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43007</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42734</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2120,8 +2205,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2140,158 +2226,168 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>155900</v>
+      </c>
+      <c r="E41" s="3">
         <v>105600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>176400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>132800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>104500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>79100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>127100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>121000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>117800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>103200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>124800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>89800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>90200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>87100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>115000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>98400</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>34200</v>
+      </c>
+      <c r="E42" s="3">
         <v>46400</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>55200</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>77100</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>90000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>92700</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>81500</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>81400</v>
-      </c>
-      <c r="K42" s="3">
-        <v>75500</v>
       </c>
       <c r="L42" s="3">
         <v>75500</v>
       </c>
       <c r="M42" s="3">
+        <v>75500</v>
+      </c>
+      <c r="N42" s="3">
         <v>71600</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>75800</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>71800</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>67800</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>58800</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>52000</v>
       </c>
     </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>109300</v>
+      </c>
+      <c r="E43" s="3">
         <v>127200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>120100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>128300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>129700</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>118900</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>105800</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>122900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>116500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>117200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>110100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>124800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>107400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>96300</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>87400</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>94300</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2340,108 +2436,117 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>14800</v>
+      </c>
+      <c r="E45" s="3">
         <v>14100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>12300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>13200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>10500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>14000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>12200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>11200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>9200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>9600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>9000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>10700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>9300</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>12400</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>12900</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>12600</v>
       </c>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>314300</v>
+      </c>
+      <c r="E46" s="3">
         <v>293400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>364000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>351500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>334700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>304600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>326600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>336500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>319000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>305500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>315500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>301100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>278700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>263600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>274000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>257300</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2490,58 +2595,64 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>80400</v>
+      </c>
+      <c r="E48" s="3">
         <v>82300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>84600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>83000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>78800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>74700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>46100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>44000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>41400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>40400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>35000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>35200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>35900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>36600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>36700</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>37500</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2590,8 +2701,11 @@
       <c r="R49" s="3">
         <v>8600</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3">
+        <v>8600</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2640,8 +2754,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2690,58 +2807,64 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>109900</v>
+      </c>
+      <c r="E52" s="3">
         <v>99300</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>106200</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>101300</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>98500</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>101300</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>87600</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>91800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>86700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>86000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>80500</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>90800</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>86500</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>89400</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>84400</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>82000</v>
       </c>
     </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2790,58 +2913,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>513200</v>
+      </c>
+      <c r="E54" s="3">
         <v>483700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>563400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>544500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>520600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>489200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>468900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>480900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>455700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>440500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>439600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>435600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>409700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>398200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>403700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>385400</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2860,8 +2989,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2880,58 +3010,62 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>16200</v>
+      </c>
+      <c r="E57" s="3">
         <v>14000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>18600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>16500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>19700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>12400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>12300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>13200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>12400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>16500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>14700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>13800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>10600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>10200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>10100</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>9700</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2980,108 +3114,117 @@
       <c r="R58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>73600</v>
+      </c>
+      <c r="E59" s="3">
         <v>63100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>105400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>84500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>73200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>59800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>86000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>74900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>64900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>53200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>78400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>67500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>57500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>47200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>70200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>59500</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>89800</v>
+      </c>
+      <c r="E60" s="3">
         <v>77100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>124000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>101000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>92900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>72200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>98300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>88100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>77300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>69600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>93100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>81300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>68100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>57400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>80200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>69200</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3130,58 +3273,64 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>90800</v>
+      </c>
+      <c r="E62" s="3">
         <v>83100</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>89200</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>86200</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>83900</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>87900</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>56700</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>62100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>59700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>64200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>57400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>54300</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>52200</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>56000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>50200</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>49400</v>
       </c>
     </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3230,8 +3379,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3280,8 +3432,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3330,58 +3485,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>180600</v>
+      </c>
+      <c r="E66" s="3">
         <v>160200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>213200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>187200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>176800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>160000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>155000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>150300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>136900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>133800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>150500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>135600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>120300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>113500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>130400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>118600</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3400,8 +3561,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3450,8 +3612,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3500,8 +3665,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3550,8 +3718,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3600,58 +3771,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>402000</v>
+      </c>
+      <c r="E72" s="3">
         <v>395600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>384700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>374000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>363000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>350500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>342000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>332900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>322400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>311000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>304000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>313300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>304200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>296000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>291200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>285600</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3700,8 +3877,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3750,8 +3930,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3800,58 +3983,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>332600</v>
+      </c>
+      <c r="E76" s="3">
         <v>323500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>350300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>357300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>343900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>329200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>313900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>330600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>318800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>306600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>289100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>300100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>289400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>284700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>273300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>266800</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3900,113 +4089,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44015</v>
+      </c>
+      <c r="E80" s="2">
         <v>43924</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43833</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43735</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43644</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43553</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43462</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43371</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43280</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43189</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43098</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43007</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42734</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>16300</v>
+      </c>
+      <c r="E81" s="3">
         <v>26300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>19100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>19600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>21000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>22700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>16000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>17500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>18400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>20300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-3700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>14600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>13800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>16600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>10400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>11300</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4025,22 +4223,23 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E83" s="3">
         <v>1800</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>1900</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>1700</v>
-      </c>
-      <c r="G83" s="3">
-        <v>1600</v>
       </c>
       <c r="H83" s="3">
         <v>1600</v>
@@ -4058,10 +4257,10 @@
         <v>1600</v>
       </c>
       <c r="M83" s="3">
+        <v>1600</v>
+      </c>
+      <c r="N83" s="3">
         <v>1500</v>
-      </c>
-      <c r="N83" s="3">
-        <v>1600</v>
       </c>
       <c r="O83" s="3">
         <v>1600</v>
@@ -4072,11 +4271,14 @@
       <c r="Q83" s="3">
         <v>1600</v>
       </c>
-      <c r="R83" s="3" t="s">
+      <c r="R83" s="3">
+        <v>1600</v>
+      </c>
+      <c r="S83" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4125,8 +4327,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4175,8 +4380,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4225,8 +4433,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4275,8 +4486,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4325,58 +4539,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>48000</v>
+      </c>
+      <c r="E89" s="3">
         <v>-13800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>55800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>27500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>37100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-12300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>44400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>18900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>24200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>3700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>40900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>9800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>19000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-1800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>29700</v>
       </c>
-      <c r="R89" s="3" t="s">
+      <c r="S89" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4395,58 +4615,62 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E91" s="3">
         <v>-1300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-6000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-4500</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-6800</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-5700</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-4100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-3200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-2100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-6800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-1400</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-800</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-1200</v>
-      </c>
-      <c r="P91" s="3">
-        <v>-1300</v>
       </c>
       <c r="Q91" s="3">
         <v>-1300</v>
       </c>
-      <c r="R91" s="3" t="s">
+      <c r="R91" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="S91" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4495,8 +4719,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4545,58 +4772,64 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>10800</v>
+      </c>
+      <c r="E94" s="3">
         <v>7700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>16000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>8500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-3700</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-16500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-3900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-9100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-2100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-10700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>2600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-4800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-5200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-10300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-8300</v>
       </c>
-      <c r="R94" s="3" t="s">
+      <c r="S94" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4615,16 +4848,17 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-9800</v>
+      </c>
+      <c r="E96" s="3">
         <v>-10300</v>
-      </c>
-      <c r="E96" s="3">
-        <v>-8300</v>
       </c>
       <c r="F96" s="3">
         <v>-8300</v>
@@ -4633,40 +4867,43 @@
         <v>-8300</v>
       </c>
       <c r="H96" s="3">
+        <v>-8300</v>
+      </c>
+      <c r="I96" s="3">
         <v>-8600</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-6700</v>
-      </c>
-      <c r="J96" s="3">
-        <v>-6800</v>
       </c>
       <c r="K96" s="3">
         <v>-6800</v>
       </c>
       <c r="L96" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="M96" s="3">
         <v>-7000</v>
-      </c>
-      <c r="M96" s="3">
-        <v>-5400</v>
       </c>
       <c r="N96" s="3">
         <v>-5400</v>
       </c>
       <c r="O96" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="P96" s="3">
         <v>-5600</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-5400</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-4600</v>
       </c>
-      <c r="R96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4715,8 +4952,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4765,8 +5005,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4815,154 +5058,166 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-8600</v>
+      </c>
+      <c r="E100" s="3">
         <v>-64300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-29000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-7200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-7800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-19400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-34200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-6600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-6400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-15300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-8600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-5800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-11000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-15900</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-4300</v>
       </c>
-      <c r="R100" s="3" t="s">
+      <c r="S100" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>100</v>
+      </c>
+      <c r="E101" s="3">
         <v>-400</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>800</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-400</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-200</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>200</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-200</v>
       </c>
-      <c r="J101" s="3">
-        <v>0</v>
-      </c>
       <c r="K101" s="3">
+        <v>0</v>
+      </c>
+      <c r="L101" s="3">
         <v>-1100</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>700</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>100</v>
-      </c>
-      <c r="N101" s="3">
-        <v>400</v>
       </c>
       <c r="O101" s="3">
         <v>400</v>
       </c>
       <c r="P101" s="3">
+        <v>400</v>
+      </c>
+      <c r="Q101" s="3">
         <v>100</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-500</v>
       </c>
-      <c r="R101" s="3" t="s">
+      <c r="S101" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>50300</v>
+      </c>
+      <c r="E102" s="3">
         <v>-70800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>43600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>28400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>25400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-48000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>6100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>3200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>14600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-21600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>35000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>3100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-27900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>16500</v>
       </c>
-      <c r="R102" s="3" t="s">
+      <c r="S102" s="3" t="s">
         <v>8</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/EXPO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/EXPO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="92">
   <si>
     <t>EXPO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,244 +665,257 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44106</v>
+      </c>
+      <c r="E7" s="2">
         <v>44015</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43924</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43833</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43735</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43644</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43553</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43462</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43371</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43280</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43189</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43098</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43007</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42734</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>98700</v>
+      </c>
+      <c r="E8" s="3">
         <v>92000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>106000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>110100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>101500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>106500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>99000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>92100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>95300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>95600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>96500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>88300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>87600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>87800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>84100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>77000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>77600</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>5200</v>
+      </c>
+      <c r="E9" s="3">
         <v>4200</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>6200</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>7900</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>6000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>6200</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>5600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>6900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>6600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>5600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>5800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>5600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>5200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>3700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>58100</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>50800</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>51200</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>93500</v>
+      </c>
+      <c r="E10" s="3">
         <v>87800</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>99800</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>102200</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>95500</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>100300</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>93400</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>85200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>88700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>90000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>90700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>82700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>82400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>84100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>26000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>26200</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>26400</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -922,8 +935,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -975,8 +989,11 @@
       <c r="S12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,8 +1045,11 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1081,8 +1101,11 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1134,8 +1157,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,114 +1178,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>78300</v>
+      </c>
+      <c r="E17" s="3">
         <v>82900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>70000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>88800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>78400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>81700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>83300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>65400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>74700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>73100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>74900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>70500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>68300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>67500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>69500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>62100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>62000</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>20400</v>
+      </c>
+      <c r="E18" s="3">
         <v>9100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>36000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>21300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>23100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>24800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>15700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>26700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>20600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>22500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>21600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>17800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>19400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>20300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>14600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>14900</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>15600</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,114 +1312,121 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E20" s="3">
         <v>12300</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-12000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>5500</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>2100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>4000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>7600</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-4800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>3400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>2500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>2900</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>2700</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>2100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>2800</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>1900</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>26300</v>
+      </c>
+      <c r="E21" s="3">
         <v>23100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>25800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>28700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>26900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>30500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>24900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>23500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>25600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>26500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>24000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>22200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>23600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>24000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>19000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>18400</v>
       </c>
-      <c r="S21" s="3" t="s">
+      <c r="T21" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1438,114 +1478,123 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>24600</v>
+      </c>
+      <c r="E23" s="3">
         <v>21400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>24100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>26800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>25200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>28900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>23300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>22000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>24000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>24900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>22500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>20700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>22000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>22300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>17400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>16800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>17900</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>6600</v>
+      </c>
+      <c r="E24" s="3">
         <v>5100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-2200</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>7700</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>5600</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>7900</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>600</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>5900</v>
-      </c>
-      <c r="K24" s="3">
-        <v>6500</v>
       </c>
       <c r="L24" s="3">
         <v>6500</v>
       </c>
       <c r="M24" s="3">
+        <v>6500</v>
+      </c>
+      <c r="N24" s="3">
         <v>2100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>7900</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>7400</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>8600</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>800</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>6400</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>6600</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,114 +1646,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>18100</v>
+      </c>
+      <c r="E26" s="3">
         <v>16300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>26300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>19100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>19600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>21000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>22700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>16000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>17500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>18400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>20300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>12800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>14600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>13800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>16600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>10400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>11300</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>18100</v>
+      </c>
+      <c r="E27" s="3">
         <v>16300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>26300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>19100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>19600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>21000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>22700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>16000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>17500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>18400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>20300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>12800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>14600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>13800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>16600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>10400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>11300</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1779,11 +1840,11 @@
       <c r="I29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J29" s="3">
-        <v>0</v>
-      </c>
-      <c r="K29" s="3" t="s">
+      <c r="J29" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="K29" s="3">
+        <v>0</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>8</v>
@@ -1791,11 +1852,11 @@
       <c r="M29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N29" s="3">
+      <c r="N29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O29" s="3">
         <v>-16500</v>
-      </c>
-      <c r="O29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>8</v>
@@ -1809,8 +1870,11 @@
       <c r="S29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,114 +1982,123 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="E32" s="3">
         <v>-12300</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>12000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-5500</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-2100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-4000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-7600</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>4800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-3400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-2500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-2900</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-2700</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-2100</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-2800</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-1900</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>18100</v>
+      </c>
+      <c r="E33" s="3">
         <v>16300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>26300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>19100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>19600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>21000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>22700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>16000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>17500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>18400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>20300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-3700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>14600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>13800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>16600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>10400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>11300</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,119 +2150,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>18100</v>
+      </c>
+      <c r="E35" s="3">
         <v>16300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>26300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>19100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>19600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>21000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>22700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>16000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>17500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>18400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>20300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-3700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>14600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>13800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>16600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>10400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>11300</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44106</v>
+      </c>
+      <c r="E38" s="2">
         <v>44015</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43924</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43833</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43735</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43644</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43553</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43462</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43371</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43280</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43189</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43098</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43007</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42734</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,167 +2313,177 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>187600</v>
+      </c>
+      <c r="E41" s="3">
         <v>155900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>105600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>176400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>132800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>104500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>79100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>127100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>121000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>117800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>103200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>124800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>89800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>90200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>87100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>115000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>98400</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>20100</v>
+      </c>
+      <c r="E42" s="3">
         <v>34200</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>46400</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>55200</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>77100</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>90000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>92700</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>81500</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>81400</v>
-      </c>
-      <c r="L42" s="3">
-        <v>75500</v>
       </c>
       <c r="M42" s="3">
         <v>75500</v>
       </c>
       <c r="N42" s="3">
+        <v>75500</v>
+      </c>
+      <c r="O42" s="3">
         <v>71600</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>75800</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>71800</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>67800</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>58800</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>52000</v>
       </c>
     </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>110000</v>
+      </c>
+      <c r="E43" s="3">
         <v>109300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>127200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>120100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>128300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>129700</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>118900</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>105800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>122900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>116500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>117200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>110100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>124800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>107400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>96300</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>87400</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>94300</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2439,114 +2535,123 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>11000</v>
+      </c>
+      <c r="E45" s="3">
         <v>14800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>14100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>12300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>13200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>10500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>14000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>12200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>11200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>9200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>9600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>9000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>10700</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>9300</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>12400</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>12900</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>12600</v>
       </c>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>328600</v>
+      </c>
+      <c r="E46" s="3">
         <v>314300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>293400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>364000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>351500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>334700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>304600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>326600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>336500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>319000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>305500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>315500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>301100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>278700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>263600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>274000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>257300</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2598,61 +2703,67 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>80500</v>
+      </c>
+      <c r="E48" s="3">
         <v>80400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>82300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>84600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>83000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>78800</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>74700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>46100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>44000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>41400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>40400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>35000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>35200</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>35900</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>36600</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>36700</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>37500</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2704,8 +2815,11 @@
       <c r="S49" s="3">
         <v>8600</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>8600</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,61 +2927,67 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>116900</v>
+      </c>
+      <c r="E52" s="3">
         <v>109900</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>99300</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>106200</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>101300</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>98500</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>101300</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>87600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>91800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>86700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>86000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>80500</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>90800</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>86500</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>89400</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>84400</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>82000</v>
       </c>
     </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,61 +3039,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>534700</v>
+      </c>
+      <c r="E54" s="3">
         <v>513200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>483700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>563400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>544500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>520600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>489200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>468900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>480900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>455700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>440500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>439600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>435600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>409700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>398200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>403700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>385400</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,61 +3141,65 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>18600</v>
+      </c>
+      <c r="E57" s="3">
         <v>16200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>14000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>18600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>16500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>19700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>12400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>12300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>13200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>12400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>16500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>14700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>13800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>10600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>10200</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>10100</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>9700</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3117,114 +3251,123 @@
       <c r="S58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>77800</v>
+      </c>
+      <c r="E59" s="3">
         <v>73600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>63100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>105400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>84500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>73200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>59800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>86000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>74900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>64900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>53200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>78400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>67500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>57500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>47200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>70200</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>59500</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>96400</v>
+      </c>
+      <c r="E60" s="3">
         <v>89800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>77100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>124000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>101000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>92900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>72200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>98300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>88100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>77300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>69600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>93100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>81300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>68100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>57400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>80200</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>69200</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3276,61 +3419,67 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>95100</v>
+      </c>
+      <c r="E62" s="3">
         <v>90800</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>83100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>89200</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>86200</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>83900</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>87900</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>56700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>62100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>59700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>64200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>57400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>54300</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>52200</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>56000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>50200</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>49400</v>
       </c>
     </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,61 +3643,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>191500</v>
+      </c>
+      <c r="E66" s="3">
         <v>180600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>160200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>213200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>187200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>176800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>160000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>155000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>150300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>136900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>133800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>150500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>135600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>120300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>113500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>130400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>118600</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,61 +3945,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>410000</v>
+      </c>
+      <c r="E72" s="3">
         <v>402000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>395600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>384700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>374000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>363000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>350500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>342000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>332900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>322400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>311000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>304000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>313300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>304200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>296000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>291200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>285600</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,61 +4169,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>343200</v>
+      </c>
+      <c r="E76" s="3">
         <v>332600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>323500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>350300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>357300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>343900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>329200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>313900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>330600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>318800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>306600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>289100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>300100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>289400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>284700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>273300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>266800</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,119 +4281,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44106</v>
+      </c>
+      <c r="E80" s="2">
         <v>44015</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43924</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43833</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43735</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43644</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43553</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43462</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43371</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43280</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43189</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43098</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43007</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42734</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>18100</v>
+      </c>
+      <c r="E81" s="3">
         <v>16300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>26300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>19100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>19600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>21000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>22700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>16000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>17500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>18400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>20300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-3700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>14600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>13800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>16600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>10400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>11300</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,8 +4422,9 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4233,16 +4432,16 @@
         <v>1700</v>
       </c>
       <c r="E83" s="3">
+        <v>1700</v>
+      </c>
+      <c r="F83" s="3">
         <v>1800</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>1900</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>1700</v>
-      </c>
-      <c r="H83" s="3">
-        <v>1600</v>
       </c>
       <c r="I83" s="3">
         <v>1600</v>
@@ -4260,10 +4459,10 @@
         <v>1600</v>
       </c>
       <c r="N83" s="3">
+        <v>1600</v>
+      </c>
+      <c r="O83" s="3">
         <v>1500</v>
-      </c>
-      <c r="O83" s="3">
-        <v>1600</v>
       </c>
       <c r="P83" s="3">
         <v>1600</v>
@@ -4274,11 +4473,14 @@
       <c r="R83" s="3">
         <v>1600</v>
       </c>
-      <c r="S83" s="3" t="s">
+      <c r="S83" s="3">
+        <v>1600</v>
+      </c>
+      <c r="T83" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,61 +4756,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>28200</v>
+      </c>
+      <c r="E89" s="3">
         <v>48000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-13800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>55800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>27500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>37100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-12300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>44400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>18900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>24200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>3700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>40900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>9800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>19000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-1800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>29700</v>
       </c>
-      <c r="S89" s="3" t="s">
+      <c r="T89" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,61 +4836,65 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E91" s="3">
         <v>-1200</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-1300</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-6000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-4500</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-6800</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-5700</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-4100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-3200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-2100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-6800</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-1400</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-800</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-1200</v>
-      </c>
-      <c r="Q91" s="3">
-        <v>-1300</v>
       </c>
       <c r="R91" s="3">
         <v>-1300</v>
       </c>
-      <c r="S91" s="3" t="s">
+      <c r="S91" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="T91" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,61 +5002,67 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>12300</v>
+      </c>
+      <c r="E94" s="3">
         <v>10800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>7700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>16000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>8500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-3700</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-16500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-3900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-9100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-2100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-10700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>2600</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-4800</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-5200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-10300</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-8300</v>
       </c>
-      <c r="S94" s="3" t="s">
+      <c r="T94" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5082,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4858,10 +5092,10 @@
         <v>-9800</v>
       </c>
       <c r="E96" s="3">
+        <v>-9800</v>
+      </c>
+      <c r="F96" s="3">
         <v>-10300</v>
-      </c>
-      <c r="F96" s="3">
-        <v>-8300</v>
       </c>
       <c r="G96" s="3">
         <v>-8300</v>
@@ -4870,40 +5104,43 @@
         <v>-8300</v>
       </c>
       <c r="I96" s="3">
+        <v>-8300</v>
+      </c>
+      <c r="J96" s="3">
         <v>-8600</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-6700</v>
-      </c>
-      <c r="K96" s="3">
-        <v>-6800</v>
       </c>
       <c r="L96" s="3">
         <v>-6800</v>
       </c>
       <c r="M96" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="N96" s="3">
         <v>-7000</v>
-      </c>
-      <c r="N96" s="3">
-        <v>-5400</v>
       </c>
       <c r="O96" s="3">
         <v>-5400</v>
       </c>
       <c r="P96" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-5600</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-5400</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-4600</v>
       </c>
-      <c r="S96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,163 +5304,175 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-9300</v>
+      </c>
+      <c r="E100" s="3">
         <v>-8600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-64300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-29000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-7200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-7800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-19400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-34200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-6600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-6400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-15300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-8600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-5800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-11000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-15900</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-4300</v>
       </c>
-      <c r="S100" s="3" t="s">
+      <c r="T100" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>500</v>
+      </c>
+      <c r="E101" s="3">
         <v>100</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-400</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>800</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-400</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-200</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>200</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-200</v>
       </c>
-      <c r="K101" s="3">
-        <v>0</v>
-      </c>
       <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
         <v>-1100</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>700</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>100</v>
-      </c>
-      <c r="O101" s="3">
-        <v>400</v>
       </c>
       <c r="P101" s="3">
         <v>400</v>
       </c>
       <c r="Q101" s="3">
+        <v>400</v>
+      </c>
+      <c r="R101" s="3">
         <v>100</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-500</v>
       </c>
-      <c r="S101" s="3" t="s">
+      <c r="T101" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>31700</v>
+      </c>
+      <c r="E102" s="3">
         <v>50300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-70800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>43600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>28400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>25400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-48000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>6100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>3200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>14600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-21600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>35000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>3100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-27900</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>16500</v>
       </c>
-      <c r="S102" s="3" t="s">
+      <c r="T102" s="3" t="s">
         <v>8</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/EXPO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/EXPO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="92">
   <si>
     <t>EXPO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,257 +665,270 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44197</v>
+      </c>
+      <c r="E7" s="2">
         <v>44106</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44015</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43924</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43833</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43735</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43644</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43553</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43462</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43371</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43280</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43189</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43098</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43007</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42825</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42734</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>103200</v>
+      </c>
+      <c r="E8" s="3">
         <v>98700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>92000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>106000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>110100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>101500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>106500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>99000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>92100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>95300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>95600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>96500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>88300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>87600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>87800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>84100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>77000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>77600</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>5900</v>
+      </c>
+      <c r="E9" s="3">
         <v>5200</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>4200</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>6200</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>7900</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>6000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>6200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>5600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>6900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>6600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>5600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>5800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>5600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>5200</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>3700</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>58100</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>50800</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>51200</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>97300</v>
+      </c>
+      <c r="E10" s="3">
         <v>93500</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>87800</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>99800</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>102200</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>95500</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>100300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>93400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>85200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>88700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>90000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>90700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>82700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>82400</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>84100</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>26000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>26200</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>26400</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -936,8 +949,9 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -992,8 +1006,11 @@
       <c r="T12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,8 +1065,11 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1104,8 +1124,11 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1160,8 +1183,11 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,120 +1205,127 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>85500</v>
+      </c>
+      <c r="E17" s="3">
         <v>78300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>82900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>70000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>88800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>78400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>81700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>83300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>65400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>74700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>73100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>74900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>70500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>68300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>67500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>69500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>62100</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>62000</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>17700</v>
+      </c>
+      <c r="E18" s="3">
         <v>20400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>9100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>36000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>21300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>23100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>24800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>15700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>26700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>20600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>22500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>21600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>17800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>19400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>20300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>14600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>14900</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>15600</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,120 +1346,127 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>9100</v>
+      </c>
+      <c r="E20" s="3">
         <v>4200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>12300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-12000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>5500</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>2100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>4000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>7600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-4800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>3400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>2500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>800</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>2900</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>2700</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>2100</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>2800</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>1900</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>28500</v>
+      </c>
+      <c r="E21" s="3">
         <v>26300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>23100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>25800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>28700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>26900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>30500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>24900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>23500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>25600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>26500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>24000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>22200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>23600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>24000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>19000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>18400</v>
       </c>
-      <c r="T21" s="3" t="s">
+      <c r="U21" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1481,120 +1521,129 @@
       <c r="T22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>26800</v>
+      </c>
+      <c r="E23" s="3">
         <v>24600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>21400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>24100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>26800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>25200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>28900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>23300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>22000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>24000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>24900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>22500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>20700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>22000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>22300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>17400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>16800</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>17900</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E24" s="3">
         <v>6600</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>5100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-2200</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>7700</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>5600</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>7900</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>5900</v>
-      </c>
-      <c r="L24" s="3">
-        <v>6500</v>
       </c>
       <c r="M24" s="3">
         <v>6500</v>
       </c>
       <c r="N24" s="3">
+        <v>6500</v>
+      </c>
+      <c r="O24" s="3">
         <v>2100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>7900</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>7400</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>8600</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>800</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>6400</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>6600</v>
       </c>
     </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,120 +1698,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>21800</v>
+      </c>
+      <c r="E26" s="3">
         <v>18100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>16300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>26300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>19100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>19600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>21000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>22700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>16000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>17500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>18400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>20300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>12800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>14600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>13800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>16600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>10400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>11300</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>21800</v>
+      </c>
+      <c r="E27" s="3">
         <v>18100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>16300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>26300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>19100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>19600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>21000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>22700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>16000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>17500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>18400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>20300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>12800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>14600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>13800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>16600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>10400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>11300</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1875,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1843,11 +1904,11 @@
       <c r="J29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K29" s="3">
-        <v>0</v>
-      </c>
-      <c r="L29" s="3" t="s">
+      <c r="K29" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="L29" s="3">
+        <v>0</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>8</v>
@@ -1855,11 +1916,11 @@
       <c r="N29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O29" s="3">
+      <c r="O29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P29" s="3">
         <v>-16500</v>
-      </c>
-      <c r="P29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>8</v>
@@ -1873,8 +1934,11 @@
       <c r="T29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +1993,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,120 +2052,129 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-9100</v>
+      </c>
+      <c r="E32" s="3">
         <v>-4200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-12300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>12000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-5500</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-2100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-4000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-7600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>4800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-3400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-2500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-800</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-2900</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-2700</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-2100</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-2800</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-1900</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>21800</v>
+      </c>
+      <c r="E33" s="3">
         <v>18100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>16300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>26300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>19100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>19600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>21000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>22700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>16000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>17500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>18400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>20300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-3700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>14600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>13800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>16600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>10400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>11300</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,125 +2229,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>21800</v>
+      </c>
+      <c r="E35" s="3">
         <v>18100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>16300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>26300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>19100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>19600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>21000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>22700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>16000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>17500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>18400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>20300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-3700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>14600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>13800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>16600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>10400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>11300</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44197</v>
+      </c>
+      <c r="E38" s="2">
         <v>44106</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44015</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43924</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43833</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43735</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43644</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43553</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43462</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43371</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43280</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43189</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43098</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43007</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42825</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42734</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2377,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,176 +2400,186 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>197500</v>
+      </c>
+      <c r="E41" s="3">
         <v>187600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>155900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>105600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>176400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>132800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>104500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>79100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>127100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>121000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>117800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>103200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>124800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>89800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>90200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>87100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>115000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>98400</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>45000</v>
+      </c>
+      <c r="E42" s="3">
         <v>20100</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>34200</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>46400</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>55200</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>77100</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>90000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>92700</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>81500</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>81400</v>
-      </c>
-      <c r="M42" s="3">
-        <v>75500</v>
       </c>
       <c r="N42" s="3">
         <v>75500</v>
       </c>
       <c r="O42" s="3">
+        <v>75500</v>
+      </c>
+      <c r="P42" s="3">
         <v>71600</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>75800</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>71800</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>67800</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>58800</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>52000</v>
       </c>
     </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>111600</v>
+      </c>
+      <c r="E43" s="3">
         <v>110000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>109300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>127200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>120100</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>128300</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>129700</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>118900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>105800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>122900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>116500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>117200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>110100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>124800</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>107400</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>96300</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>87400</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>94300</v>
       </c>
     </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2538,120 +2634,129 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>12700</v>
+      </c>
+      <c r="E45" s="3">
         <v>11000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>14800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>14100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>12300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>13200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>10500</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>14000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>12200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>11200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>9200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>9600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>9000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>10700</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>9300</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>12400</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>12900</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>12600</v>
       </c>
     </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>366800</v>
+      </c>
+      <c r="E46" s="3">
         <v>328600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>314300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>293400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>364000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>351500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>334700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>304600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>326600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>336500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>319000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>305500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>315500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>301100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>278700</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>263600</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>274000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>257300</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2706,64 +2811,70 @@
       <c r="T47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>79100</v>
+      </c>
+      <c r="E48" s="3">
         <v>80500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>80400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>82300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>84600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>83000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>78800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>74700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>46100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>44000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>41400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>40400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>35000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>35200</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>35900</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>36600</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>36700</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>37500</v>
       </c>
     </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2818,8 +2929,11 @@
       <c r="T49" s="3">
         <v>8600</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3">
+        <v>8600</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +2988,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,64 +3047,70 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>125500</v>
+      </c>
+      <c r="E52" s="3">
         <v>116900</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>109900</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>99300</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>106200</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>101300</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>98500</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>101300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>87600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>91800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>86700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>86000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>80500</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>90800</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>86500</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>89400</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>84400</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>82000</v>
       </c>
     </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,64 +3165,70 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>580100</v>
+      </c>
+      <c r="E54" s="3">
         <v>534700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>513200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>483700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>563400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>544500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>520600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>489200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>468900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>480900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>455700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>440500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>439600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>435600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>409700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>398200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>403700</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>385400</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3249,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,64 +3272,68 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>16300</v>
+      </c>
+      <c r="E57" s="3">
         <v>18600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>16200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>14000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>18600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>16500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>19700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>12400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>12300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>13200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>12400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>16500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>14700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>13800</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>10600</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>10200</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>10100</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>9700</v>
       </c>
     </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3254,120 +3388,129 @@
       <c r="T58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>101000</v>
+      </c>
+      <c r="E59" s="3">
         <v>77800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>73600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>63100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>105400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>84500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>73200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>59800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>86000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>74900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>64900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>53200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>78400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>67500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>57500</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>47200</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>70200</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>59500</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>117300</v>
+      </c>
+      <c r="E60" s="3">
         <v>96400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>89800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>77100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>124000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>101000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>92900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>72200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>98300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>88100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>77300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>69600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>93100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>81300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>68100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>57400</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>80200</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>69200</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3422,64 +3565,70 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>101300</v>
+      </c>
+      <c r="E62" s="3">
         <v>95100</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>90800</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>83100</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>89200</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>86200</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>83900</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>87900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>56700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>62100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>59700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>64200</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>57400</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>54300</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>52200</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>56000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>50200</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>49400</v>
       </c>
     </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3683,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3742,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,64 +3801,70 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>218600</v>
+      </c>
+      <c r="E66" s="3">
         <v>191500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>180600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>160200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>213200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>187200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>176800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>160000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>155000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>150300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>136900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>133800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>150500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>135600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>120300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>113500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>130400</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>118600</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +3885,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +3942,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4001,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3892,8 +4060,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,64 +4119,70 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>421800</v>
+      </c>
+      <c r="E72" s="3">
         <v>410000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>402000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>395600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>384700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>374000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>363000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>350500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>342000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>332900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>322400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>311000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>304000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>313300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>304200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>296000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>291200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>285600</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4237,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4296,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,64 +4355,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>361500</v>
+      </c>
+      <c r="E76" s="3">
         <v>343200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>332600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>323500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>350300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>357300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>343900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>329200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>313900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>330600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>318800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>306600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>289100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>300100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>289400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>284700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>273300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>266800</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,125 +4473,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44197</v>
+      </c>
+      <c r="E80" s="2">
         <v>44106</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44015</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43924</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43833</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43735</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43644</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43553</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43462</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43371</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43280</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43189</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43098</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43007</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42825</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42734</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>21800</v>
+      </c>
+      <c r="E81" s="3">
         <v>18100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>16300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>26300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>19100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>19600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>21000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>22700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>16000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>17500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>18400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>20300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-3700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>14600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>13800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>16600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>10400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>11300</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,8 +4621,9 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4435,16 +4634,16 @@
         <v>1700</v>
       </c>
       <c r="F83" s="3">
+        <v>1700</v>
+      </c>
+      <c r="G83" s="3">
         <v>1800</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>1900</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>1700</v>
-      </c>
-      <c r="I83" s="3">
-        <v>1600</v>
       </c>
       <c r="J83" s="3">
         <v>1600</v>
@@ -4462,10 +4661,10 @@
         <v>1600</v>
       </c>
       <c r="O83" s="3">
+        <v>1600</v>
+      </c>
+      <c r="P83" s="3">
         <v>1500</v>
-      </c>
-      <c r="P83" s="3">
-        <v>1600</v>
       </c>
       <c r="Q83" s="3">
         <v>1600</v>
@@ -4476,11 +4675,14 @@
       <c r="S83" s="3">
         <v>1600</v>
       </c>
-      <c r="T83" s="3" t="s">
+      <c r="T83" s="3">
+        <v>1600</v>
+      </c>
+      <c r="U83" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4737,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +4796,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +4855,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +4914,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,64 +4973,70 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>40900</v>
+      </c>
+      <c r="E89" s="3">
         <v>28200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>48000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-13800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>55800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>27500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>37100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-12300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>44400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>18900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>24200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>3700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>40900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>9800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>19000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-1800</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>29700</v>
       </c>
-      <c r="T89" s="3" t="s">
+      <c r="U89" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,64 +5057,68 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E91" s="3">
         <v>-1700</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-1200</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-1300</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-6000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-4500</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-6800</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-5700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-4100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-3200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-2100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-6800</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-1400</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-800</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-1200</v>
-      </c>
-      <c r="R91" s="3">
-        <v>-1300</v>
       </c>
       <c r="S91" s="3">
         <v>-1300</v>
       </c>
-      <c r="T91" s="3" t="s">
+      <c r="T91" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="U91" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5173,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,64 +5232,70 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-25800</v>
+      </c>
+      <c r="E94" s="3">
         <v>12300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>10800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>7700</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>16000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>8500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-3700</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-16500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-3900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-9100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-2100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-10700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>2600</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-4800</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-5200</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-10300</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-8300</v>
       </c>
-      <c r="T94" s="3" t="s">
+      <c r="U94" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5316,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5095,10 +5329,10 @@
         <v>-9800</v>
       </c>
       <c r="F96" s="3">
+        <v>-9800</v>
+      </c>
+      <c r="G96" s="3">
         <v>-10300</v>
-      </c>
-      <c r="G96" s="3">
-        <v>-8300</v>
       </c>
       <c r="H96" s="3">
         <v>-8300</v>
@@ -5107,40 +5341,43 @@
         <v>-8300</v>
       </c>
       <c r="J96" s="3">
+        <v>-8300</v>
+      </c>
+      <c r="K96" s="3">
         <v>-8600</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-6700</v>
-      </c>
-      <c r="L96" s="3">
-        <v>-6800</v>
       </c>
       <c r="M96" s="3">
         <v>-6800</v>
       </c>
       <c r="N96" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="O96" s="3">
         <v>-7000</v>
-      </c>
-      <c r="O96" s="3">
-        <v>-5400</v>
       </c>
       <c r="P96" s="3">
         <v>-5400</v>
       </c>
       <c r="Q96" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="R96" s="3">
         <v>-5600</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-5400</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-4600</v>
       </c>
-      <c r="T96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5432,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5491,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,172 +5550,184 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="E100" s="3">
         <v>-9300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-8600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-64300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-29000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-7200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-7800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-19400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-34200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-6600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-6400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-15300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-8600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-5800</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-11000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-15900</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-4300</v>
       </c>
-      <c r="T100" s="3" t="s">
+      <c r="U100" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E101" s="3">
         <v>500</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>100</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-400</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>800</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-400</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-200</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>200</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-200</v>
       </c>
-      <c r="L101" s="3">
-        <v>0</v>
-      </c>
       <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3">
         <v>-1100</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>700</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>100</v>
-      </c>
-      <c r="P101" s="3">
-        <v>400</v>
       </c>
       <c r="Q101" s="3">
         <v>400</v>
       </c>
       <c r="R101" s="3">
+        <v>400</v>
+      </c>
+      <c r="S101" s="3">
         <v>100</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-500</v>
       </c>
-      <c r="T101" s="3" t="s">
+      <c r="U101" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>9900</v>
+      </c>
+      <c r="E102" s="3">
         <v>31700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>50300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-70800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>43600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>28400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>25400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-48000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>6100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>3200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>14600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-21600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>35000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>3100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-27900</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>16500</v>
       </c>
-      <c r="T102" s="3" t="s">
+      <c r="U102" s="3" t="s">
         <v>8</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/EXPO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/EXPO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="92">
   <si>
     <t>EXPO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,270 +665,282 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44288</v>
+      </c>
+      <c r="E7" s="2">
         <v>44197</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44106</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44015</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43924</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43833</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43735</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43644</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43553</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43462</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43371</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43280</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43189</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43098</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43007</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42825</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42734</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>116500</v>
+      </c>
+      <c r="E8" s="3">
         <v>103200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>98700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>92000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>106000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>110100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>101500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>106500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>99000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>92100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>95300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>95600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>96500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>88300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>87600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>87800</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>84100</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>77000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>77600</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>6900</v>
+      </c>
+      <c r="E9" s="3">
         <v>5900</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>5200</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>4200</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>6200</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>7900</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>6000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>6200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>5600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>6900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>6600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>5600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>5800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>5600</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>5200</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>3700</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>58100</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>50800</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>51200</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>109600</v>
+      </c>
+      <c r="E10" s="3">
         <v>97300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>93500</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>87800</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>99800</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>102200</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>95500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>100300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>93400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>85200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>88700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>90000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>90700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>82700</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>82400</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>84100</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>26000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>26200</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>26400</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -950,8 +962,9 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1009,8 +1022,11 @@
       <c r="U12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1068,8 +1084,11 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1127,8 +1146,11 @@
       <c r="U14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1186,8 +1208,11 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1206,126 +1231,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>92400</v>
+      </c>
+      <c r="E17" s="3">
         <v>85500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>78300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>82900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>70000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>88800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>78400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>81700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>83300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>65400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>74700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>73100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>74900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>70500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>68300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>67500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>69500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>62100</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>62000</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>24100</v>
+      </c>
+      <c r="E18" s="3">
         <v>17700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>20400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>9100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>36000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>21300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>23100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>24800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>15700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>26700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>20600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>22500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>21600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>17800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>19400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>20300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>14600</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>14900</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>15600</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1347,126 +1379,133 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E20" s="3">
         <v>9100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>4200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>12300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-12000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>5500</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>2100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>4000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>7600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-4800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>3400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>2500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>800</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>2900</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>2700</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>2100</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>2800</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>1900</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>31800</v>
+      </c>
+      <c r="E21" s="3">
         <v>28500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>26300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>23100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>25800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>28700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>26900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>30500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>24900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>23500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>25600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>26500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>24000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>22200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>23600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>24000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>19000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>18400</v>
       </c>
-      <c r="U21" s="3" t="s">
+      <c r="V21" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1524,126 +1563,135 @@
       <c r="U22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>30100</v>
+      </c>
+      <c r="E23" s="3">
         <v>26800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>24600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>21400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>24100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>26800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>25200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>28900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>23300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>22000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>24000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>24900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>22500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>20700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>22000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>22300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>17400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>16800</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>17900</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E24" s="3">
         <v>5000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>6600</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>5100</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-2200</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>7700</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>5600</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>7900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>5900</v>
-      </c>
-      <c r="M24" s="3">
-        <v>6500</v>
       </c>
       <c r="N24" s="3">
         <v>6500</v>
       </c>
       <c r="O24" s="3">
+        <v>6500</v>
+      </c>
+      <c r="P24" s="3">
         <v>2100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>7900</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>7400</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>8600</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>800</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>6400</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>6600</v>
       </c>
     </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1701,126 +1749,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>30800</v>
+      </c>
+      <c r="E26" s="3">
         <v>21800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>18100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>16300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>26300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>19100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>19600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>21000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>22700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>16000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>17500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>18400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>20300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>12800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>14600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>13800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>16600</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>10400</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>11300</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>30800</v>
+      </c>
+      <c r="E27" s="3">
         <v>21800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>18100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>16300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>26300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>19100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>19600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>21000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>22700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>16000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>17500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>18400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>20300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>12800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>14600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>13800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>16600</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>10400</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>11300</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1878,40 +1935,43 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>8</v>
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L29" s="3">
-        <v>0</v>
-      </c>
-      <c r="M29" s="3" t="s">
+      <c r="L29" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>8</v>
@@ -1919,11 +1979,11 @@
       <c r="O29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P29" s="3">
+      <c r="P29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q29" s="3">
         <v>-16500</v>
-      </c>
-      <c r="Q29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="R29" s="3" t="s">
         <v>8</v>
@@ -1937,8 +1997,11 @@
       <c r="U29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1996,8 +2059,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2055,126 +2121,135 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-9100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-4200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-12300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>12000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-5500</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-2100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-4000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-7600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>4800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-3400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-2500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-800</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-2900</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-2700</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-2100</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-2800</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-1900</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>30800</v>
+      </c>
+      <c r="E33" s="3">
         <v>21800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>18100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>16300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>26300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>19100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>19600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>21000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>22700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>16000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>17500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>18400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>20300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-3700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>14600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>13800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>16600</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>10400</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>11300</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2232,131 +2307,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>30800</v>
+      </c>
+      <c r="E35" s="3">
         <v>21800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>18100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>16300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>26300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>19100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>19600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>21000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>22700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>16000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>17500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>18400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>20300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-3700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>14600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>13800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>16600</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>10400</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>11300</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44288</v>
+      </c>
+      <c r="E38" s="2">
         <v>44197</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44106</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44015</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43924</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43833</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43735</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43644</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43553</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43462</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43371</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43280</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43189</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43098</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43007</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42825</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42734</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2378,8 +2462,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2401,185 +2486,195 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>184500</v>
+      </c>
+      <c r="E41" s="3">
         <v>197500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>187600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>155900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>105600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>176400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>132800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>104500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>79100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>127100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>121000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>117800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>103200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>124800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>89800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>90200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>87100</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>115000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>98400</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>30000</v>
+      </c>
+      <c r="E42" s="3">
         <v>45000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>20100</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>34200</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>46400</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>55200</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>77100</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>90000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>92700</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>81500</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>81400</v>
-      </c>
-      <c r="N42" s="3">
-        <v>75500</v>
       </c>
       <c r="O42" s="3">
         <v>75500</v>
       </c>
       <c r="P42" s="3">
+        <v>75500</v>
+      </c>
+      <c r="Q42" s="3">
         <v>71600</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>75800</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>71800</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>67800</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>58800</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>52000</v>
       </c>
     </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>124200</v>
+      </c>
+      <c r="E43" s="3">
         <v>111600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>110000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>109300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>127200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>120100</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>128300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>129700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>118900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>105800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>122900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>116500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>117200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>110100</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>124800</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>107400</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>96300</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>87400</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>94300</v>
       </c>
     </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2637,126 +2732,135 @@
       <c r="U44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>14800</v>
+      </c>
+      <c r="E45" s="3">
         <v>12700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>11000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>14800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>14100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>12300</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>13200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>10500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>14000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>12200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>11200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>9200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>9600</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>9000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>10700</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>9300</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>12400</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>12900</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>12600</v>
       </c>
     </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>353600</v>
+      </c>
+      <c r="E46" s="3">
         <v>366800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>328600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>314300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>293400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>364000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>351500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>334700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>304600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>326600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>336500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>319000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>305500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>315500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>301100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>278700</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>263600</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>274000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>257300</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2814,67 +2918,73 @@
       <c r="U47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>78900</v>
+      </c>
+      <c r="E48" s="3">
         <v>79100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>80500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>80400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>82300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>84600</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>83000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>78800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>74700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>46100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>44000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>41400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>40400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>35000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>35200</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>35900</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>36600</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>36700</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>37500</v>
       </c>
     </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2932,8 +3042,11 @@
       <c r="U49" s="3">
         <v>8600</v>
       </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="3">
+        <v>8600</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2991,8 +3104,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3050,67 +3166,73 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>135900</v>
+      </c>
+      <c r="E52" s="3">
         <v>125500</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>116900</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>109900</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>99300</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>106200</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>101300</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>98500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>101300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>87600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>91800</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>86700</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>86000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>80500</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>90800</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>86500</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>89400</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>84400</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>82000</v>
       </c>
     </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3168,67 +3290,73 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>577000</v>
+      </c>
+      <c r="E54" s="3">
         <v>580100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>534700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>513200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>483700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>563400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>544500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>520600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>489200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>468900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>480900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>455700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>440500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>439600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>435600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>409700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>398200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>403700</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>385400</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3250,8 +3378,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3273,67 +3402,71 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>18400</v>
+      </c>
+      <c r="E57" s="3">
         <v>16300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>18600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>16200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>14000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>18600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>16500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>19700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>12400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>12300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>13200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>12400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>16500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>14700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>13800</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>10600</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>10200</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>10100</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>9700</v>
       </c>
     </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3391,126 +3524,135 @@
       <c r="U58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>69500</v>
+      </c>
+      <c r="E59" s="3">
         <v>101000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>77800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>73600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>63100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>105400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>84500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>73200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>59800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>86000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>74900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>64900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>53200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>78400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>67500</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>57500</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>47200</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>70200</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>59500</v>
       </c>
     </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>87900</v>
+      </c>
+      <c r="E60" s="3">
         <v>117300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>96400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>89800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>77100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>124000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>101000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>92900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>72200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>98300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>88100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>77300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>69600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>93100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>81300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>68100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>57400</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>80200</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>69200</v>
       </c>
     </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3568,67 +3710,73 @@
       <c r="U61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>111500</v>
+      </c>
+      <c r="E62" s="3">
         <v>101300</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>95100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>90800</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>83100</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>89200</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>86200</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>83900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>87900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>56700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>62100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>59700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>64200</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>57400</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>54300</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>52200</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>56000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>50200</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>49400</v>
       </c>
     </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3686,8 +3834,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3745,8 +3896,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3804,67 +3958,73 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>199400</v>
+      </c>
+      <c r="E66" s="3">
         <v>218600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>191500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>180600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>160200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>213200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>187200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>176800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>160000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>155000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>150300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>136900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>133800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>150500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>135600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>120300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>113500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>130400</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>118600</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3886,8 +4046,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3945,8 +4106,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4004,8 +4168,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4063,8 +4230,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4122,67 +4292,73 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>439700</v>
+      </c>
+      <c r="E72" s="3">
         <v>421800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>410000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>402000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>395600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>384700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>374000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>363000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>350500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>342000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>332900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>322400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>311000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>304000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>313300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>304200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>296000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>291200</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>285600</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4240,8 +4416,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4299,8 +4478,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4358,67 +4540,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>377600</v>
+      </c>
+      <c r="E76" s="3">
         <v>361500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>343200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>332600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>323500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>350300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>357300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>343900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>329200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>313900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>330600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>318800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>306600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>289100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>300100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>289400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>284700</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>273300</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>266800</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4476,131 +4664,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44288</v>
+      </c>
+      <c r="E80" s="2">
         <v>44197</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44106</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44015</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43924</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43833</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43735</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43644</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43553</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43462</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43371</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43280</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43189</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43098</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43007</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42825</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42734</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>30800</v>
+      </c>
+      <c r="E81" s="3">
         <v>21800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>18100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>16300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>26300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>19100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>19600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>21000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>22700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>16000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>17500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>18400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>20300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-3700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>14600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>13800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>16600</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>10400</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>11300</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4622,8 +4819,9 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4637,16 +4835,16 @@
         <v>1700</v>
       </c>
       <c r="G83" s="3">
+        <v>1700</v>
+      </c>
+      <c r="H83" s="3">
         <v>1800</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>1900</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>1700</v>
-      </c>
-      <c r="J83" s="3">
-        <v>1600</v>
       </c>
       <c r="K83" s="3">
         <v>1600</v>
@@ -4664,10 +4862,10 @@
         <v>1600</v>
       </c>
       <c r="P83" s="3">
+        <v>1600</v>
+      </c>
+      <c r="Q83" s="3">
         <v>1500</v>
-      </c>
-      <c r="Q83" s="3">
-        <v>1600</v>
       </c>
       <c r="R83" s="3">
         <v>1600</v>
@@ -4678,11 +4876,14 @@
       <c r="T83" s="3">
         <v>1600</v>
       </c>
-      <c r="U83" s="3" t="s">
+      <c r="U83" s="3">
+        <v>1600</v>
+      </c>
+      <c r="V83" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4740,8 +4941,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4799,8 +5003,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4858,8 +5065,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4917,8 +5127,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4976,67 +5189,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E89" s="3">
         <v>40900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>28200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>48000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-13800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>55800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>27500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>37100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-12300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>44400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>18900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>24200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>3700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>40900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>9800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>19000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-1800</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>29700</v>
       </c>
-      <c r="U89" s="3" t="s">
+      <c r="V89" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5058,67 +5277,71 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="E91" s="3">
         <v>-800</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-1700</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-1200</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-1300</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-6000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-4500</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-6800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-5700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-4100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-3200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-2100</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-6800</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-1400</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-800</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-1200</v>
-      </c>
-      <c r="S91" s="3">
-        <v>-1300</v>
       </c>
       <c r="T91" s="3">
         <v>-1300</v>
       </c>
-      <c r="U91" s="3" t="s">
+      <c r="U91" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="V91" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5176,8 +5399,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5235,67 +5461,73 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>12500</v>
+      </c>
+      <c r="E94" s="3">
         <v>-25800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>12300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>10800</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>7700</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>16000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>8500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-3700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-16500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-3900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-9100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-2100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-10700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>2600</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-4800</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-5200</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-10300</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-8300</v>
       </c>
-      <c r="U94" s="3" t="s">
+      <c r="V94" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5317,13 +5549,14 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-9800</v>
+        <v>-11900</v>
       </c>
       <c r="E96" s="3">
         <v>-9800</v>
@@ -5332,10 +5565,10 @@
         <v>-9800</v>
       </c>
       <c r="G96" s="3">
+        <v>-9800</v>
+      </c>
+      <c r="H96" s="3">
         <v>-10300</v>
-      </c>
-      <c r="H96" s="3">
-        <v>-8300</v>
       </c>
       <c r="I96" s="3">
         <v>-8300</v>
@@ -5344,40 +5577,43 @@
         <v>-8300</v>
       </c>
       <c r="K96" s="3">
+        <v>-8300</v>
+      </c>
+      <c r="L96" s="3">
         <v>-8600</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-6700</v>
-      </c>
-      <c r="M96" s="3">
-        <v>-6800</v>
       </c>
       <c r="N96" s="3">
         <v>-6800</v>
       </c>
       <c r="O96" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="P96" s="3">
         <v>-7000</v>
-      </c>
-      <c r="P96" s="3">
-        <v>-5400</v>
       </c>
       <c r="Q96" s="3">
         <v>-5400</v>
       </c>
       <c r="R96" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="S96" s="3">
         <v>-5600</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-5400</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-4600</v>
       </c>
-      <c r="U96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5435,8 +5671,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5494,8 +5733,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5553,181 +5795,193 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-27000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-6100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-9300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-8600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-64300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-29000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-7200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-7800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-19400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-34200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-6600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-6400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-15300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-8600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-5800</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-11000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-15900</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-4300</v>
       </c>
-      <c r="U100" s="3" t="s">
+      <c r="V100" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>200</v>
+      </c>
+      <c r="E101" s="3">
         <v>1000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>500</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>100</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-400</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>800</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-400</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-200</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>200</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-200</v>
       </c>
-      <c r="M101" s="3">
-        <v>0</v>
-      </c>
       <c r="N101" s="3">
+        <v>0</v>
+      </c>
+      <c r="O101" s="3">
         <v>-1100</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>700</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>100</v>
-      </c>
-      <c r="Q101" s="3">
-        <v>400</v>
       </c>
       <c r="R101" s="3">
         <v>400</v>
       </c>
       <c r="S101" s="3">
+        <v>400</v>
+      </c>
+      <c r="T101" s="3">
         <v>100</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-500</v>
       </c>
-      <c r="U101" s="3" t="s">
+      <c r="V101" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-13000</v>
+      </c>
+      <c r="E102" s="3">
         <v>9900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>31700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>50300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-70800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>43600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>28400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>25400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-48000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>6100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>3200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>14600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-21600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>35000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>3100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-27900</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>16500</v>
       </c>
-      <c r="U102" s="3" t="s">
+      <c r="V102" s="3" t="s">
         <v>8</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/EXPO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/EXPO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="92">
   <si>
     <t>EXPO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,282 +665,295 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44379</v>
+      </c>
+      <c r="E7" s="2">
         <v>44288</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44197</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44106</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44015</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43924</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43833</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43735</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43644</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43553</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43462</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43371</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43280</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43189</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43098</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43007</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42825</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42734</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>119900</v>
+      </c>
+      <c r="E8" s="3">
         <v>116500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>103200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>98700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>92000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>106000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>110100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>101500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>106500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>99000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>92100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>95300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>95600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>96500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>88300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>87600</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>87800</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>84100</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>77000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>77600</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>7400</v>
+      </c>
+      <c r="E9" s="3">
         <v>6900</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>5900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>5200</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>4200</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>6200</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>7900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>6000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>6200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>5600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>6900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>6600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>5600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>5800</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>5600</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>5200</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>3700</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>58100</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>50800</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>51200</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>112500</v>
+      </c>
+      <c r="E10" s="3">
         <v>109600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>97300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>93500</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>87800</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>99800</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>102200</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>95500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>100300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>93400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>85200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>88700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>90000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>90700</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>82700</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>82400</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>84100</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>26000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>26200</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>26400</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -963,8 +976,9 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1025,8 +1039,11 @@
       <c r="V12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1087,8 +1104,11 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1149,8 +1169,11 @@
       <c r="V14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1211,8 +1234,11 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1232,132 +1258,139 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>90500</v>
+      </c>
+      <c r="E17" s="3">
         <v>92400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>85500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>78300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>82900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>70000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>88800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>78400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>81700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>83300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>65400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>74700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>73100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>74900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>70500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>68300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>67500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>69500</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>62100</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>62000</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>29400</v>
+      </c>
+      <c r="E18" s="3">
         <v>24100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>17700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>20400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>9100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>36000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>21300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>23100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>24800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>15700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>26700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>20600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>22500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>21600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>17800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>19400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>20300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>14600</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>14900</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>15600</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1380,132 +1413,139 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>5300</v>
+      </c>
+      <c r="E20" s="3">
         <v>6000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>9100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>4200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>12300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-12000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>5500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>2100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>4000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>7600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-4800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>3400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>2500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>800</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>2900</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>2700</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>2100</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>2800</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>1900</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>36300</v>
+      </c>
+      <c r="E21" s="3">
         <v>31800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>28500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>26300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>23100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>25800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>28700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>26900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>30500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>24900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>23500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>25600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>26500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>24000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>22200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>23600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>24000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>19000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>18400</v>
       </c>
-      <c r="V21" s="3" t="s">
+      <c r="W21" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1566,132 +1606,141 @@
       <c r="V22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>34700</v>
+      </c>
+      <c r="E23" s="3">
         <v>30100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>26800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>24600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>21400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>24100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>26800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>25200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>28900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>23300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>22000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>24000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>24900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>22500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>20700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>22000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>22300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>17400</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>16800</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>17900</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>9300</v>
+      </c>
+      <c r="E24" s="3">
         <v>-700</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>5000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>6600</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>5100</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-2200</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>7700</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>5600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>7900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>5900</v>
-      </c>
-      <c r="N24" s="3">
-        <v>6500</v>
       </c>
       <c r="O24" s="3">
         <v>6500</v>
       </c>
       <c r="P24" s="3">
+        <v>6500</v>
+      </c>
+      <c r="Q24" s="3">
         <v>2100</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>7900</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>7400</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>8600</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>800</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>6400</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>6600</v>
       </c>
     </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1752,132 +1801,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>25400</v>
+      </c>
+      <c r="E26" s="3">
         <v>30800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>21800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>18100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>16300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>26300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>19100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>19600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>21000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>22700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>16000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>17500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>18400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>20300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>12800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>14600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>13800</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>16600</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>10400</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>11300</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>25400</v>
+      </c>
+      <c r="E27" s="3">
         <v>30800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>21800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>18100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>16300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>26300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>19100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>19600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>21000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>22700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>16000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>17500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>18400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>20300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>12800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>14600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>13800</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>16600</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>10400</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>11300</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1938,8 +1996,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1964,17 +2025,17 @@
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>8</v>
+      <c r="K29" s="3">
+        <v>0</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M29" s="3">
-        <v>0</v>
-      </c>
-      <c r="N29" s="3" t="s">
+      <c r="M29" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>8</v>
@@ -1982,11 +2043,11 @@
       <c r="P29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="Q29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R29" s="3">
         <v>-16500</v>
-      </c>
-      <c r="R29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>8</v>
@@ -2000,8 +2061,11 @@
       <c r="V29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2062,8 +2126,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2124,132 +2191,141 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="E32" s="3">
         <v>-6000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-9100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-4200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-12300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>12000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-5500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-2100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-4000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-7600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>4800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-3400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-2500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-800</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-2900</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-2700</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-2100</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-2800</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-1900</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>25400</v>
+      </c>
+      <c r="E33" s="3">
         <v>30800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>21800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>18100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>16300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>26300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>19100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>19600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>21000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>22700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>16000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>17500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>18400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>20300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-3700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>14600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>13800</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>16600</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>10400</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>11300</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2310,137 +2386,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>25400</v>
+      </c>
+      <c r="E35" s="3">
         <v>30800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>21800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>18100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>16300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>26300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>19100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>19600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>21000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>22700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>16000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>17500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>18400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>20300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-3700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>14600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>13800</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>16600</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>10400</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>11300</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44379</v>
+      </c>
+      <c r="E38" s="2">
         <v>44288</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44197</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44106</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44015</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43924</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43833</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43735</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43644</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43553</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43462</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43371</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43280</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43189</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43098</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43007</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42825</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42734</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2463,8 +2548,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2487,194 +2573,204 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>240000</v>
+      </c>
+      <c r="E41" s="3">
         <v>184500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>197500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>187600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>155900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>105600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>176400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>132800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>104500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>79100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>127100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>121000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>117800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>103200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>124800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>89800</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>90200</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>87100</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>115000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>98400</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>0</v>
+      </c>
+      <c r="E42" s="3">
         <v>30000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>45000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>20100</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>34200</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>46400</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>55200</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>77100</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>90000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>92700</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>81500</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>81400</v>
-      </c>
-      <c r="O42" s="3">
-        <v>75500</v>
       </c>
       <c r="P42" s="3">
         <v>75500</v>
       </c>
       <c r="Q42" s="3">
+        <v>75500</v>
+      </c>
+      <c r="R42" s="3">
         <v>71600</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>75800</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>71800</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>67800</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>58800</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>52000</v>
       </c>
     </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>142700</v>
+      </c>
+      <c r="E43" s="3">
         <v>124200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>111600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>110000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>109300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>127200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>120100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>128300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>129700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>118900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>105800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>122900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>116500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>117200</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>110100</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>124800</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>107400</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>96300</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>87400</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>94300</v>
       </c>
     </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2735,132 +2831,141 @@
       <c r="V44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>15100</v>
+      </c>
+      <c r="E45" s="3">
         <v>14800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>12700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>11000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>14800</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>14100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>12300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>13200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>10500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>14000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>12200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>11200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>9200</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>9600</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>9000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>10700</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>9300</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>12400</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>12900</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>12600</v>
       </c>
     </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>397800</v>
+      </c>
+      <c r="E46" s="3">
         <v>353600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>366800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>328600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>314300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>293400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>364000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>351500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>334700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>304600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>326600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>336500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>319000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>305500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>315500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>301100</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>278700</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>263600</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>274000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>257300</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2921,70 +3026,76 @@
       <c r="V47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>77400</v>
+      </c>
+      <c r="E48" s="3">
         <v>78900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>79100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>80500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>80400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>82300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>84600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>83000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>78800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>74700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>46100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>44000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>41400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>40400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>35000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>35200</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>35900</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>36600</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>36700</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>37500</v>
       </c>
     </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3045,8 +3156,11 @@
       <c r="V49" s="3">
         <v>8600</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3">
+        <v>8600</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3107,8 +3221,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3169,70 +3286,76 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>135100</v>
+      </c>
+      <c r="E52" s="3">
         <v>135900</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>125500</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>116900</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>109900</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>99300</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>106200</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>101300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>98500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>101300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>87600</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>91800</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>86700</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>86000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>80500</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>90800</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>86500</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>89400</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>84400</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>82000</v>
       </c>
     </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3293,70 +3416,76 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>618900</v>
+      </c>
+      <c r="E54" s="3">
         <v>577000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>580100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>534700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>513200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>483700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>563400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>544500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>520600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>489200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>468900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>480900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>455700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>440500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>439600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>435600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>409700</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>398200</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>403700</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>385400</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3379,8 +3508,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3403,70 +3533,74 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>27000</v>
+      </c>
+      <c r="E57" s="3">
         <v>18400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>16300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>18600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>16200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>14000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>18600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>16500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>19700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>12400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>12300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>13200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>12400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>16500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>14700</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>13800</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>10600</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>10200</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>10100</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>9700</v>
       </c>
     </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3527,132 +3661,141 @@
       <c r="V58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>96000</v>
+      </c>
+      <c r="E59" s="3">
         <v>69500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>101000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>77800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>73600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>63100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>105400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>84500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>73200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>59800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>86000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>74900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>64900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>53200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>78400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>67500</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>57500</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>47200</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>70200</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>59500</v>
       </c>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>123000</v>
+      </c>
+      <c r="E60" s="3">
         <v>87900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>117300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>96400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>89800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>77100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>124000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>101000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>92900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>72200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>98300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>88100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>77300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>69600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>93100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>81300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>68100</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>57400</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>80200</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>69200</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3713,70 +3856,76 @@
       <c r="V61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>108100</v>
+      </c>
+      <c r="E62" s="3">
         <v>111500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>101300</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>95100</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>90800</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>83100</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>89200</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>86200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>83900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>87900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>56700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>62100</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>59700</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>64200</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>57400</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>54300</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>52200</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>56000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>50200</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>49400</v>
       </c>
     </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3837,8 +3986,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3899,8 +4051,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3961,70 +4116,76 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>231100</v>
+      </c>
+      <c r="E66" s="3">
         <v>199400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>218600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>191500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>180600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>160200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>213200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>187200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>176800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>160000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>155000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>150300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>136900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>133800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>150500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>135600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>120300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>113500</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>130400</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>118600</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4047,8 +4208,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4109,8 +4271,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4171,8 +4336,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4233,8 +4401,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4295,70 +4466,76 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>454600</v>
+      </c>
+      <c r="E72" s="3">
         <v>439700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>421800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>410000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>402000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>395600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>384700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>374000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>363000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>350500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>342000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>332900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>322400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>311000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>304000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>313300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>304200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>296000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>291200</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>285600</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4419,8 +4596,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4481,8 +4661,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4543,70 +4726,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>387800</v>
+      </c>
+      <c r="E76" s="3">
         <v>377600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>361500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>343200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>332600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>323500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>350300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>357300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>343900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>329200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>313900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>330600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>318800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>306600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>289100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>300100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>289400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>284700</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>273300</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>266800</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4667,137 +4856,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44379</v>
+      </c>
+      <c r="E80" s="2">
         <v>44288</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44197</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44106</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44015</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43924</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43833</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43735</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43644</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43553</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43462</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43371</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43280</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43189</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43098</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43007</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42825</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42734</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>25400</v>
+      </c>
+      <c r="E81" s="3">
         <v>30800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>21800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>18100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>16300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>26300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>19100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>19600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>21000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>22700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>16000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>17500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>18400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>20300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-3700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>14600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>13800</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>16600</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>10400</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>11300</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4820,13 +5018,14 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="E83" s="3">
         <v>1700</v>
@@ -4838,16 +5037,16 @@
         <v>1700</v>
       </c>
       <c r="H83" s="3">
+        <v>1700</v>
+      </c>
+      <c r="I83" s="3">
         <v>1800</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>1900</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>1700</v>
-      </c>
-      <c r="K83" s="3">
-        <v>1600</v>
       </c>
       <c r="L83" s="3">
         <v>1600</v>
@@ -4865,10 +5064,10 @@
         <v>1600</v>
       </c>
       <c r="Q83" s="3">
+        <v>1600</v>
+      </c>
+      <c r="R83" s="3">
         <v>1500</v>
-      </c>
-      <c r="R83" s="3">
-        <v>1600</v>
       </c>
       <c r="S83" s="3">
         <v>1600</v>
@@ -4879,11 +5078,14 @@
       <c r="U83" s="3">
         <v>1600</v>
       </c>
-      <c r="V83" s="3" t="s">
+      <c r="V83" s="3">
+        <v>1600</v>
+      </c>
+      <c r="W83" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4944,8 +5146,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5006,8 +5211,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5068,8 +5276,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5130,8 +5341,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5192,70 +5406,76 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>44200</v>
+      </c>
+      <c r="E89" s="3">
         <v>1300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>40900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>28200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>48000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-13800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>55800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>27500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>37100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-12300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>44400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>18900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>24200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>3700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>40900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>9800</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>19000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-1800</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>29700</v>
       </c>
-      <c r="V89" s="3" t="s">
+      <c r="W89" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5278,70 +5498,74 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E91" s="3">
         <v>-2500</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-800</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-1700</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-1200</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-1300</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-6000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-4500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-6800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-5700</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-4100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-3200</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-2100</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-6800</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-1400</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-800</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-1200</v>
-      </c>
-      <c r="T91" s="3">
-        <v>-1300</v>
       </c>
       <c r="U91" s="3">
         <v>-1300</v>
       </c>
-      <c r="V91" s="3" t="s">
+      <c r="V91" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="W91" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5402,8 +5626,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5464,70 +5691,76 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>28300</v>
+      </c>
+      <c r="E94" s="3">
         <v>12500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-25800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>12300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>10800</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>7700</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>16000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>8500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-3700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-16500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-3900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-9100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-2100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-10700</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>2600</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-4800</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-5200</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-10300</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-8300</v>
       </c>
-      <c r="V94" s="3" t="s">
+      <c r="W94" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5550,16 +5783,17 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-10400</v>
+      </c>
+      <c r="E96" s="3">
         <v>-11900</v>
-      </c>
-      <c r="E96" s="3">
-        <v>-9800</v>
       </c>
       <c r="F96" s="3">
         <v>-9800</v>
@@ -5568,10 +5802,10 @@
         <v>-9800</v>
       </c>
       <c r="H96" s="3">
+        <v>-9800</v>
+      </c>
+      <c r="I96" s="3">
         <v>-10300</v>
-      </c>
-      <c r="I96" s="3">
-        <v>-8300</v>
       </c>
       <c r="J96" s="3">
         <v>-8300</v>
@@ -5580,40 +5814,43 @@
         <v>-8300</v>
       </c>
       <c r="L96" s="3">
+        <v>-8300</v>
+      </c>
+      <c r="M96" s="3">
         <v>-8600</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-6700</v>
-      </c>
-      <c r="N96" s="3">
-        <v>-6800</v>
       </c>
       <c r="O96" s="3">
         <v>-6800</v>
       </c>
       <c r="P96" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-7000</v>
-      </c>
-      <c r="Q96" s="3">
-        <v>-5400</v>
       </c>
       <c r="R96" s="3">
         <v>-5400</v>
       </c>
       <c r="S96" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="T96" s="3">
         <v>-5600</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-5400</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-4600</v>
       </c>
-      <c r="V96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5674,8 +5911,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5736,8 +5976,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5798,190 +6041,202 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-17000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-27000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-6100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-9300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-8600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-64300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-29000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-7200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-7800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-19400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-34200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-6600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-6400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-15300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-8600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-5800</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-11000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-15900</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-4300</v>
       </c>
-      <c r="V100" s="3" t="s">
+      <c r="W100" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>0</v>
+      </c>
+      <c r="E101" s="3">
         <v>200</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>1000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>500</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>100</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-400</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>800</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-400</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-200</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>200</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-200</v>
       </c>
-      <c r="N101" s="3">
-        <v>0</v>
-      </c>
       <c r="O101" s="3">
+        <v>0</v>
+      </c>
+      <c r="P101" s="3">
         <v>-1100</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>700</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>100</v>
-      </c>
-      <c r="R101" s="3">
-        <v>400</v>
       </c>
       <c r="S101" s="3">
         <v>400</v>
       </c>
       <c r="T101" s="3">
+        <v>400</v>
+      </c>
+      <c r="U101" s="3">
         <v>100</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-500</v>
       </c>
-      <c r="V101" s="3" t="s">
+      <c r="W101" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>55400</v>
+      </c>
+      <c r="E102" s="3">
         <v>-13000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>9900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>31700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>50300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-70800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>43600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>28400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>25400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-48000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>6100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>3200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>14600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-21600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>35000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-400</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>3100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-27900</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>16500</v>
       </c>
-      <c r="V102" s="3" t="s">
+      <c r="W102" s="3" t="s">
         <v>8</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/EXPO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/EXPO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="92">
   <si>
     <t>EXPO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,295 +665,308 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44470</v>
+      </c>
+      <c r="E7" s="2">
         <v>44379</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44288</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44197</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44106</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44015</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43924</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43833</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43735</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43644</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43553</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43462</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43371</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43280</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43189</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43098</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43007</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42734</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>116400</v>
+      </c>
+      <c r="E8" s="3">
         <v>119900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>116500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>103200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>98700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>92000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>106000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>110100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>101500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>106500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>99000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>92100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>95300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>95600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>96500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>88300</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>87600</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>87800</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>84100</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>77000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>77600</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>7900</v>
+      </c>
+      <c r="E9" s="3">
         <v>7400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>6900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>5900</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>5200</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>4200</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>6200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>7900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>6000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>6200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>5600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>6900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>6600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>5600</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>5800</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>5600</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>5200</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>3700</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>58100</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>50800</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>51200</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>108500</v>
+      </c>
+      <c r="E10" s="3">
         <v>112500</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>109600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>97300</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>93500</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>87800</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>99800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>102200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>95500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>100300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>93400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>85200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>88700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>90000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>90700</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>82700</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>82400</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>84100</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>26000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>26200</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>26400</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -977,8 +990,9 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1042,8 +1056,11 @@
       <c r="W12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1107,8 +1124,11 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1172,8 +1192,11 @@
       <c r="W14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1237,8 +1260,11 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1259,138 +1285,145 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>84300</v>
+      </c>
+      <c r="E17" s="3">
         <v>90500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>92400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>85500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>78300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>82900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>70000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>88800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>78400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>81700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>83300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>65400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>74700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>73100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>74900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>70500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>68300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>67500</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>69500</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>62100</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>62000</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>32100</v>
+      </c>
+      <c r="E18" s="3">
         <v>29400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>24100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>17700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>20400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>9100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>36000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>21300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>23100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>24800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>15700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>26700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>20600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>22500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>21600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>17800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>19400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>20300</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>14600</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>14900</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>15600</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1414,138 +1447,145 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>300</v>
+      </c>
+      <c r="E20" s="3">
         <v>5300</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>6000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>9100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>4200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>12300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-12000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>5500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>2100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>4000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>7600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-4800</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>3400</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>2500</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>800</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>2900</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>2700</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>2100</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>2800</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>1900</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>34000</v>
+      </c>
+      <c r="E21" s="3">
         <v>36300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>31800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>28500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>26300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>23100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>25800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>28700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>26900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>30500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>24900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>23500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>25600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>26500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>24000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>22200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>23600</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>24000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>19000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>18400</v>
       </c>
-      <c r="W21" s="3" t="s">
+      <c r="X21" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1609,138 +1649,147 @@
       <c r="W22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>32400</v>
+      </c>
+      <c r="E23" s="3">
         <v>34700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>30100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>26800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>24600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>21400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>24100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>26800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>25200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>28900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>23300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>22000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>24000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>24900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>22500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>20700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>22000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>22300</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>17400</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>16800</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>17900</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>7800</v>
+      </c>
+      <c r="E24" s="3">
         <v>9300</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-700</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>5000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>6600</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>5100</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-2200</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>7700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>5600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>7900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>5900</v>
-      </c>
-      <c r="O24" s="3">
-        <v>6500</v>
       </c>
       <c r="P24" s="3">
         <v>6500</v>
       </c>
       <c r="Q24" s="3">
+        <v>6500</v>
+      </c>
+      <c r="R24" s="3">
         <v>2100</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>7900</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>7400</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>8600</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>800</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>6400</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>6600</v>
       </c>
     </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1804,138 +1853,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>24600</v>
+      </c>
+      <c r="E26" s="3">
         <v>25400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>30800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>21800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>18100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>16300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>26300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>19100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>19600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>21000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>22700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>16000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>17500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>18400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>20300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>12800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>14600</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>13800</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>16600</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>10400</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>11300</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>24600</v>
+      </c>
+      <c r="E27" s="3">
         <v>25400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>30800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>21800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>18100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>16300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>26300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>19100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>19600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>21000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>22700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>16000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>17500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>18400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>20300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>12800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>14600</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>13800</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>16600</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>10400</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>11300</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1999,8 +2057,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2028,17 +2089,17 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>8</v>
+      <c r="L29" s="3">
+        <v>0</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N29" s="3">
-        <v>0</v>
-      </c>
-      <c r="O29" s="3" t="s">
+      <c r="N29" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="O29" s="3">
+        <v>0</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>8</v>
@@ -2046,11 +2107,11 @@
       <c r="Q29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R29" s="3">
+      <c r="R29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S29" s="3">
         <v>-16500</v>
-      </c>
-      <c r="S29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="T29" s="3" t="s">
         <v>8</v>
@@ -2064,8 +2125,11 @@
       <c r="W29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2129,8 +2193,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2194,138 +2261,147 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E32" s="3">
         <v>-5300</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-6000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-9100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-4200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-12300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>12000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-5500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-2100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-4000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-7600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>4800</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-3400</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-2500</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-800</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-2900</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-2700</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-2100</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-2800</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-1900</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>24600</v>
+      </c>
+      <c r="E33" s="3">
         <v>25400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>30800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>21800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>18100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>16300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>26300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>19100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>19600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>21000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>22700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>16000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>17500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>18400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>20300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-3700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>14600</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>13800</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>16600</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>10400</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>11300</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2389,143 +2465,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>24600</v>
+      </c>
+      <c r="E35" s="3">
         <v>25400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>30800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>21800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>18100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>16300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>26300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>19100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>19600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>21000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>22700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>16000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>17500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>18400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>20300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-3700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>14600</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>13800</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>16600</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>10400</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>11300</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44470</v>
+      </c>
+      <c r="E38" s="2">
         <v>44379</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44288</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44197</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44106</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44015</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43924</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43833</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43735</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43644</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43553</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43462</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43371</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43280</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43189</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43098</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43007</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42734</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2549,8 +2634,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2574,203 +2660,213 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>229800</v>
+      </c>
+      <c r="E41" s="3">
         <v>240000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>184500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>197500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>187600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>155900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>105600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>176400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>132800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>104500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>79100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>127100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>121000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>117800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>103200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>124800</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>89800</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>90200</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>87100</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>115000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>98400</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>0</v>
+        <v>25000</v>
       </c>
       <c r="E42" s="3">
+        <v>0</v>
+      </c>
+      <c r="F42" s="3">
         <v>30000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>45000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>20100</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>34200</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>46400</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>55200</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>77100</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>90000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>92700</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>81500</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>81400</v>
-      </c>
-      <c r="P42" s="3">
-        <v>75500</v>
       </c>
       <c r="Q42" s="3">
         <v>75500</v>
       </c>
       <c r="R42" s="3">
+        <v>75500</v>
+      </c>
+      <c r="S42" s="3">
         <v>71600</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>75800</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>71800</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>67800</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>58800</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>52000</v>
       </c>
     </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>144000</v>
+      </c>
+      <c r="E43" s="3">
         <v>142700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>124200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>111600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>110000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>109300</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>127200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>120100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>128300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>129700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>118900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>105800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>122900</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>116500</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>117200</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>110100</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>124800</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>107400</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>96300</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>87400</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>94300</v>
       </c>
     </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2834,138 +2930,147 @@
       <c r="W44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>18700</v>
+      </c>
+      <c r="E45" s="3">
         <v>15100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>14800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>12700</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>11000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>14800</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>14100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>12300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>13200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>10500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>14000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>12200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>11200</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>9200</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>9600</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>9000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>10700</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>9300</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>12400</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>12900</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>12600</v>
       </c>
     </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>417600</v>
+      </c>
+      <c r="E46" s="3">
         <v>397800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>353600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>366800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>328600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>314300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>293400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>364000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>351500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>334700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>304600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>326600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>336500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>319000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>305500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>315500</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>301100</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>278700</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>263600</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>274000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>257300</v>
       </c>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3029,73 +3134,79 @@
       <c r="W47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>75900</v>
+      </c>
+      <c r="E48" s="3">
         <v>77400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>78900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>79100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>80500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>80400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>82300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>84600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>83000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>78800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>74700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>46100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>44000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>41400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>40400</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>35000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>35200</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>35900</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>36600</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>36700</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>37500</v>
       </c>
     </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3159,8 +3270,11 @@
       <c r="W49" s="3">
         <v>8600</v>
       </c>
-    </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X49" s="3">
+        <v>8600</v>
+      </c>
+    </row>
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3224,8 +3338,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3289,73 +3406,79 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>136300</v>
+      </c>
+      <c r="E52" s="3">
         <v>135100</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>135900</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>125500</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>116900</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>109900</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>99300</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>106200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>101300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>98500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>101300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>87600</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>91800</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>86700</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>86000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>80500</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>90800</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>86500</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>89400</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>84400</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>82000</v>
       </c>
     </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3419,73 +3542,79 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>638300</v>
+      </c>
+      <c r="E54" s="3">
         <v>618900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>577000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>580100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>534700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>513200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>483700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>563400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>544500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>520600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>489200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>468900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>480900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>455700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>440500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>439600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>435600</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>409700</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>398200</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>403700</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>385400</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3509,8 +3638,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3534,73 +3664,77 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>21400</v>
+      </c>
+      <c r="E57" s="3">
         <v>27000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>18400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>16300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>18600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>16200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>14000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>18600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>16500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>19700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>12400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>12300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>13200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>12400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>16500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>14700</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>13800</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>10600</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>10200</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>10100</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>9700</v>
       </c>
     </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3664,138 +3798,147 @@
       <c r="W58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>105000</v>
+      </c>
+      <c r="E59" s="3">
         <v>96000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>69500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>101000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>77800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>73600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>63100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>105400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>84500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>73200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>59800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>86000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>74900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>64900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>53200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>78400</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>67500</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>57500</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>47200</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>70200</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>59500</v>
       </c>
     </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>126400</v>
+      </c>
+      <c r="E60" s="3">
         <v>123000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>87900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>117300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>96400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>89800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>77100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>124000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>101000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>92900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>72200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>98300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>88100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>77300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>69600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>93100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>81300</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>68100</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>57400</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>80200</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>69200</v>
       </c>
     </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3859,73 +4002,79 @@
       <c r="W61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>106900</v>
+      </c>
+      <c r="E62" s="3">
         <v>108100</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>111500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>101300</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>95100</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>90800</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>83100</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>89200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>86200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>83900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>87900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>56700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>62100</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>59700</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>64200</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>57400</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>54300</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>52200</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>56000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>50200</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>49400</v>
       </c>
     </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3989,8 +4138,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4054,8 +4206,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4119,73 +4274,79 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>233300</v>
+      </c>
+      <c r="E66" s="3">
         <v>231100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>199400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>218600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>191500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>180600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>160200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>213200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>187200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>176800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>160000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>155000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>150300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>136900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>133800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>150500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>135600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>120300</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>113500</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>130400</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>118600</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4209,8 +4370,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4274,8 +4436,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4339,8 +4504,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4404,8 +4572,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4469,73 +4640,79 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>468600</v>
+      </c>
+      <c r="E72" s="3">
         <v>454600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>439700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>421800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>410000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>402000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>395600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>384700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>374000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>363000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>350500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>342000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>332900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>322400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>311000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>304000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>313300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>304200</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>296000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>291200</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>285600</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4599,8 +4776,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4664,8 +4844,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4729,73 +4912,79 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>405000</v>
+      </c>
+      <c r="E76" s="3">
         <v>387800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>377600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>361500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>343200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>332600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>323500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>350300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>357300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>343900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>329200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>313900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>330600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>318800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>306600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>289100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>300100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>289400</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>284700</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>273300</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>266800</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4859,143 +5048,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44470</v>
+      </c>
+      <c r="E80" s="2">
         <v>44379</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44288</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44197</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44106</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44015</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43924</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43833</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43735</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43644</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43553</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43462</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43371</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43280</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43189</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43098</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43007</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42734</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>24600</v>
+      </c>
+      <c r="E81" s="3">
         <v>25400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>30800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>21800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>18100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>16300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>26300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>19100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>19600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>21000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>22700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>16000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>17500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>18400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>20300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-3700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>14600</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>13800</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>16600</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>10400</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>11300</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5019,8 +5217,9 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5028,7 +5227,7 @@
         <v>1600</v>
       </c>
       <c r="E83" s="3">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="F83" s="3">
         <v>1700</v>
@@ -5040,16 +5239,16 @@
         <v>1700</v>
       </c>
       <c r="I83" s="3">
+        <v>1700</v>
+      </c>
+      <c r="J83" s="3">
         <v>1800</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>1900</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>1700</v>
-      </c>
-      <c r="L83" s="3">
-        <v>1600</v>
       </c>
       <c r="M83" s="3">
         <v>1600</v>
@@ -5067,10 +5266,10 @@
         <v>1600</v>
       </c>
       <c r="R83" s="3">
+        <v>1600</v>
+      </c>
+      <c r="S83" s="3">
         <v>1500</v>
-      </c>
-      <c r="S83" s="3">
-        <v>1600</v>
       </c>
       <c r="T83" s="3">
         <v>1600</v>
@@ -5081,11 +5280,14 @@
       <c r="V83" s="3">
         <v>1600</v>
       </c>
-      <c r="W83" s="3" t="s">
+      <c r="W83" s="3">
+        <v>1600</v>
+      </c>
+      <c r="X83" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5149,8 +5351,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5214,8 +5419,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5279,8 +5487,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5344,8 +5555,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5409,73 +5623,79 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>24900</v>
+      </c>
+      <c r="E89" s="3">
         <v>44200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>1300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>40900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>28200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>48000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-13800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>55800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>27500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>37100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-12300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>44400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>18900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>24200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>3700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>40900</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>9800</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>19000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-1800</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>29700</v>
       </c>
-      <c r="W89" s="3" t="s">
+      <c r="X89" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5499,73 +5719,77 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E91" s="3">
         <v>-1700</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-2500</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-800</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-1700</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-1200</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-1300</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-6000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-4500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-6800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-5700</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-4100</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-3200</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-2100</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-6800</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-1400</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-800</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-1200</v>
-      </c>
-      <c r="U91" s="3">
-        <v>-1300</v>
       </c>
       <c r="V91" s="3">
         <v>-1300</v>
       </c>
-      <c r="W91" s="3" t="s">
+      <c r="W91" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="X91" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5629,8 +5853,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5694,73 +5921,79 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-26200</v>
+      </c>
+      <c r="E94" s="3">
         <v>28300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>12500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-25800</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>12300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>10800</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>7700</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>16000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>8500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-3700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-16500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-3900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-9100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-2100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-10700</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>2600</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-4800</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-5200</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-10300</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-8300</v>
       </c>
-      <c r="W94" s="3" t="s">
+      <c r="X94" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5784,8 +6017,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5793,10 +6027,10 @@
         <v>-10400</v>
       </c>
       <c r="E96" s="3">
+        <v>-10400</v>
+      </c>
+      <c r="F96" s="3">
         <v>-11900</v>
-      </c>
-      <c r="F96" s="3">
-        <v>-9800</v>
       </c>
       <c r="G96" s="3">
         <v>-9800</v>
@@ -5805,10 +6039,10 @@
         <v>-9800</v>
       </c>
       <c r="I96" s="3">
+        <v>-9800</v>
+      </c>
+      <c r="J96" s="3">
         <v>-10300</v>
-      </c>
-      <c r="J96" s="3">
-        <v>-8300</v>
       </c>
       <c r="K96" s="3">
         <v>-8300</v>
@@ -5817,40 +6051,43 @@
         <v>-8300</v>
       </c>
       <c r="M96" s="3">
+        <v>-8300</v>
+      </c>
+      <c r="N96" s="3">
         <v>-8600</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-6700</v>
-      </c>
-      <c r="O96" s="3">
-        <v>-6800</v>
       </c>
       <c r="P96" s="3">
         <v>-6800</v>
       </c>
       <c r="Q96" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="R96" s="3">
         <v>-7000</v>
-      </c>
-      <c r="R96" s="3">
-        <v>-5400</v>
       </c>
       <c r="S96" s="3">
         <v>-5400</v>
       </c>
       <c r="T96" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="U96" s="3">
         <v>-5600</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-5400</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-4600</v>
       </c>
-      <c r="W96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5914,8 +6151,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5979,8 +6219,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6044,199 +6287,211 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-8800</v>
+      </c>
+      <c r="E100" s="3">
         <v>-17000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-27000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-6100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-9300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-8600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-64300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-29000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-7200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-7800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-19400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-34200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-6600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-6400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-15300</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-8600</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-5800</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-11000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-15900</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-4300</v>
       </c>
-      <c r="W100" s="3" t="s">
+      <c r="X100" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E101" s="3">
+        <v>0</v>
+      </c>
+      <c r="F101" s="3">
         <v>200</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>1000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>500</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>100</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-400</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>800</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-400</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-200</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>200</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-200</v>
       </c>
-      <c r="O101" s="3">
-        <v>0</v>
-      </c>
       <c r="P101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>700</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>100</v>
-      </c>
-      <c r="S101" s="3">
-        <v>400</v>
       </c>
       <c r="T101" s="3">
         <v>400</v>
       </c>
       <c r="U101" s="3">
+        <v>400</v>
+      </c>
+      <c r="V101" s="3">
         <v>100</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-500</v>
       </c>
-      <c r="W101" s="3" t="s">
+      <c r="X101" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-10200</v>
+      </c>
+      <c r="E102" s="3">
         <v>55400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-13000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>9900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>31700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>50300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-70800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>43600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>28400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>25400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-48000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>6100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>3200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>14600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-21600</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>35000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-400</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>3100</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-27900</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>16500</v>
       </c>
-      <c r="W102" s="3" t="s">
+      <c r="X102" s="3" t="s">
         <v>8</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/EXPO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/EXPO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="92">
   <si>
     <t>EXPO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,308 +665,321 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44470</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44379</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44288</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44197</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44106</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44015</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43924</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43833</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43735</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43644</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43553</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43462</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43371</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43280</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43189</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43098</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43007</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42825</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42734</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>113500</v>
+      </c>
+      <c r="E8" s="3">
         <v>116400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>119900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>116500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>103200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>98700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>92000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>106000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>110100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>101500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>106500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>99000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>92100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>95300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>95600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>96500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>88300</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>87600</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>87800</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>84100</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>77000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>77600</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>9200</v>
+      </c>
+      <c r="E9" s="3">
         <v>7900</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>7400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>6900</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>5900</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>5200</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>4200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>6200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>7900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>6000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>6200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>5600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>6900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>6600</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>5600</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>5800</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>5600</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>5200</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>3700</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>58100</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>50800</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>51200</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>104300</v>
+      </c>
+      <c r="E10" s="3">
         <v>108500</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>112500</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>109600</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>97300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>93500</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>87800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>99800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>102200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>95500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>100300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>93400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>85200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>88700</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>90000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>90700</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>82700</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>82400</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>84100</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>26000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>26200</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>26400</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -991,8 +1004,9 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1059,8 +1073,11 @@
       <c r="X12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1127,8 +1144,11 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1195,8 +1215,11 @@
       <c r="X14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1263,8 +1286,11 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1286,144 +1312,151 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>90100</v>
+      </c>
+      <c r="E17" s="3">
         <v>84300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>90500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>92400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>85500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>78300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>82900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>70000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>88800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>78400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>81700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>83300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>65400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>74700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>73100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>74900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>70500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>68300</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>67500</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>69500</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>62100</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>62000</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>23400</v>
+      </c>
+      <c r="E18" s="3">
         <v>32100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>29400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>24100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>17700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>20400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>9100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>36000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>21300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>23100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>24800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>15700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>26700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>20600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>22500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>21600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>17800</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>19400</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>20300</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>14600</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>14900</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>15600</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1448,144 +1481,151 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>5300</v>
+      </c>
+      <c r="E20" s="3">
         <v>300</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>5300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>6000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>9100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>4200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>12300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-12000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>5500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>2100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>4000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>7600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-4800</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>3400</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>2500</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>800</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>2900</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>2700</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>2100</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>2800</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>1900</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>30200</v>
+      </c>
+      <c r="E21" s="3">
         <v>34000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>36300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>31800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>28500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>26300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>23100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>25800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>28700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>26900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>30500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>24900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>23500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>25600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>26500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>24000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>22200</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>23600</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>24000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>19000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>18400</v>
       </c>
-      <c r="X21" s="3" t="s">
+      <c r="Y21" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1652,144 +1692,153 @@
       <c r="X22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>28700</v>
+      </c>
+      <c r="E23" s="3">
         <v>32400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>34700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>30100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>26800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>24600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>21400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>24100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>26800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>25200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>28900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>23300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>22000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>24000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>24900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>22500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>20700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>22000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>22300</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>17400</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>16800</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>17900</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>8300</v>
+      </c>
+      <c r="E24" s="3">
         <v>7800</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>9300</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-700</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>5000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>6600</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>5100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-2200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>7700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>5600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>7900</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>600</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>5900</v>
-      </c>
-      <c r="P24" s="3">
-        <v>6500</v>
       </c>
       <c r="Q24" s="3">
         <v>6500</v>
       </c>
       <c r="R24" s="3">
+        <v>6500</v>
+      </c>
+      <c r="S24" s="3">
         <v>2100</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>7900</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>7400</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>8600</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>800</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>6400</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>6600</v>
       </c>
     </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1856,144 +1905,153 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>20400</v>
+      </c>
+      <c r="E26" s="3">
         <v>24600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>25400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>30800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>21800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>18100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>16300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>26300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>19100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>19600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>21000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>22700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>16000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>17500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>18400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>20300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>12800</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>14600</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>13800</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>16600</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>10400</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>11300</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>20400</v>
+      </c>
+      <c r="E27" s="3">
         <v>24600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>25400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>30800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>21800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>18100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>16300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>26300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>19100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>19600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>21000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>22700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>16000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>17500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>18400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>20300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>12800</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>14600</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>13800</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>16600</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>10400</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>11300</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2060,8 +2118,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2092,17 +2153,17 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>8</v>
+      <c r="M29" s="3">
+        <v>0</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O29" s="3">
-        <v>0</v>
-      </c>
-      <c r="P29" s="3" t="s">
+      <c r="O29" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="P29" s="3">
+        <v>0</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>8</v>
@@ -2110,11 +2171,11 @@
       <c r="R29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S29" s="3">
+      <c r="S29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T29" s="3">
         <v>-16500</v>
-      </c>
-      <c r="T29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="U29" s="3" t="s">
         <v>8</v>
@@ -2128,8 +2189,11 @@
       <c r="X29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2196,8 +2260,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2264,144 +2331,153 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="E32" s="3">
         <v>-300</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-5300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-6000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-9100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-4200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-12300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>12000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-5500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-2100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-4000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-7600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>4800</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-3400</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-2500</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-800</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-2900</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-2700</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-2100</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-2800</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-1900</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>20400</v>
+      </c>
+      <c r="E33" s="3">
         <v>24600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>25400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>30800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>21800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>18100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>16300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>26300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>19100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>19600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>21000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>22700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>16000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>17500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>18400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>20300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-3700</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>14600</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>13800</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>16600</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>10400</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>11300</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2468,149 +2544,158 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>20400</v>
+      </c>
+      <c r="E35" s="3">
         <v>24600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>25400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>30800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>21800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>18100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>16300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>26300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>19100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>19600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>21000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>22700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>16000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>17500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>18400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>20300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-3700</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>14600</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>13800</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>16600</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>10400</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>11300</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44470</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44379</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44288</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44197</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44106</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44015</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43924</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43833</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43735</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43644</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43553</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43462</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43371</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43280</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43189</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43098</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43007</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42825</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42734</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2635,8 +2720,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2661,212 +2747,222 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>297700</v>
+      </c>
+      <c r="E41" s="3">
         <v>229800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>240000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>184500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>197500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>187600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>155900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>105600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>176400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>132800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>104500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>79100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>127100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>121000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>117800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>103200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>124800</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>89800</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>90200</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>87100</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>115000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>98400</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="3">
+      <c r="D42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E42" s="3">
         <v>25000</v>
       </c>
-      <c r="E42" s="3">
-        <v>0</v>
-      </c>
       <c r="F42" s="3">
+        <v>0</v>
+      </c>
+      <c r="G42" s="3">
         <v>30000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>45000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>20100</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>34200</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>46400</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>55200</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>77100</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>90000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>92700</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>81500</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>81400</v>
-      </c>
-      <c r="Q42" s="3">
-        <v>75500</v>
       </c>
       <c r="R42" s="3">
         <v>75500</v>
       </c>
       <c r="S42" s="3">
+        <v>75500</v>
+      </c>
+      <c r="T42" s="3">
         <v>71600</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>75800</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>71800</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>67800</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>58800</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>52000</v>
       </c>
     </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>139900</v>
+      </c>
+      <c r="E43" s="3">
         <v>144000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>142700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>124200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>111600</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>110000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>109300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>127200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>120100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>128300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>129700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>118900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>105800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>122900</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>116500</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>117200</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>110100</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>124800</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>107400</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>96300</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>87400</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>94300</v>
       </c>
     </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2933,144 +3029,153 @@
       <c r="X44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>15200</v>
+      </c>
+      <c r="E45" s="3">
         <v>18700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>15100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>14800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>12700</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>11000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>14800</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>14100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>12300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>13200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>10500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>14000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>12200</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>11200</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>9200</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>9600</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>9000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>10700</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>9300</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>12400</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>12900</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>12600</v>
       </c>
     </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>452800</v>
+      </c>
+      <c r="E46" s="3">
         <v>417600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>397800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>353600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>366800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>328600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>314300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>293400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>364000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>351500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>334700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>304600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>326600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>336500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>319000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>305500</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>315500</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>301100</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>278700</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>263600</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>274000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>257300</v>
       </c>
     </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3137,76 +3242,82 @@
       <c r="X47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>74300</v>
+      </c>
+      <c r="E48" s="3">
         <v>75900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>77400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>78900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>79100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>80500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>80400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>82300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>84600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>83000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>78800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>74700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>46100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>44000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>41400</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>40400</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>35000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>35200</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>35900</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>36600</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>36700</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>37500</v>
       </c>
     </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3273,8 +3384,11 @@
       <c r="X49" s="3">
         <v>8600</v>
       </c>
-    </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y49" s="3">
+        <v>8600</v>
+      </c>
+    </row>
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3341,8 +3455,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3409,76 +3526,82 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>148000</v>
+      </c>
+      <c r="E52" s="3">
         <v>136300</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>135100</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>135900</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>125500</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>116900</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>109900</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>99300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>106200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>101300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>98500</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>101300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>87600</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>91800</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>86700</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>86000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>80500</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>90800</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>86500</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>89400</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>84400</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>82000</v>
       </c>
     </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3545,76 +3668,82 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>683700</v>
+      </c>
+      <c r="E54" s="3">
         <v>638300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>618900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>577000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>580100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>534700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>513200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>483700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>563400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>544500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>520600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>489200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>468900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>480900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>455700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>440500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>439600</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>435600</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>409700</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>398200</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>403700</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>385400</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3639,8 +3768,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3665,76 +3795,80 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>24500</v>
+      </c>
+      <c r="E57" s="3">
         <v>21400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>27000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>18400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>16300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>18600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>16200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>14000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>18600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>16500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>19700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>12400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>12300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>13200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>12400</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>16500</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>14700</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>13800</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>10600</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>10200</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>10100</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>9700</v>
       </c>
     </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3801,144 +3935,153 @@
       <c r="X58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>128500</v>
+      </c>
+      <c r="E59" s="3">
         <v>105000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>96000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>69500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>101000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>77800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>73600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>63100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>105400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>84500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>73200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>59800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>86000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>74900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>64900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>53200</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>78400</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>67500</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>57500</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>47200</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>70200</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>59500</v>
       </c>
     </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>153000</v>
+      </c>
+      <c r="E60" s="3">
         <v>126400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>123000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>87900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>117300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>96400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>89800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>77100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>124000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>101000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>92900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>72200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>98300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>88100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>77300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>69600</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>93100</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>81300</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>68100</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>57400</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>80200</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>69200</v>
       </c>
     </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4005,76 +4148,82 @@
       <c r="X61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>113700</v>
+      </c>
+      <c r="E62" s="3">
         <v>106900</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>108100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>111500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>101300</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>95100</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>90800</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>83100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>89200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>86200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>83900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>87900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>56700</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>62100</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>59700</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>64200</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>57400</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>54300</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>52200</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>56000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>50200</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>49400</v>
       </c>
     </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4141,8 +4290,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4209,8 +4361,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4277,76 +4432,82 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>266700</v>
+      </c>
+      <c r="E66" s="3">
         <v>233300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>231100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>199400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>218600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>191500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>180600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>160200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>213200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>187200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>176800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>160000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>155000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>150300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>136900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>133800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>150500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>135600</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>120300</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>113500</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>130400</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>118600</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4371,8 +4532,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4439,8 +4601,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4507,8 +4672,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4575,8 +4743,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4643,76 +4814,82 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>478400</v>
+      </c>
+      <c r="E72" s="3">
         <v>468600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>454600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>439700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>421800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>410000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>402000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>395600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>384700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>374000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>363000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>350500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>342000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>332900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>322400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>311000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>304000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>313300</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>304200</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>296000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>291200</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>285600</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4779,8 +4956,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4847,8 +5027,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4915,76 +5098,82 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>417100</v>
+      </c>
+      <c r="E76" s="3">
         <v>405000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>387800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>377600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>361500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>343200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>332600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>323500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>350300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>357300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>343900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>329200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>313900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>330600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>318800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>306600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>289100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>300100</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>289400</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>284700</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>273300</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>266800</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5051,149 +5240,158 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44470</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44379</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44288</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44197</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44106</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44015</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43924</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43833</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43735</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43644</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43553</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43462</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43371</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43280</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43189</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43098</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43007</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42825</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42734</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>20400</v>
+      </c>
+      <c r="E81" s="3">
         <v>24600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>25400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>30800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>21800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>18100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>16300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>26300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>19100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>19600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>21000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>22700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>16000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>17500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>18400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>20300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-3700</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>14600</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>13800</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>16600</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>10400</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>11300</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5218,19 +5416,20 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="E83" s="3">
         <v>1600</v>
       </c>
       <c r="F83" s="3">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="G83" s="3">
         <v>1700</v>
@@ -5242,16 +5441,16 @@
         <v>1700</v>
       </c>
       <c r="J83" s="3">
+        <v>1700</v>
+      </c>
+      <c r="K83" s="3">
         <v>1800</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>1900</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>1700</v>
-      </c>
-      <c r="M83" s="3">
-        <v>1600</v>
       </c>
       <c r="N83" s="3">
         <v>1600</v>
@@ -5269,10 +5468,10 @@
         <v>1600</v>
       </c>
       <c r="S83" s="3">
+        <v>1600</v>
+      </c>
+      <c r="T83" s="3">
         <v>1500</v>
-      </c>
-      <c r="T83" s="3">
-        <v>1600</v>
       </c>
       <c r="U83" s="3">
         <v>1600</v>
@@ -5283,11 +5482,14 @@
       <c r="W83" s="3">
         <v>1600</v>
       </c>
-      <c r="X83" s="3" t="s">
+      <c r="X83" s="3">
+        <v>1600</v>
+      </c>
+      <c r="Y83" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5354,8 +5556,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5422,8 +5627,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5490,8 +5698,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5558,8 +5769,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5626,76 +5840,82 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>54200</v>
+      </c>
+      <c r="E89" s="3">
         <v>24900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>44200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>1300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>40900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>28200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>48000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-13800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>55800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>27500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>37100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-12300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>44400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>18900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>24200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>3700</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>40900</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>9800</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>19000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-1800</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>29700</v>
       </c>
-      <c r="X89" s="3" t="s">
+      <c r="Y89" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5720,76 +5940,80 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E91" s="3">
         <v>-1200</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-1700</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-2500</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-800</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-1700</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-1200</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-1300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-6000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-4500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-6800</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-5700</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-4100</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-3200</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-2100</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-6800</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-1400</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-800</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-1200</v>
-      </c>
-      <c r="V91" s="3">
-        <v>-1300</v>
       </c>
       <c r="W91" s="3">
         <v>-1300</v>
       </c>
-      <c r="X91" s="3" t="s">
+      <c r="X91" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="Y91" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5856,8 +6080,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5924,76 +6151,82 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>23600</v>
+      </c>
+      <c r="E94" s="3">
         <v>-26200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>28300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>12500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-25800</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>12300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>10800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>7700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>16000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>8500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-3700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-16500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-3900</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-9100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-2100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-10700</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>2600</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-4800</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-5200</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-10300</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-8300</v>
       </c>
-      <c r="X94" s="3" t="s">
+      <c r="Y94" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6018,8 +6251,9 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6030,10 +6264,10 @@
         <v>-10400</v>
       </c>
       <c r="F96" s="3">
+        <v>-10400</v>
+      </c>
+      <c r="G96" s="3">
         <v>-11900</v>
-      </c>
-      <c r="G96" s="3">
-        <v>-9800</v>
       </c>
       <c r="H96" s="3">
         <v>-9800</v>
@@ -6042,10 +6276,10 @@
         <v>-9800</v>
       </c>
       <c r="J96" s="3">
+        <v>-9800</v>
+      </c>
+      <c r="K96" s="3">
         <v>-10300</v>
-      </c>
-      <c r="K96" s="3">
-        <v>-8300</v>
       </c>
       <c r="L96" s="3">
         <v>-8300</v>
@@ -6054,40 +6288,43 @@
         <v>-8300</v>
       </c>
       <c r="N96" s="3">
+        <v>-8300</v>
+      </c>
+      <c r="O96" s="3">
         <v>-8600</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-6700</v>
-      </c>
-      <c r="P96" s="3">
-        <v>-6800</v>
       </c>
       <c r="Q96" s="3">
         <v>-6800</v>
       </c>
       <c r="R96" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="S96" s="3">
         <v>-7000</v>
-      </c>
-      <c r="S96" s="3">
-        <v>-5400</v>
       </c>
       <c r="T96" s="3">
         <v>-5400</v>
       </c>
       <c r="U96" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="V96" s="3">
         <v>-5600</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-5400</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-4600</v>
       </c>
-      <c r="X96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6154,8 +6391,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6222,8 +6462,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6290,208 +6533,220 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-8800</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-17000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-27000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-6100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-9300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-8600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-64300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-29000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-7200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-7800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-19400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-34200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-6600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-6400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-15300</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-8600</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-5800</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-11000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-15900</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-4300</v>
       </c>
-      <c r="X100" s="3" t="s">
+      <c r="Y100" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>100</v>
+      </c>
+      <c r="E101" s="3">
         <v>-100</v>
       </c>
-      <c r="E101" s="3">
-        <v>0</v>
-      </c>
       <c r="F101" s="3">
+        <v>0</v>
+      </c>
+      <c r="G101" s="3">
         <v>200</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>1000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>500</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>100</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-400</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>800</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-400</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-200</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>200</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-200</v>
       </c>
-      <c r="P101" s="3">
-        <v>0</v>
-      </c>
       <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
         <v>-1100</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>700</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>100</v>
-      </c>
-      <c r="T101" s="3">
-        <v>400</v>
       </c>
       <c r="U101" s="3">
         <v>400</v>
       </c>
       <c r="V101" s="3">
+        <v>400</v>
+      </c>
+      <c r="W101" s="3">
         <v>100</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-500</v>
       </c>
-      <c r="X101" s="3" t="s">
+      <c r="Y101" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>67900</v>
+      </c>
+      <c r="E102" s="3">
         <v>-10200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>55400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-13000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>9900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>31700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>50300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-70800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>43600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>28400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>25400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-48000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>6100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>3200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>14600</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-21600</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>35000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-400</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>3100</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-27900</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>16500</v>
       </c>
-      <c r="X102" s="3" t="s">
+      <c r="Y102" s="3" t="s">
         <v>8</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/EXPO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/EXPO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="92">
   <si>
     <t>EXPO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,321 +665,334 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44652</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44470</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44379</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44288</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44197</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44106</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44015</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43924</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43833</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43735</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43644</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43553</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43462</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43371</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43280</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43189</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43098</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43007</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42916</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42825</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42734</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>128500</v>
+      </c>
+      <c r="E8" s="3">
         <v>113500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>116400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>119900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>116500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>103200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>98700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>92000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>106000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>110100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>101500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>106500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>99000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>92100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>95300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>95600</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>96500</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>88300</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>87600</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>87800</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>84100</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>77000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>77600</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>10600</v>
+      </c>
+      <c r="E9" s="3">
         <v>9200</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>7900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>7400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>6900</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>5900</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>5200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>4200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>6200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>7900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>6000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>6200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>5600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>6900</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>6600</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>5600</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>5800</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>5600</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>5200</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>3700</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>58100</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>50800</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>51200</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>117900</v>
+      </c>
+      <c r="E10" s="3">
         <v>104300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>108500</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>112500</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>109600</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>97300</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>93500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>87800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>99800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>102200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>95500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>100300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>93400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>85200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>88700</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>90000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>90700</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>82700</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>82400</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>84100</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>26000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>26200</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>26400</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1005,8 +1018,9 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1076,8 +1090,11 @@
       <c r="Y12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1147,8 +1164,11 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1218,8 +1238,11 @@
       <c r="Y14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1289,8 +1312,11 @@
       <c r="Y15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1313,150 +1339,157 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>91800</v>
+      </c>
+      <c r="E17" s="3">
         <v>90100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>84300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>90500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>92400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>85500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>78300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>82900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>70000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>88800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>78400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>81700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>83300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>65400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>74700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>73100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>74900</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>70500</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>68300</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>67500</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>69500</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>62100</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>62000</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>36700</v>
+      </c>
+      <c r="E18" s="3">
         <v>23400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>32100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>29400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>24100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>17700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>20400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>9100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>36000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>21300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>23100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>24800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>15700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>26700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>20600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>22500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>21600</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>17800</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>19400</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>20300</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>14600</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>14900</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>15600</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1482,150 +1515,157 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="E20" s="3">
         <v>5300</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>5300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>6000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>9100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>4200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>12300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-12000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>5500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>2100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>4000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>7600</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-4800</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>3400</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>2500</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>800</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>2900</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>2700</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>2100</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>2800</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>1900</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>34500</v>
+      </c>
+      <c r="E21" s="3">
         <v>30200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>34000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>36300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>31800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>28500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>26300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>23100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>25800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>28700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>26900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>30500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>24900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>23500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>25600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>26500</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>24000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>22200</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>23600</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>24000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>19000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>18400</v>
       </c>
-      <c r="Y21" s="3" t="s">
+      <c r="Z21" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1695,150 +1735,159 @@
       <c r="Y22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>32800</v>
+      </c>
+      <c r="E23" s="3">
         <v>28700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>32400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>34700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>30100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>26800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>24600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>21400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>24100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>26800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>25200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>28900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>23300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>22000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>24000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>24900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>22500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>20700</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>22000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>22300</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>17400</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>16800</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>17900</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E24" s="3">
         <v>8300</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>7800</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>9300</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-700</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>5000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>6600</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>5100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-2200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>7700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>5600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>7900</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>600</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>5900</v>
-      </c>
-      <c r="Q24" s="3">
-        <v>6500</v>
       </c>
       <c r="R24" s="3">
         <v>6500</v>
       </c>
       <c r="S24" s="3">
+        <v>6500</v>
+      </c>
+      <c r="T24" s="3">
         <v>2100</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>7900</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>7400</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>8600</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>800</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>6400</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>6600</v>
       </c>
     </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1908,150 +1957,159 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>29600</v>
+      </c>
+      <c r="E26" s="3">
         <v>20400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>24600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>25400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>30800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>21800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>18100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>16300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>26300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>19100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>19600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>21000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>22700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>16000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>17500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>18400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>20300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>12800</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>14600</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>13800</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>16600</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>10400</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>11300</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>29600</v>
+      </c>
+      <c r="E27" s="3">
         <v>20400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>24600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>25400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>30800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>21800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>18100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>16300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>26300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>19100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>19600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>21000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>22700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>16000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>17500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>18400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>20300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>12800</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>14600</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>13800</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>16600</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>10400</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>11300</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2121,8 +2179,11 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2156,17 +2217,17 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-      <c r="N29" s="3" t="s">
-        <v>8</v>
+      <c r="N29" s="3">
+        <v>0</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P29" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q29" s="3" t="s">
+      <c r="P29" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="Q29" s="3">
+        <v>0</v>
       </c>
       <c r="R29" s="3" t="s">
         <v>8</v>
@@ -2174,11 +2235,11 @@
       <c r="S29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T29" s="3">
+      <c r="T29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U29" s="3">
         <v>-16500</v>
-      </c>
-      <c r="U29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="V29" s="3" t="s">
         <v>8</v>
@@ -2192,8 +2253,11 @@
       <c r="Y29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2263,8 +2327,11 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2334,150 +2401,159 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E32" s="3">
         <v>-5300</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-5300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-6000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-9100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-4200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-12300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>12000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-5500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-2100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-4000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-7600</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>4800</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-3400</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-2500</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-800</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-2900</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-2700</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-2100</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-2800</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-1900</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>29600</v>
+      </c>
+      <c r="E33" s="3">
         <v>20400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>24600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>25400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>30800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>21800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>18100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>16300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>26300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>19100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>19600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>21000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>22700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>16000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>17500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>18400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>20300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-3700</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>14600</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>13800</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>16600</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>10400</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>11300</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2547,155 +2623,164 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>29600</v>
+      </c>
+      <c r="E35" s="3">
         <v>20400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>24600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>25400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>30800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>21800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>18100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>16300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>26300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>19100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>19600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>21000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>22700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>16000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>17500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>18400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>20300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-3700</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>14600</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>13800</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>16600</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>10400</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>11300</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44652</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44470</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44379</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44288</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44197</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44106</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44015</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43924</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43833</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43735</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43644</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43553</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43462</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43371</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43280</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43189</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43098</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43007</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42916</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42825</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42734</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2721,8 +2806,9 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2748,221 +2834,231 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>215100</v>
+      </c>
+      <c r="E41" s="3">
         <v>297700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>229800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>240000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>184500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>197500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>187600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>155900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>105600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>176400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>132800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>104500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>79100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>127100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>121000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>117800</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>103200</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>124800</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>89800</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>90200</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>87100</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>115000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>98400</v>
       </c>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E42" s="3">
+      <c r="E42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F42" s="3">
         <v>25000</v>
       </c>
-      <c r="F42" s="3">
-        <v>0</v>
-      </c>
       <c r="G42" s="3">
+        <v>0</v>
+      </c>
+      <c r="H42" s="3">
         <v>30000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>45000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>20100</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>34200</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>46400</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>55200</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>77100</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>90000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>92700</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>81500</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>81400</v>
-      </c>
-      <c r="R42" s="3">
-        <v>75500</v>
       </c>
       <c r="S42" s="3">
         <v>75500</v>
       </c>
       <c r="T42" s="3">
+        <v>75500</v>
+      </c>
+      <c r="U42" s="3">
         <v>71600</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>75800</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>71800</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>67800</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>58800</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>52000</v>
       </c>
     </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>147500</v>
+      </c>
+      <c r="E43" s="3">
         <v>139900</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>144000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>142700</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>124200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>111600</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>110000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>109300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>127200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>120100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>128300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>129700</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>118900</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>105800</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>122900</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>116500</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>117200</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>110100</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>124800</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>107400</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>96300</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>87400</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>94300</v>
       </c>
     </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3032,150 +3128,159 @@
       <c r="Y44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>14100</v>
+      </c>
+      <c r="E45" s="3">
         <v>15200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>18700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>15100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>14800</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>12700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>11000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>14800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>14100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>12300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>13200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>10500</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>14000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>12200</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>11200</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>9200</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>9600</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>9000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>10700</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>9300</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>12400</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>12900</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>12600</v>
       </c>
     </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>376700</v>
+      </c>
+      <c r="E46" s="3">
         <v>452800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>417600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>397800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>353600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>366800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>328600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>314300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>293400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>364000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>351500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>334700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>304600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>326600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>336500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>319000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>305500</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>315500</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>301100</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>278700</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>263600</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>274000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>257300</v>
       </c>
     </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3245,79 +3350,85 @@
       <c r="Y47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>78000</v>
+      </c>
+      <c r="E48" s="3">
         <v>74300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>75900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>77400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>78900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>79100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>80500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>80400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>82300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>84600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>83000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>78800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>74700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>46100</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>44000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>41400</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>40400</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>35000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>35200</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>35900</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>36600</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>36700</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>37500</v>
       </c>
     </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3387,8 +3498,11 @@
       <c r="Y49" s="3">
         <v>8600</v>
       </c>
-    </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z49" s="3">
+        <v>8600</v>
+      </c>
+    </row>
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3458,8 +3572,11 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3529,79 +3646,85 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>154300</v>
+      </c>
+      <c r="E52" s="3">
         <v>148000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>136300</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>135100</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>135900</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>125500</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>116900</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>109900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>99300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>106200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>101300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>98500</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>101300</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>87600</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>91800</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>86700</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>86000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>80500</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>90800</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>86500</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>89400</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>84400</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>82000</v>
       </c>
     </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3671,79 +3794,85 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>617500</v>
+      </c>
+      <c r="E54" s="3">
         <v>683700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>638300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>618900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>577000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>580100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>534700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>513200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>483700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>563400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>544500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>520600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>489200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>468900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>480900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>455700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>440500</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>439600</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>435600</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>409700</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>398200</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>403700</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>385400</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3769,8 +3898,9 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3796,79 +3926,83 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>30800</v>
+      </c>
+      <c r="E57" s="3">
         <v>24500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>21400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>27000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>18400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>16300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>18600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>16200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>14000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>18600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>16500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>19700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>12400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>12300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>13200</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>12400</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>16500</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>14700</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>13800</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>10600</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>10200</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>10100</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>9700</v>
       </c>
     </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3938,150 +4072,159 @@
       <c r="Y58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>78300</v>
+      </c>
+      <c r="E59" s="3">
         <v>128500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>105000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>96000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>69500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>101000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>77800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>73600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>63100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>105400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>84500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>73200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>59800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>86000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>74900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>64900</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>53200</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>78400</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>67500</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>57500</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>47200</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>70200</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>59500</v>
       </c>
     </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>109100</v>
+      </c>
+      <c r="E60" s="3">
         <v>153000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>126400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>123000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>87900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>117300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>96400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>89800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>77100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>124000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>101000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>92900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>72200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>98300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>88100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>77300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>69600</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>93100</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>81300</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>68100</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>57400</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>80200</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>69200</v>
       </c>
     </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4151,79 +4294,85 @@
       <c r="Y61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>121900</v>
+      </c>
+      <c r="E62" s="3">
         <v>113700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>106900</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>108100</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>111500</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>101300</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>95100</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>90800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>83100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>89200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>86200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>83900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>87900</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>56700</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>62100</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>59700</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>64200</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>57400</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>54300</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>52200</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>56000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>50200</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>49400</v>
       </c>
     </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4293,8 +4442,11 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4364,8 +4516,11 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4435,79 +4590,85 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>231000</v>
+      </c>
+      <c r="E66" s="3">
         <v>266700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>233300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>231100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>199400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>218600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>191500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>180600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>160200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>213200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>187200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>176800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>160000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>155000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>150300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>136900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>133800</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>150500</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>135600</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>120300</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>113500</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>130400</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>118600</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4533,8 +4694,9 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4604,8 +4766,11 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4675,8 +4840,11 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4746,8 +4914,11 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4817,79 +4988,85 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>493400</v>
+      </c>
+      <c r="E72" s="3">
         <v>478400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>468600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>454600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>439700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>421800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>410000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>402000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>395600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>384700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>374000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>363000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>350500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>342000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>332900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>322400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>311000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>304000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>313300</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>304200</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>296000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>291200</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>285600</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4959,8 +5136,11 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5030,8 +5210,11 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5101,79 +5284,85 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>386600</v>
+      </c>
+      <c r="E76" s="3">
         <v>417100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>405000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>387800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>377600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>361500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>343200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>332600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>323500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>350300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>357300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>343900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>329200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>313900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>330600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>318800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>306600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>289100</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>300100</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>289400</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>284700</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>273300</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>266800</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5243,155 +5432,164 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44652</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44470</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44379</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44288</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44197</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44106</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44015</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43924</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43833</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43735</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43644</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43553</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43462</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43371</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43280</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43189</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43098</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43007</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42916</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42825</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42734</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>29600</v>
+      </c>
+      <c r="E81" s="3">
         <v>20400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>24600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>25400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>30800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>21800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>18100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>16300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>26300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>19100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>19600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>21000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>22700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>16000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>17500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>18400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>20300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-3700</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>14600</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>13800</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>16600</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>10400</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>11300</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5417,22 +5615,23 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E83" s="3">
         <v>1500</v>
-      </c>
-      <c r="E83" s="3">
-        <v>1600</v>
       </c>
       <c r="F83" s="3">
         <v>1600</v>
       </c>
       <c r="G83" s="3">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="H83" s="3">
         <v>1700</v>
@@ -5444,16 +5643,16 @@
         <v>1700</v>
       </c>
       <c r="K83" s="3">
+        <v>1700</v>
+      </c>
+      <c r="L83" s="3">
         <v>1800</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>1900</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>1700</v>
-      </c>
-      <c r="N83" s="3">
-        <v>1600</v>
       </c>
       <c r="O83" s="3">
         <v>1600</v>
@@ -5471,10 +5670,10 @@
         <v>1600</v>
       </c>
       <c r="T83" s="3">
+        <v>1600</v>
+      </c>
+      <c r="U83" s="3">
         <v>1500</v>
-      </c>
-      <c r="U83" s="3">
-        <v>1600</v>
       </c>
       <c r="V83" s="3">
         <v>1600</v>
@@ -5485,11 +5684,14 @@
       <c r="X83" s="3">
         <v>1600</v>
       </c>
-      <c r="Y83" s="3" t="s">
+      <c r="Y83" s="3">
+        <v>1600</v>
+      </c>
+      <c r="Z83" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5559,8 +5761,11 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5630,8 +5835,11 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5701,8 +5909,11 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5772,8 +5983,11 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5843,79 +6057,85 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-6400</v>
+      </c>
+      <c r="E89" s="3">
         <v>54200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>24900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>44200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>1300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>40900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>28200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>48000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-13800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>55800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>27500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>37100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-12300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>44400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>18900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>24200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>3700</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>40900</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>9800</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>19000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-1800</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>29700</v>
       </c>
-      <c r="Y89" s="3" t="s">
+      <c r="Z89" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5941,79 +6161,83 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="E91" s="3">
         <v>-1400</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-1200</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-1700</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-2500</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-800</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-1700</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-1200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-6000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-4500</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-6800</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-5700</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-4100</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-3200</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-2100</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-6800</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-1400</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-800</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-1200</v>
-      </c>
-      <c r="W91" s="3">
-        <v>-1300</v>
       </c>
       <c r="X91" s="3">
         <v>-1300</v>
       </c>
-      <c r="Y91" s="3" t="s">
+      <c r="Y91" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="Z91" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6083,8 +6307,11 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6154,79 +6381,85 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="E94" s="3">
         <v>23600</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-26200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>28300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>12500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-25800</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>12300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>10800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>7700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>16000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>8500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-3700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-16500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-3900</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-9100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-2100</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-10700</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>2600</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-4800</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-5200</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-10300</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-8300</v>
       </c>
-      <c r="Y94" s="3" t="s">
+      <c r="Z94" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6252,13 +6485,14 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-10400</v>
+        <v>-12500</v>
       </c>
       <c r="E96" s="3">
         <v>-10400</v>
@@ -6267,10 +6501,10 @@
         <v>-10400</v>
       </c>
       <c r="G96" s="3">
+        <v>-10400</v>
+      </c>
+      <c r="H96" s="3">
         <v>-11900</v>
-      </c>
-      <c r="H96" s="3">
-        <v>-9800</v>
       </c>
       <c r="I96" s="3">
         <v>-9800</v>
@@ -6279,10 +6513,10 @@
         <v>-9800</v>
       </c>
       <c r="K96" s="3">
+        <v>-9800</v>
+      </c>
+      <c r="L96" s="3">
         <v>-10300</v>
-      </c>
-      <c r="L96" s="3">
-        <v>-8300</v>
       </c>
       <c r="M96" s="3">
         <v>-8300</v>
@@ -6291,40 +6525,43 @@
         <v>-8300</v>
       </c>
       <c r="O96" s="3">
+        <v>-8300</v>
+      </c>
+      <c r="P96" s="3">
         <v>-8600</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-6700</v>
-      </c>
-      <c r="Q96" s="3">
-        <v>-6800</v>
       </c>
       <c r="R96" s="3">
         <v>-6800</v>
       </c>
       <c r="S96" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="T96" s="3">
         <v>-7000</v>
-      </c>
-      <c r="T96" s="3">
-        <v>-5400</v>
       </c>
       <c r="U96" s="3">
         <v>-5400</v>
       </c>
       <c r="V96" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="W96" s="3">
         <v>-5600</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-5400</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-4600</v>
       </c>
-      <c r="Y96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6394,8 +6631,11 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6465,8 +6705,11 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6536,217 +6779,229 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-73400</v>
+      </c>
+      <c r="E100" s="3">
         <v>-10000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-8800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-17000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-27000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-6100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-9300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-8600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-64300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-29000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-7200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-7800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-19400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-34200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-6600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-6400</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-15300</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-8600</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-5800</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-11000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-15900</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-4300</v>
       </c>
-      <c r="Y100" s="3" t="s">
+      <c r="Z100" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E101" s="3">
         <v>100</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-100</v>
       </c>
-      <c r="F101" s="3">
-        <v>0</v>
-      </c>
       <c r="G101" s="3">
+        <v>0</v>
+      </c>
+      <c r="H101" s="3">
         <v>200</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>1000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>500</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-400</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>800</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-400</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-200</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>200</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-200</v>
       </c>
-      <c r="Q101" s="3">
-        <v>0</v>
-      </c>
       <c r="R101" s="3">
+        <v>0</v>
+      </c>
+      <c r="S101" s="3">
         <v>-1100</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>700</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>100</v>
-      </c>
-      <c r="U101" s="3">
-        <v>400</v>
       </c>
       <c r="V101" s="3">
         <v>400</v>
       </c>
       <c r="W101" s="3">
+        <v>400</v>
+      </c>
+      <c r="X101" s="3">
         <v>100</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-500</v>
       </c>
-      <c r="Y101" s="3" t="s">
+      <c r="Z101" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-82600</v>
+      </c>
+      <c r="E102" s="3">
         <v>67900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-10200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>55400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-13000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>9900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>31700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>50300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-70800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>43600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>28400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>25400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-48000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>6100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>3200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>14600</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-21600</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>35000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-400</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>3100</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-27900</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>16500</v>
       </c>
-      <c r="Y102" s="3" t="s">
+      <c r="Z102" s="3" t="s">
         <v>8</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/EXPO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/EXPO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="92">
   <si>
     <t>EXPO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,334 +665,347 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44743</v>
+      </c>
+      <c r="E7" s="2">
         <v>44652</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44470</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44379</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44288</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44197</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44106</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44015</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43924</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43833</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43735</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43644</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43553</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43462</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43371</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43280</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43189</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43098</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43007</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42916</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42825</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42734</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>130300</v>
+      </c>
+      <c r="E8" s="3">
         <v>128500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>113500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>116400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>119900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>116500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>103200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>98700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>92000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>106000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>110100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>101500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>106500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>99000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>92100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>95300</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>95600</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>96500</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>88300</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>87600</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>87800</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>84100</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>77000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>77600</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>12100</v>
+      </c>
+      <c r="E9" s="3">
         <v>10600</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>9200</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>7900</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>7400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>6900</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>5900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>5200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>4200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>6200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>7900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>6000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>6200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>5600</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>6900</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>6600</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>5600</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>5800</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>5600</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>5200</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>3700</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>58100</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>50800</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>51200</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>118200</v>
+      </c>
+      <c r="E10" s="3">
         <v>117900</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>104300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>108500</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>112500</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>109600</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>97300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>93500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>87800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>99800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>102200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>95500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>100300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>93400</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>85200</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>88700</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>90000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>90700</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>82700</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>82400</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>84100</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>26000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>26200</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>26400</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1019,8 +1032,9 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1093,8 +1107,11 @@
       <c r="Z12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1167,8 +1184,11 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1241,8 +1261,11 @@
       <c r="Z14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1315,8 +1338,11 @@
       <c r="Z15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1340,156 +1366,163 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>85000</v>
+      </c>
+      <c r="E17" s="3">
         <v>91800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>90100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>84300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>90500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>92400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>85500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>78300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>82900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>70000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>88800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>78400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>81700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>83300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>65400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>74700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>73100</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>74900</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>70500</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>68300</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>67500</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>69500</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>62100</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>62000</v>
       </c>
     </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>45300</v>
+      </c>
+      <c r="E18" s="3">
         <v>36700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>23400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>32100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>29400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>24100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>17700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>20400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>9100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>36000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>21300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>23100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>24800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>15700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>26700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>20600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>22500</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>21600</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>17800</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>19400</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>20300</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>14600</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>14900</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>15600</v>
       </c>
     </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1516,156 +1549,163 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-9900</v>
+      </c>
+      <c r="E20" s="3">
         <v>-3900</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>5300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>5300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>6000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>9100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>4200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>12300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-12000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>5500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>2100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>4000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>7600</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-4800</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>3400</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>2500</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>800</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>2900</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>2700</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>2100</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>2800</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>1900</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>37200</v>
+      </c>
+      <c r="E21" s="3">
         <v>34500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>30200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>34000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>36300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>31800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>28500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>26300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>23100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>25800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>28700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>26900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>30500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>24900</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>23500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>25600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>26500</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>24000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>22200</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>23600</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>24000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>19000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>18400</v>
       </c>
-      <c r="Z21" s="3" t="s">
+      <c r="AA21" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1738,156 +1778,165 @@
       <c r="Z22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>35400</v>
+      </c>
+      <c r="E23" s="3">
         <v>32800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>28700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>32400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>34700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>30100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>26800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>24600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>21400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>24100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>26800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>25200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>28900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>23300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>22000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>24000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>24900</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>22500</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>20700</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>22000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>22300</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>17400</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>16800</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>17900</v>
       </c>
     </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>9700</v>
+      </c>
+      <c r="E24" s="3">
         <v>3200</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>8300</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>7800</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>9300</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-700</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>5000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>6600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>5100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-2200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>7700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>5600</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>7900</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>600</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>5900</v>
-      </c>
-      <c r="R24" s="3">
-        <v>6500</v>
       </c>
       <c r="S24" s="3">
         <v>6500</v>
       </c>
       <c r="T24" s="3">
+        <v>6500</v>
+      </c>
+      <c r="U24" s="3">
         <v>2100</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>7900</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>7400</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>8600</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>800</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>6400</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>6600</v>
       </c>
     </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1960,156 +2009,165 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>25800</v>
+      </c>
+      <c r="E26" s="3">
         <v>29600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>20400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>24600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>25400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>30800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>21800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>18100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>16300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>26300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>19100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>19600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>21000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>22700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>16000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>17500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>18400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>20300</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>12800</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>14600</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>13800</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>16600</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>10400</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>11300</v>
       </c>
     </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>25800</v>
+      </c>
+      <c r="E27" s="3">
         <v>29600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>20400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>24600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>25400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>30800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>21800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>18100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>16300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>26300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>19100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>19600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>21000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>22700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>16000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>17500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>18400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>20300</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>12800</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>14600</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>13800</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>16600</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>10400</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>11300</v>
       </c>
     </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2182,8 +2240,11 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2220,17 +2281,17 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-      <c r="O29" s="3" t="s">
-        <v>8</v>
+      <c r="O29" s="3">
+        <v>0</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q29" s="3">
-        <v>0</v>
-      </c>
-      <c r="R29" s="3" t="s">
+      <c r="Q29" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>8</v>
@@ -2238,11 +2299,11 @@
       <c r="T29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U29" s="3">
+      <c r="U29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V29" s="3">
         <v>-16500</v>
-      </c>
-      <c r="V29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="W29" s="3" t="s">
         <v>8</v>
@@ -2256,8 +2317,11 @@
       <c r="Z29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2330,8 +2394,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2404,156 +2471,165 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>9900</v>
+      </c>
+      <c r="E32" s="3">
         <v>3900</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-5300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-5300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-6000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-9100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-4200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-12300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>12000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-5500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-2100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-4000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-7600</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>4800</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-3400</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-2500</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-800</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-2900</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-2700</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-2100</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-2800</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-1900</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>25800</v>
+      </c>
+      <c r="E33" s="3">
         <v>29600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>20400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>24600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>25400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>30800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>21800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>18100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>16300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>26300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>19100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>19600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>21000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>22700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>16000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>17500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>18400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>20300</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-3700</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>14600</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>13800</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>16600</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>10400</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>11300</v>
       </c>
     </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2626,161 +2702,170 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>25800</v>
+      </c>
+      <c r="E35" s="3">
         <v>29600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>20400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>24600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>25400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>30800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>21800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>18100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>16300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>26300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>19100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>19600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>21000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>22700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>16000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>17500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>18400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>20300</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-3700</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>14600</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>13800</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>16600</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>10400</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>11300</v>
       </c>
     </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44743</v>
+      </c>
+      <c r="E38" s="2">
         <v>44652</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44470</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44379</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44288</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44197</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44106</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44015</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43924</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43833</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43735</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43644</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43553</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43462</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43371</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43280</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43189</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43098</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43007</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42916</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42825</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42734</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2807,8 +2892,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2835,82 +2921,86 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>165600</v>
+      </c>
+      <c r="E41" s="3">
         <v>215100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>297700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>229800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>240000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>184500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>197500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>187600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>155900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>105600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>176400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>132800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>104500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>79100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>127100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>121000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>117800</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>103200</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>124800</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>89800</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>90200</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>87100</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>115000</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>98400</v>
       </c>
     </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2920,145 +3010,151 @@
       <c r="E42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F42" s="3">
+      <c r="F42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G42" s="3">
         <v>25000</v>
       </c>
-      <c r="G42" s="3">
-        <v>0</v>
-      </c>
       <c r="H42" s="3">
+        <v>0</v>
+      </c>
+      <c r="I42" s="3">
         <v>30000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>45000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>20100</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>34200</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>46400</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>55200</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>77100</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>90000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>92700</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>81500</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>81400</v>
-      </c>
-      <c r="S42" s="3">
-        <v>75500</v>
       </c>
       <c r="T42" s="3">
         <v>75500</v>
       </c>
       <c r="U42" s="3">
+        <v>75500</v>
+      </c>
+      <c r="V42" s="3">
         <v>71600</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>75800</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>71800</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>67800</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>58800</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>52000</v>
       </c>
     </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>161800</v>
+      </c>
+      <c r="E43" s="3">
         <v>147500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>139900</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>144000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>142700</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>124200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>111600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>110000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>109300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>127200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>120100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>128300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>129700</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>118900</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>105800</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>122900</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>116500</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>117200</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>110100</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>124800</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>107400</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>96300</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>87400</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>94300</v>
       </c>
     </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3131,156 +3227,165 @@
       <c r="Z44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>15100</v>
+      </c>
+      <c r="E45" s="3">
         <v>14100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>15200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>18700</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>15100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>14800</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>12700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>11000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>14800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>14100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>12300</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>13200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>10500</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>14000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>12200</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>11200</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>9200</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>9600</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>9000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>10700</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>9300</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>12400</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>12900</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>12600</v>
       </c>
     </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>342500</v>
+      </c>
+      <c r="E46" s="3">
         <v>376700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>452800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>417600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>397800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>353600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>366800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>328600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>314300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>293400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>364000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>351500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>334700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>304600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>326600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>336500</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>319000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>305500</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>315500</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>301100</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>278700</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>263600</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>274000</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>257300</v>
       </c>
     </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3353,82 +3458,88 @@
       <c r="Z47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>80100</v>
+      </c>
+      <c r="E48" s="3">
         <v>78000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>74300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>75900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>77400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>78900</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>79100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>80500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>80400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>82300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>84600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>83000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>78800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>74700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>46100</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>44000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>41400</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>40400</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>35000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>35200</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>35900</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>36600</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>36700</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>37500</v>
       </c>
     </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3501,8 +3612,11 @@
       <c r="Z49" s="3">
         <v>8600</v>
       </c>
-    </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA49" s="3">
+        <v>8600</v>
+      </c>
+    </row>
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3575,8 +3689,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3649,82 +3766,88 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>135500</v>
+      </c>
+      <c r="E52" s="3">
         <v>154300</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>148000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>136300</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>135100</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>135900</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>125500</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>116900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>109900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>99300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>106200</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>101300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>98500</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>101300</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>87600</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>91800</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>86700</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>86000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>80500</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>90800</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>86500</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>89400</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>84400</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>82000</v>
       </c>
     </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3797,82 +3920,88 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>566700</v>
+      </c>
+      <c r="E54" s="3">
         <v>617500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>683700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>638300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>618900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>577000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>580100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>534700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>513200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>483700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>563400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>544500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>520600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>489200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>468900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>480900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>455700</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>440500</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>439600</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>435600</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>409700</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>398200</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>403700</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>385400</v>
       </c>
     </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3899,8 +4028,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3927,82 +4057,86 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>26700</v>
+      </c>
+      <c r="E57" s="3">
         <v>30800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>24500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>21400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>27000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>18400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>16300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>18600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>16200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>14000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>18600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>16500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>19700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>12400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>12300</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>13200</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>12400</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>16500</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>14700</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>13800</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>10600</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>10200</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>10100</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>9700</v>
       </c>
     </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4075,156 +4209,165 @@
       <c r="Z58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>100900</v>
+      </c>
+      <c r="E59" s="3">
         <v>78300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>128500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>105000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>96000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>69500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>101000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>77800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>73600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>63100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>105400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>84500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>73200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>59800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>86000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>74900</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>64900</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>53200</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>78400</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>67500</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>57500</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>47200</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>70200</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>59500</v>
       </c>
     </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>127500</v>
+      </c>
+      <c r="E60" s="3">
         <v>109100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>153000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>126400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>123000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>87900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>117300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>96400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>89800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>77100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>124000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>101000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>92900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>72200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>98300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>88100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>77300</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>69600</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>93100</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>81300</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>68100</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>57400</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>80200</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>69200</v>
       </c>
     </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4297,82 +4440,88 @@
       <c r="Z61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>101700</v>
+      </c>
+      <c r="E62" s="3">
         <v>121900</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>113700</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>106900</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>108100</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>111500</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>101300</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>95100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>90800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>83100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>89200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>86200</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>83900</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>87900</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>56700</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>62100</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>59700</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>64200</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>57400</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>54300</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>52200</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>56000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>50200</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>49400</v>
       </c>
     </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4445,8 +4594,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4519,8 +4671,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4593,82 +4748,88 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>229200</v>
+      </c>
+      <c r="E66" s="3">
         <v>231000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>266700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>233300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>231100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>199400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>218600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>191500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>180600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>160200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>213200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>187200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>176800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>160000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>155000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>150300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>136900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>133800</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>150500</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>135600</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>120300</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>113500</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>130400</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>118600</v>
       </c>
     </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4695,8 +4856,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4769,8 +4931,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4843,8 +5008,11 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4917,8 +5085,11 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4991,82 +5162,88 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>506600</v>
+      </c>
+      <c r="E72" s="3">
         <v>493400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>478400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>468600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>454600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>439700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>421800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>410000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>402000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>395600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>384700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>374000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>363000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>350500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>342000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>332900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>322400</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>311000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>304000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>313300</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>304200</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>296000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>291200</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>285600</v>
       </c>
     </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5139,8 +5316,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5213,8 +5393,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5287,82 +5470,88 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>337500</v>
+      </c>
+      <c r="E76" s="3">
         <v>386600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>417100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>405000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>387800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>377600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>361500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>343200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>332600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>323500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>350300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>357300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>343900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>329200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>313900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>330600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>318800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>306600</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>289100</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>300100</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>289400</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>284700</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>273300</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>266800</v>
       </c>
     </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5435,161 +5624,170 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44743</v>
+      </c>
+      <c r="E80" s="2">
         <v>44652</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44470</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44379</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44288</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44197</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44106</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44015</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43924</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43833</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43735</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43644</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43553</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43462</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43371</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43280</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43189</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43098</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43007</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42916</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42825</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42734</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>25800</v>
+      </c>
+      <c r="E81" s="3">
         <v>29600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>20400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>24600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>25400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>30800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>21800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>18100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>16300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>26300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>19100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>19600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>21000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>22700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>16000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>17500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>18400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>20300</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-3700</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>14600</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>13800</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>16600</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>10400</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>11300</v>
       </c>
     </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5616,25 +5814,26 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E83" s="3">
         <v>1700</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>1500</v>
-      </c>
-      <c r="F83" s="3">
-        <v>1600</v>
       </c>
       <c r="G83" s="3">
         <v>1600</v>
       </c>
       <c r="H83" s="3">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="I83" s="3">
         <v>1700</v>
@@ -5646,16 +5845,16 @@
         <v>1700</v>
       </c>
       <c r="L83" s="3">
+        <v>1700</v>
+      </c>
+      <c r="M83" s="3">
         <v>1800</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>1900</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>1700</v>
-      </c>
-      <c r="O83" s="3">
-        <v>1600</v>
       </c>
       <c r="P83" s="3">
         <v>1600</v>
@@ -5673,10 +5872,10 @@
         <v>1600</v>
       </c>
       <c r="U83" s="3">
+        <v>1600</v>
+      </c>
+      <c r="V83" s="3">
         <v>1500</v>
-      </c>
-      <c r="V83" s="3">
-        <v>1600</v>
       </c>
       <c r="W83" s="3">
         <v>1600</v>
@@ -5687,11 +5886,14 @@
       <c r="Y83" s="3">
         <v>1600</v>
       </c>
-      <c r="Z83" s="3" t="s">
+      <c r="Z83" s="3">
+        <v>1600</v>
+      </c>
+      <c r="AA83" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5764,8 +5966,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5838,8 +6043,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5912,8 +6120,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5986,8 +6197,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6060,82 +6274,88 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>30200</v>
+      </c>
+      <c r="E89" s="3">
         <v>-6400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>54200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>24900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>44200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>1300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>40900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>28200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>48000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-13800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>55800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>27500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>37100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-12300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>44400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>18900</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>24200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>3700</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>40900</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>9800</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>19000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-1800</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>29700</v>
       </c>
-      <c r="Z89" s="3" t="s">
+      <c r="AA89" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6162,82 +6382,86 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="E91" s="3">
         <v>-2600</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-1400</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-1200</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-1700</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-2500</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-800</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-1700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-1300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-6000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-4500</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-6800</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-5700</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-4100</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-3200</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-2100</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-6800</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-1400</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-800</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-1200</v>
-      </c>
-      <c r="X91" s="3">
-        <v>-1300</v>
       </c>
       <c r="Y91" s="3">
         <v>-1300</v>
       </c>
-      <c r="Z91" s="3" t="s">
+      <c r="Z91" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="AA91" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6310,8 +6534,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6384,82 +6611,88 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="E94" s="3">
         <v>-2600</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>23600</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-26200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>28300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>12500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-25800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>12300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>10800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>7700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>16000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>8500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-3700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-16500</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-3900</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-9100</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-2100</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-10700</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>2600</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-4800</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-5200</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-10300</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-8300</v>
       </c>
-      <c r="Z94" s="3" t="s">
+      <c r="AA94" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6486,16 +6719,17 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-12300</v>
+      </c>
+      <c r="E96" s="3">
         <v>-12500</v>
-      </c>
-      <c r="E96" s="3">
-        <v>-10400</v>
       </c>
       <c r="F96" s="3">
         <v>-10400</v>
@@ -6504,10 +6738,10 @@
         <v>-10400</v>
       </c>
       <c r="H96" s="3">
+        <v>-10400</v>
+      </c>
+      <c r="I96" s="3">
         <v>-11900</v>
-      </c>
-      <c r="I96" s="3">
-        <v>-9800</v>
       </c>
       <c r="J96" s="3">
         <v>-9800</v>
@@ -6516,10 +6750,10 @@
         <v>-9800</v>
       </c>
       <c r="L96" s="3">
+        <v>-9800</v>
+      </c>
+      <c r="M96" s="3">
         <v>-10300</v>
-      </c>
-      <c r="M96" s="3">
-        <v>-8300</v>
       </c>
       <c r="N96" s="3">
         <v>-8300</v>
@@ -6528,40 +6762,43 @@
         <v>-8300</v>
       </c>
       <c r="P96" s="3">
+        <v>-8300</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-8600</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-6700</v>
-      </c>
-      <c r="R96" s="3">
-        <v>-6800</v>
       </c>
       <c r="S96" s="3">
         <v>-6800</v>
       </c>
       <c r="T96" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="U96" s="3">
         <v>-7000</v>
-      </c>
-      <c r="U96" s="3">
-        <v>-5400</v>
       </c>
       <c r="V96" s="3">
         <v>-5400</v>
       </c>
       <c r="W96" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="X96" s="3">
         <v>-5600</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-5400</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="Z96" s="3">
         <v>-4600</v>
       </c>
-      <c r="Z96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6634,8 +6871,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6708,8 +6948,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6782,226 +7025,238 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-75100</v>
+      </c>
+      <c r="E100" s="3">
         <v>-73400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-10000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-8800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-17000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-27000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-6100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-9300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-8600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-64300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-29000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-7200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-7800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-19400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-34200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-6600</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-6400</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-15300</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-8600</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-5800</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-11000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-15900</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-4300</v>
       </c>
-      <c r="Z100" s="3" t="s">
+      <c r="AA100" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E101" s="3">
         <v>-300</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>100</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-100</v>
       </c>
-      <c r="G101" s="3">
-        <v>0</v>
-      </c>
       <c r="H101" s="3">
+        <v>0</v>
+      </c>
+      <c r="I101" s="3">
         <v>200</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>1000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>500</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>100</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-400</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>800</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-400</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-200</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>200</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-200</v>
       </c>
-      <c r="R101" s="3">
-        <v>0</v>
-      </c>
       <c r="S101" s="3">
+        <v>0</v>
+      </c>
+      <c r="T101" s="3">
         <v>-1100</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>700</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>100</v>
-      </c>
-      <c r="V101" s="3">
-        <v>400</v>
       </c>
       <c r="W101" s="3">
         <v>400</v>
       </c>
       <c r="X101" s="3">
+        <v>400</v>
+      </c>
+      <c r="Y101" s="3">
         <v>100</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>-500</v>
       </c>
-      <c r="Z101" s="3" t="s">
+      <c r="AA101" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-49400</v>
+      </c>
+      <c r="E102" s="3">
         <v>-82600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>67900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-10200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>55400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-13000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>9900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>31700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>50300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-70800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>43600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>28400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>25400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-48000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>6100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>3200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>14600</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-21600</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>35000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-400</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>3100</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-27900</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>16500</v>
       </c>
-      <c r="Z102" s="3" t="s">
+      <c r="AA102" s="3" t="s">
         <v>8</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/EXPO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/EXPO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="92">
   <si>
     <t>EXPO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,347 +665,360 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44743</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44652</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44470</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44379</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44288</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44197</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44106</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44015</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43924</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43833</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43644</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43553</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43462</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43371</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43280</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43189</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43098</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43007</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42916</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42825</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42734</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>127200</v>
+      </c>
+      <c r="E8" s="3">
         <v>130300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>128500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>113500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>116400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>119900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>116500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>103200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>98700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>92000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>106000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>110100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>101500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>106500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>99000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>92100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>95300</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>95600</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>96500</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>88300</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>87600</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>87800</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>84100</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>77000</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>77600</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>12000</v>
+      </c>
+      <c r="E9" s="3">
         <v>12100</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>10600</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>9200</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>7900</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>7400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>6900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>5900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>5200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>4200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>6200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>7900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>6000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>6200</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>5600</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>6900</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>6600</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>5600</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>5800</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>5600</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>5200</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>3700</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>58100</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>50800</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>51200</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>115200</v>
+      </c>
+      <c r="E10" s="3">
         <v>118200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>117900</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>104300</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>108500</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>112500</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>109600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>97300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>93500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>87800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>99800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>102200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>95500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>100300</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>93400</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>85200</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>88700</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>90000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>90700</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>82700</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>82400</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>84100</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>26000</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>26200</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>26400</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1033,8 +1046,9 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1110,8 +1124,11 @@
       <c r="AA12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1187,8 +1204,11 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1264,8 +1284,11 @@
       <c r="AA14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1341,8 +1364,11 @@
       <c r="AA15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1367,162 +1393,169 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>90400</v>
+      </c>
+      <c r="E17" s="3">
         <v>85000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>91800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>90100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>84300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>90500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>92400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>85500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>78300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>82900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>70000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>88800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>78400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>81700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>83300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>65400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>74700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>73100</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>74900</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>70500</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>68300</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>67500</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>69500</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>62100</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>62000</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>36800</v>
+      </c>
+      <c r="E18" s="3">
         <v>45300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>36700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>23400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>32100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>29400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>24100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>17700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>20400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>9100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>36000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>21300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>23100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>24800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>15700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>26700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>20600</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>22500</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>21600</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>17800</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>19400</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>20300</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>14600</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>14900</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>15600</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1550,162 +1583,169 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="E20" s="3">
         <v>-9900</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-3900</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>5300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>5300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>6000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>9100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>4200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>12300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-12000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>5500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>2100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>4000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>7600</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-4800</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>3400</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>2500</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>800</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>2900</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>2700</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>2100</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>2800</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>1900</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>35200</v>
+      </c>
+      <c r="E21" s="3">
         <v>37200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>34500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>30200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>34000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>36300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>31800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>28500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>26300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>23100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>25800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>28700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>26900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>30500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>24900</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>23500</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>25600</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>26500</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>24000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>22200</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>23600</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>24000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>19000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>18400</v>
       </c>
-      <c r="AA21" s="3" t="s">
+      <c r="AB21" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1781,162 +1821,171 @@
       <c r="AA22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>33500</v>
+      </c>
+      <c r="E23" s="3">
         <v>35400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>32800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>28700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>32400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>34700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>30100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>26800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>24600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>21400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>24100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>26800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>25200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>28900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>23300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>22000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>24000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>24900</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>22500</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>20700</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>22000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>22300</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>17400</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>16800</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>17900</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>9000</v>
+      </c>
+      <c r="E24" s="3">
         <v>9700</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>3200</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>8300</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>7800</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>9300</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-700</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>5000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>6600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>5100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-2200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>7700</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>5600</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>7900</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>600</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>5900</v>
-      </c>
-      <c r="S24" s="3">
-        <v>6500</v>
       </c>
       <c r="T24" s="3">
         <v>6500</v>
       </c>
       <c r="U24" s="3">
+        <v>6500</v>
+      </c>
+      <c r="V24" s="3">
         <v>2100</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>7900</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>7400</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>8600</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>800</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>6400</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>6600</v>
       </c>
     </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2012,162 +2061,171 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>24400</v>
+      </c>
+      <c r="E26" s="3">
         <v>25800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>29600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>20400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>24600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>25400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>30800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>21800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>18100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>16300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>26300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>19100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>19600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>21000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>22700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>16000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>17500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>18400</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>20300</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>12800</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>14600</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>13800</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>16600</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>10400</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>11300</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>24400</v>
+      </c>
+      <c r="E27" s="3">
         <v>25800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>29600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>20400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>24600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>25400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>30800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>21800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>18100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>16300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>26300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>19100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>19600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>21000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>22700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>16000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>17500</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>18400</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>20300</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>12800</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>14600</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>13800</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>16600</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>10400</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>11300</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2243,8 +2301,11 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2284,17 +2345,17 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-      <c r="P29" s="3" t="s">
-        <v>8</v>
+      <c r="P29" s="3">
+        <v>0</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R29" s="3">
-        <v>0</v>
-      </c>
-      <c r="S29" s="3" t="s">
+      <c r="R29" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="S29" s="3">
+        <v>0</v>
       </c>
       <c r="T29" s="3" t="s">
         <v>8</v>
@@ -2302,11 +2363,11 @@
       <c r="U29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V29" s="3">
+      <c r="V29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W29" s="3">
         <v>-16500</v>
-      </c>
-      <c r="W29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="X29" s="3" t="s">
         <v>8</v>
@@ -2320,8 +2381,11 @@
       <c r="AA29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2397,8 +2461,11 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2474,162 +2541,171 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E32" s="3">
         <v>9900</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>3900</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-5300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-5300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-6000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-9100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-4200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-12300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>12000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-5500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-2100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-4000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-7600</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>4800</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-3400</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-2500</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-800</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-2900</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-2700</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-2100</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-2800</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-1900</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>24400</v>
+      </c>
+      <c r="E33" s="3">
         <v>25800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>29600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>20400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>24600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>25400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>30800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>21800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>18100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>16300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>26300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>19100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>19600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>21000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>22700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>16000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>17500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>18400</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>20300</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-3700</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>14600</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>13800</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>16600</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>10400</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>11300</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2705,167 +2781,176 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>24400</v>
+      </c>
+      <c r="E35" s="3">
         <v>25800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>29600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>20400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>24600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>25400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>30800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>21800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>18100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>16300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>26300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>19100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>19600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>21000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>22700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>16000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>17500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>18400</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>20300</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-3700</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>14600</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>13800</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>16600</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>10400</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>11300</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44743</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44652</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44470</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44379</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44288</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44197</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44106</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44015</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43924</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43833</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43644</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43553</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43462</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43371</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43280</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43189</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43098</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43007</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42916</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42825</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42734</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2893,8 +2978,9 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2922,85 +3008,89 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>148400</v>
+      </c>
+      <c r="E41" s="3">
         <v>165600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>215100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>297700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>229800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>240000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>184500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>197500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>187600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>155900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>105600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>176400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>132800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>104500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>79100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>127100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>121000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>117800</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>103200</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>124800</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>89800</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>90200</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>87100</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>115000</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>98400</v>
       </c>
     </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3013,148 +3103,154 @@
       <c r="F42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G42" s="3">
+      <c r="G42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H42" s="3">
         <v>25000</v>
       </c>
-      <c r="H42" s="3">
-        <v>0</v>
-      </c>
       <c r="I42" s="3">
+        <v>0</v>
+      </c>
+      <c r="J42" s="3">
         <v>30000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>45000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>20100</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>34200</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>46400</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>55200</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>77100</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>90000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>92700</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>81500</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>81400</v>
-      </c>
-      <c r="T42" s="3">
-        <v>75500</v>
       </c>
       <c r="U42" s="3">
         <v>75500</v>
       </c>
       <c r="V42" s="3">
+        <v>75500</v>
+      </c>
+      <c r="W42" s="3">
         <v>71600</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>75800</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>71800</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>67800</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>58800</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>52000</v>
       </c>
     </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>166000</v>
+      </c>
+      <c r="E43" s="3">
         <v>161800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>147500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>139900</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>144000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>142700</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>124200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>111600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>110000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>109300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>127200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>120100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>128300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>129700</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>118900</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>105800</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>122900</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>116500</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>117200</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>110100</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>124800</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>107400</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>96300</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>87400</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>94300</v>
       </c>
     </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3230,162 +3326,171 @@
       <c r="AA44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>18100</v>
+      </c>
+      <c r="E45" s="3">
         <v>15100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>14100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>15200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>18700</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>15100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>14800</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>12700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>11000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>14800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>14100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>12300</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>13200</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>10500</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>14000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>12200</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>11200</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>9200</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>9600</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>9000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>10700</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>9300</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>12400</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>12900</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>12600</v>
       </c>
     </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>332500</v>
+      </c>
+      <c r="E46" s="3">
         <v>342500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>376700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>452800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>417600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>397800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>353600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>366800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>328600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>314300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>293400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>364000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>351500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>334700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>304600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>326600</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>336500</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>319000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>305500</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>315500</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>301100</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>278700</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>263600</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>274000</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>257300</v>
       </c>
     </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3461,85 +3566,91 @@
       <c r="AA47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>82400</v>
+      </c>
+      <c r="E48" s="3">
         <v>80100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>78000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>74300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>75900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>77400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>78900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>79100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>80500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>80400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>82300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>84600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>83000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>78800</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>74700</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>46100</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>44000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>41400</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>40400</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>35000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>35200</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>35900</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>36600</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>36700</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>37500</v>
       </c>
     </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3615,8 +3726,11 @@
       <c r="AA49" s="3">
         <v>8600</v>
       </c>
-    </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB49" s="3">
+        <v>8600</v>
+      </c>
+    </row>
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3692,8 +3806,11 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3769,8 +3886,11 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3778,76 +3898,79 @@
         <v>135500</v>
       </c>
       <c r="E52" s="3">
+        <v>135500</v>
+      </c>
+      <c r="F52" s="3">
         <v>154300</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>148000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>136300</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>135100</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>135900</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>125500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>116900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>109900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>99300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>106200</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>101300</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>98500</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>101300</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>87600</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>91800</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>86700</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>86000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>80500</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>90800</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>86500</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>89400</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>84400</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>82000</v>
       </c>
     </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3923,85 +4046,91 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>559000</v>
+      </c>
+      <c r="E54" s="3">
         <v>566700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>617500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>683700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>638300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>618900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>577000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>580100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>534700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>513200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>483700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>563400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>544500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>520600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>489200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>468900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>480900</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>455700</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>440500</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>439600</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>435600</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>409700</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>398200</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>403700</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>385400</v>
       </c>
     </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4029,8 +4158,9 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4058,85 +4188,89 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>31800</v>
+      </c>
+      <c r="E57" s="3">
         <v>26700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>30800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>24500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>21400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>27000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>18400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>16300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>18600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>16200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>14000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>18600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>16500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>19700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>12400</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>12300</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>13200</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>12400</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>16500</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>14700</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>13800</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>10600</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>10200</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>10100</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>9700</v>
       </c>
     </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4212,162 +4346,171 @@
       <c r="AA58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>106100</v>
+      </c>
+      <c r="E59" s="3">
         <v>100900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>78300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>128500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>105000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>96000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>69500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>101000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>77800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>73600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>63100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>105400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>84500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>73200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>59800</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>86000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>74900</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>64900</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>53200</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>78400</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>67500</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>57500</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>47200</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>70200</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>59500</v>
       </c>
     </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>137900</v>
+      </c>
+      <c r="E60" s="3">
         <v>127500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>109100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>153000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>126400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>123000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>87900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>117300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>96400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>89800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>77100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>124000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>101000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>92900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>72200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>98300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>88100</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>77300</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>69600</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>93100</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>81300</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>68100</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>57400</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>80200</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>69200</v>
       </c>
     </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4443,85 +4586,91 @@
       <c r="AA61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>101300</v>
+      </c>
+      <c r="E62" s="3">
         <v>101700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>121900</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>113700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>106900</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>108100</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>111500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>101300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>95100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>90800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>83100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>89200</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>86200</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>83900</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>87900</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>56700</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>62100</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>59700</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>64200</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>57400</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>54300</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>52200</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>56000</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>50200</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>49400</v>
       </c>
     </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4597,8 +4746,11 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4674,8 +4826,11 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4751,85 +4906,91 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>239200</v>
+      </c>
+      <c r="E66" s="3">
         <v>229200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>231000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>266700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>233300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>231100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>199400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>218600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>191500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>180600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>160200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>213200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>187200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>176800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>160000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>155000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>150300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>136900</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>133800</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>150500</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>135600</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>120300</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>113500</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>130400</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>118600</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4857,8 +5018,9 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4934,8 +5096,11 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5011,8 +5176,11 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5088,8 +5256,11 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5165,85 +5336,91 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>518600</v>
+      </c>
+      <c r="E72" s="3">
         <v>506600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>493400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>478400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>468600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>454600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>439700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>421800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>410000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>402000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>395600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>384700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>374000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>363000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>350500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>342000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>332900</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>322400</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>311000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>304000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>313300</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>304200</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>296000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>291200</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>285600</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5319,8 +5496,11 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5396,8 +5576,11 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5473,85 +5656,91 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>319800</v>
+      </c>
+      <c r="E76" s="3">
         <v>337500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>386600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>417100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>405000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>387800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>377600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>361500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>343200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>332600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>323500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>350300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>357300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>343900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>329200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>313900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>330600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>318800</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>306600</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>289100</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>300100</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>289400</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>284700</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>273300</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>266800</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5627,167 +5816,176 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44743</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44652</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44470</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44379</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44288</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44197</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44106</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44015</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43924</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43833</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43644</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43553</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43462</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43371</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43280</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43189</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43098</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43007</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42916</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42825</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42734</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>24400</v>
+      </c>
+      <c r="E81" s="3">
         <v>25800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>29600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>20400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>24600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>25400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>30800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>21800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>18100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>16300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>26300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>19100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>19600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>21000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>22700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>16000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>17500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>18400</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>20300</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-3700</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>14600</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>13800</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>16600</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>10400</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>11300</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5815,28 +6013,29 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E83" s="3">
         <v>1800</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>1700</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>1500</v>
-      </c>
-      <c r="G83" s="3">
-        <v>1600</v>
       </c>
       <c r="H83" s="3">
         <v>1600</v>
       </c>
       <c r="I83" s="3">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="J83" s="3">
         <v>1700</v>
@@ -5848,16 +6047,16 @@
         <v>1700</v>
       </c>
       <c r="M83" s="3">
+        <v>1700</v>
+      </c>
+      <c r="N83" s="3">
         <v>1800</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>1900</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>1700</v>
-      </c>
-      <c r="P83" s="3">
-        <v>1600</v>
       </c>
       <c r="Q83" s="3">
         <v>1600</v>
@@ -5875,10 +6074,10 @@
         <v>1600</v>
       </c>
       <c r="V83" s="3">
+        <v>1600</v>
+      </c>
+      <c r="W83" s="3">
         <v>1500</v>
-      </c>
-      <c r="W83" s="3">
-        <v>1600</v>
       </c>
       <c r="X83" s="3">
         <v>1600</v>
@@ -5889,11 +6088,14 @@
       <c r="Z83" s="3">
         <v>1600</v>
       </c>
-      <c r="AA83" s="3" t="s">
+      <c r="AA83" s="3">
+        <v>1600</v>
+      </c>
+      <c r="AB83" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5969,8 +6171,11 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6046,8 +6251,11 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6123,8 +6331,11 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6200,8 +6411,11 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6277,85 +6491,91 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>29400</v>
+      </c>
+      <c r="E89" s="3">
         <v>30200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-6400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>54200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>24900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>44200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>1300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>40900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>28200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>48000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-13800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>55800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>27500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>37100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-12300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>44400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>18900</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>24200</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>3700</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>40900</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>9800</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>19000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-1800</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>29700</v>
       </c>
-      <c r="AA89" s="3" t="s">
+      <c r="AB89" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6383,85 +6603,89 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="E91" s="3">
         <v>-3300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-2600</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-1400</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-1200</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-1700</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-2500</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-1200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-1300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-6000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-4500</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-6800</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-5700</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-4100</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-3200</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-2100</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-6800</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-1400</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-800</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-1200</v>
-      </c>
-      <c r="Y91" s="3">
-        <v>-1300</v>
       </c>
       <c r="Z91" s="3">
         <v>-1300</v>
       </c>
-      <c r="AA91" s="3" t="s">
+      <c r="AA91" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="AB91" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6537,8 +6761,11 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6614,85 +6841,91 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="E94" s="3">
         <v>-3300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-2600</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>23600</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-26200</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>28300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>12500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-25800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>12300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>10800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>7700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>16000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>8500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-3700</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-16500</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-3900</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-9100</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-2100</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-10700</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>2600</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-4800</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-5200</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-10300</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-8300</v>
       </c>
-      <c r="AA94" s="3" t="s">
+      <c r="AB94" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6720,19 +6953,20 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-12200</v>
+      </c>
+      <c r="E96" s="3">
         <v>-12300</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-12500</v>
-      </c>
-      <c r="F96" s="3">
-        <v>-10400</v>
       </c>
       <c r="G96" s="3">
         <v>-10400</v>
@@ -6741,10 +6975,10 @@
         <v>-10400</v>
       </c>
       <c r="I96" s="3">
+        <v>-10400</v>
+      </c>
+      <c r="J96" s="3">
         <v>-11900</v>
-      </c>
-      <c r="J96" s="3">
-        <v>-9800</v>
       </c>
       <c r="K96" s="3">
         <v>-9800</v>
@@ -6753,10 +6987,10 @@
         <v>-9800</v>
       </c>
       <c r="M96" s="3">
+        <v>-9800</v>
+      </c>
+      <c r="N96" s="3">
         <v>-10300</v>
-      </c>
-      <c r="N96" s="3">
-        <v>-8300</v>
       </c>
       <c r="O96" s="3">
         <v>-8300</v>
@@ -6765,40 +6999,43 @@
         <v>-8300</v>
       </c>
       <c r="Q96" s="3">
+        <v>-8300</v>
+      </c>
+      <c r="R96" s="3">
         <v>-8600</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-6700</v>
-      </c>
-      <c r="S96" s="3">
-        <v>-6800</v>
       </c>
       <c r="T96" s="3">
         <v>-6800</v>
       </c>
       <c r="U96" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="V96" s="3">
         <v>-7000</v>
-      </c>
-      <c r="V96" s="3">
-        <v>-5400</v>
       </c>
       <c r="W96" s="3">
         <v>-5400</v>
       </c>
       <c r="X96" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="Y96" s="3">
         <v>-5600</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="Z96" s="3">
         <v>-5400</v>
       </c>
-      <c r="Z96" s="3">
+      <c r="AA96" s="3">
         <v>-4600</v>
       </c>
-      <c r="AA96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6874,8 +7111,11 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6951,8 +7191,11 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7028,235 +7271,247 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-42000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-75100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-73400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-10000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-8800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-17000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-27000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-6100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-9300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-8600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-64300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-29000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-7200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-7800</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-19400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-34200</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-6600</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-6400</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-15300</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-8600</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-5800</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-11000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-15900</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-4300</v>
       </c>
-      <c r="AA100" s="3" t="s">
+      <c r="AB100" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E101" s="3">
         <v>-1200</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-300</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>100</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-100</v>
       </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
       <c r="I101" s="3">
+        <v>0</v>
+      </c>
+      <c r="J101" s="3">
         <v>200</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>1000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>500</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>100</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-400</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>800</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-400</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-200</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>200</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-200</v>
       </c>
-      <c r="S101" s="3">
-        <v>0</v>
-      </c>
       <c r="T101" s="3">
+        <v>0</v>
+      </c>
+      <c r="U101" s="3">
         <v>-1100</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>700</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>100</v>
-      </c>
-      <c r="W101" s="3">
-        <v>400</v>
       </c>
       <c r="X101" s="3">
         <v>400</v>
       </c>
       <c r="Y101" s="3">
+        <v>400</v>
+      </c>
+      <c r="Z101" s="3">
         <v>100</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>-500</v>
       </c>
-      <c r="AA101" s="3" t="s">
+      <c r="AB101" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-17200</v>
+      </c>
+      <c r="E102" s="3">
         <v>-49400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-82600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>67900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-10200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>55400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-13000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>9900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>31700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>50300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-70800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>43600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>28400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>25400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-48000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>6100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>3200</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>14600</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-21600</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>35000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-400</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>3100</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-27900</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>16500</v>
       </c>
-      <c r="AA102" s="3" t="s">
+      <c r="AB102" s="3" t="s">
         <v>8</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/EXPO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/EXPO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="92">
   <si>
     <t>EXPO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,360 +665,372 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44925</v>
+      </c>
+      <c r="E7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44743</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44652</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44470</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44379</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44288</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44197</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44106</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44015</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43924</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43833</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43735</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43644</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43553</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43462</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43371</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43280</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43189</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43098</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43007</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42916</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42825</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42734</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>127400</v>
+      </c>
+      <c r="E8" s="3">
         <v>127200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>130300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>128500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>113500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>116400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>119900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>116500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>103200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>98700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>92000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>106000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>110100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>101500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>106500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>99000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>92100</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>95300</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>95600</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>96500</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>88300</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>87600</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>87800</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>84100</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>77000</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>77600</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>14800</v>
+      </c>
+      <c r="E9" s="3">
         <v>12000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>12100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>10600</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>9200</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>7900</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>7400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>6900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>5900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>5200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>4200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>6200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>7900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>6000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>6200</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>5600</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>6900</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>6600</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>5600</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>5800</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>5600</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>5200</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>3700</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>58100</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>50800</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>51200</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>112600</v>
+      </c>
+      <c r="E10" s="3">
         <v>115200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>118200</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>117900</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>104300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>108500</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>112500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>109600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>97300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>93500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>87800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>99800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>102200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>95500</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>100300</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>93400</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>85200</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>88700</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>90000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>90700</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>82700</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>82400</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>84100</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>26000</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>26200</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>26400</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1047,8 +1059,9 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1127,8 +1140,11 @@
       <c r="AB12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1207,8 +1223,11 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1287,8 +1306,11 @@
       <c r="AB14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1367,8 +1389,11 @@
       <c r="AB15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1394,168 +1419,175 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>105300</v>
+      </c>
+      <c r="E17" s="3">
         <v>90400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>85000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>91800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>90100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>84300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>90500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>92400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>85500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>78300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>82900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>70000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>88800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>78400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>81700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>83300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>65400</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>74700</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>73100</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>74900</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>70500</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>68300</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>67500</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>69500</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>62100</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>62000</v>
       </c>
     </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>22100</v>
+      </c>
+      <c r="E18" s="3">
         <v>36800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>45300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>36700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>23400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>32100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>29400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>24100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>17700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>20400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>9100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>36000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>21300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>23100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>24800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>15700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>26700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>20600</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>22500</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>21600</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>17800</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>19400</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>20300</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>14600</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>14900</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>15600</v>
       </c>
     </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1584,168 +1616,175 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>8400</v>
+      </c>
+      <c r="E20" s="3">
         <v>-3400</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-9900</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-3900</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>5300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>5300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>6000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>9100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>4200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>12300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-12000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>5500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>2100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>4000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>7600</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-4800</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>3400</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>2500</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>800</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>2900</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>2700</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>2100</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>2800</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>1900</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>32400</v>
+      </c>
+      <c r="E21" s="3">
         <v>35200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>37200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>34500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>30200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>34000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>36300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>31800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>28500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>26300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>23100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>25800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>28700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>26900</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>30500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>24900</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>23500</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>25600</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>26500</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>24000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>22200</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>23600</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>24000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>19000</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>18400</v>
       </c>
-      <c r="AB21" s="3" t="s">
+      <c r="AC21" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1824,168 +1863,177 @@
       <c r="AB22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>30500</v>
+      </c>
+      <c r="E23" s="3">
         <v>33500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>35400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>32800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>28700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>32400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>34700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>30100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>26800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>24600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>21400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>24100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>26800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>25200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>28900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>23300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>22000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>24000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>24900</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>22500</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>20700</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>22000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>22300</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>17400</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>16800</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>17900</v>
       </c>
     </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>8000</v>
+      </c>
+      <c r="E24" s="3">
         <v>9000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>9700</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>3200</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>8300</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>7800</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>9300</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>5000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>6600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>5100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-2200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>7700</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>5600</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>7900</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>600</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>5900</v>
-      </c>
-      <c r="T24" s="3">
-        <v>6500</v>
       </c>
       <c r="U24" s="3">
         <v>6500</v>
       </c>
       <c r="V24" s="3">
+        <v>6500</v>
+      </c>
+      <c r="W24" s="3">
         <v>2100</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>7900</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>7400</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>8600</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>800</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>6400</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>6600</v>
       </c>
     </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2064,168 +2112,177 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>22500</v>
+      </c>
+      <c r="E26" s="3">
         <v>24400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>25800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>29600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>20400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>24600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>25400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>30800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>21800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>18100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>16300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>26300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>19100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>19600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>21000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>22700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>16000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>17500</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>18400</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>20300</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>12800</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>14600</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>13800</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>16600</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>10400</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>11300</v>
       </c>
     </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>22500</v>
+      </c>
+      <c r="E27" s="3">
         <v>24400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>25800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>29600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>20400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>24600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>25400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>30800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>21800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>18100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>16300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>26300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>19100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>19600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>21000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>22700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>16000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>17500</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>18400</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>20300</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>12800</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>14600</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>13800</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>16600</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>10400</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>11300</v>
       </c>
     </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2304,8 +2361,11 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2348,17 +2408,17 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-      <c r="Q29" s="3" t="s">
-        <v>8</v>
+      <c r="Q29" s="3">
+        <v>0</v>
       </c>
       <c r="R29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S29" s="3">
-        <v>0</v>
-      </c>
-      <c r="T29" s="3" t="s">
+      <c r="S29" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="T29" s="3">
+        <v>0</v>
       </c>
       <c r="U29" s="3" t="s">
         <v>8</v>
@@ -2366,11 +2426,11 @@
       <c r="V29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W29" s="3">
+      <c r="W29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X29" s="3">
         <v>-16500</v>
-      </c>
-      <c r="X29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Y29" s="3" t="s">
         <v>8</v>
@@ -2384,8 +2444,11 @@
       <c r="AB29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2464,8 +2527,11 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2544,168 +2610,177 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-8400</v>
+      </c>
+      <c r="E32" s="3">
         <v>3400</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>9900</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>3900</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-5300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-5300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-6000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-9100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-4200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-12300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>12000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-5500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-2100</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-4000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-7600</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>4800</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-3400</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-2500</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-800</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-2900</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-2700</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-2100</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-2800</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-1900</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>22500</v>
+      </c>
+      <c r="E33" s="3">
         <v>24400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>25800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>29600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>20400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>24600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>25400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>30800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>21800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>18100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>16300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>26300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>19100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>19600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>21000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>22700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>16000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>17500</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>18400</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>20300</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-3700</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>14600</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>13800</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>16600</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>10400</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>11300</v>
       </c>
     </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2784,173 +2859,182 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>22500</v>
+      </c>
+      <c r="E35" s="3">
         <v>24400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>25800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>29600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>20400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>24600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>25400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>30800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>21800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>18100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>16300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>26300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>19100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>19600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>21000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>22700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>16000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>17500</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>18400</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>20300</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-3700</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>14600</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>13800</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>16600</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>10400</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>11300</v>
       </c>
     </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44925</v>
+      </c>
+      <c r="E38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44743</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44652</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44470</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44379</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44288</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44197</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44106</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44015</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43924</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43833</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43735</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43644</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43553</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43462</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43371</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43280</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43189</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43098</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43007</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42916</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42825</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42734</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2979,8 +3063,9 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3009,88 +3094,92 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>161500</v>
+      </c>
+      <c r="E41" s="3">
         <v>148400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>165600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>215100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>297700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>229800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>240000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>184500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>197500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>187600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>155900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>105600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>176400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>132800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>104500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>79100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>127100</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>121000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>117800</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>103200</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>124800</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>89800</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>90200</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>87100</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>115000</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>98400</v>
       </c>
     </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3106,151 +3195,157 @@
       <c r="G42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H42" s="3">
+      <c r="H42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I42" s="3">
         <v>25000</v>
       </c>
-      <c r="I42" s="3">
-        <v>0</v>
-      </c>
       <c r="J42" s="3">
+        <v>0</v>
+      </c>
+      <c r="K42" s="3">
         <v>30000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>45000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>20100</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>34200</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>46400</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>55200</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>77100</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>90000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>92700</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>81500</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>81400</v>
-      </c>
-      <c r="U42" s="3">
-        <v>75500</v>
       </c>
       <c r="V42" s="3">
         <v>75500</v>
       </c>
       <c r="W42" s="3">
+        <v>75500</v>
+      </c>
+      <c r="X42" s="3">
         <v>71600</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>75800</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>71800</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>67800</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>58800</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AC42" s="3">
         <v>52000</v>
       </c>
     </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>170100</v>
+      </c>
+      <c r="E43" s="3">
         <v>166000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>161800</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>147500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>139900</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>144000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>142700</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>124200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>111600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>110000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>109300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>127200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>120100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>128300</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>129700</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>118900</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>105800</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>122900</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>116500</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>117200</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>110100</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>124800</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>107400</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>96300</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>87400</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>94300</v>
       </c>
     </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3329,168 +3424,177 @@
       <c r="AB44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>17600</v>
+      </c>
+      <c r="E45" s="3">
         <v>18100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>15100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>14100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>15200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>18700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>15100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>14800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>12700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>11000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>14800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>14100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>12300</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>13200</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>10500</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>14000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>12200</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>11200</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>9200</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>9600</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>9000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>10700</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>9300</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>12400</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>12900</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>12600</v>
       </c>
     </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>349200</v>
+      </c>
+      <c r="E46" s="3">
         <v>332500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>342500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>376700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>452800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>417600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>397800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>353600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>366800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>328600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>314300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>293400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>364000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>351500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>334700</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>304600</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>326600</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>336500</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>319000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>305500</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>315500</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>301100</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>278700</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>263600</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>274000</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>257300</v>
       </c>
     </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3569,88 +3673,94 @@
       <c r="AB47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>83500</v>
+      </c>
+      <c r="E48" s="3">
         <v>82400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>80100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>78000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>74300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>75900</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>77400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>78900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>79100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>80500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>80400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>82300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>84600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>83000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>78800</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>74700</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>46100</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>44000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>41400</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>40400</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>35000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>35200</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>35900</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>36600</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>36700</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>37500</v>
       </c>
     </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3729,8 +3839,11 @@
       <c r="AB49" s="3">
         <v>8600</v>
       </c>
-    </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC49" s="3">
+        <v>8600</v>
+      </c>
+    </row>
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3809,8 +3922,11 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3889,88 +4005,94 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>135500</v>
+        <v>145400</v>
       </c>
       <c r="E52" s="3">
         <v>135500</v>
       </c>
       <c r="F52" s="3">
+        <v>135500</v>
+      </c>
+      <c r="G52" s="3">
         <v>154300</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>148000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>136300</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>135100</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>135900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>125500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>116900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>109900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>99300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>106200</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>101300</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>98500</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>101300</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>87600</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>91800</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>86700</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>86000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>80500</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>90800</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>86500</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>89400</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>84400</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>82000</v>
       </c>
     </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4049,88 +4171,94 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>586700</v>
+      </c>
+      <c r="E54" s="3">
         <v>559000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>566700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>617500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>683700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>638300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>618900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>577000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>580100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>534700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>513200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>483700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>563400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>544500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>520600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>489200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>468900</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>480900</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>455700</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>440500</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>439600</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>435600</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>409700</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>398200</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>403700</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>385400</v>
       </c>
     </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4159,8 +4287,9 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4189,88 +4318,92 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>29100</v>
+      </c>
+      <c r="E57" s="3">
         <v>31800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>26700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>30800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>24500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>21400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>27000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>18400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>16300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>18600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>16200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>14000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>18600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>16500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>19700</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>12400</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>12300</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>13200</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>12400</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>16500</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>14700</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>13800</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>10600</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>10200</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>10100</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>9700</v>
       </c>
     </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4349,168 +4482,177 @@
       <c r="AB58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>129900</v>
+      </c>
+      <c r="E59" s="3">
         <v>106100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>100900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>78300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>128500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>105000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>96000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>69500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>101000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>77800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>73600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>63100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>105400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>84500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>73200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>59800</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>86000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>74900</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>64900</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>53200</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>78400</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>67500</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>57500</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>47200</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>70200</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>59500</v>
       </c>
     </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>159000</v>
+      </c>
+      <c r="E60" s="3">
         <v>137900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>127500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>109100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>153000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>126400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>123000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>87900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>117300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>96400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>89800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>77100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>124000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>101000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>92900</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>72200</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>98300</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>88100</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>77300</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>69600</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>93100</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>81300</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>68100</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>57400</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>80200</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>69200</v>
       </c>
     </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4589,88 +4731,94 @@
       <c r="AB61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>106900</v>
+      </c>
+      <c r="E62" s="3">
         <v>101300</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>101700</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>121900</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>113700</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>106900</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>108100</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>111500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>101300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>95100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>90800</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>83100</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>89200</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>86200</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>83900</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>87900</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>56700</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>62100</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>59700</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>64200</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>57400</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>54300</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>52200</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>56000</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>50200</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>49400</v>
       </c>
     </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4749,8 +4897,11 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4829,8 +4980,11 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4909,88 +5063,94 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>265900</v>
+      </c>
+      <c r="E66" s="3">
         <v>239200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>229200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>231000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>266700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>233300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>231100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>199400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>218600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>191500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>180600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>160200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>213200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>187200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>176800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>160000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>155000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>150300</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>136900</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>133800</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>150500</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>135600</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>120300</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>113500</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>130400</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>118600</v>
       </c>
     </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5019,8 +5179,9 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5099,8 +5260,11 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5179,8 +5343,11 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5259,8 +5426,11 @@
       <c r="AB70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5339,88 +5509,94 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>528800</v>
+      </c>
+      <c r="E72" s="3">
         <v>518600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>506600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>493400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>478400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>468600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>454600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>439700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>421800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>410000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>402000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>395600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>384700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>374000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>363000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>350500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>342000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>332900</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>322400</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>311000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>304000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>313300</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>304200</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>296000</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>291200</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>285600</v>
       </c>
     </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5499,8 +5675,11 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5579,8 +5758,11 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5659,88 +5841,94 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>320800</v>
+      </c>
+      <c r="E76" s="3">
         <v>319800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>337500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>386600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>417100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>405000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>387800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>377600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>361500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>343200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>332600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>323500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>350300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>357300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>343900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>329200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>313900</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>330600</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>318800</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>306600</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>289100</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>300100</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>289400</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>284700</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>273300</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>266800</v>
       </c>
     </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5819,173 +6007,182 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44925</v>
+      </c>
+      <c r="E80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44743</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44652</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44470</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44379</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44288</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44197</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44106</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44015</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43924</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43833</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43735</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43644</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43553</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43462</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43371</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43280</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43189</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43098</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43007</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42916</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42825</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42734</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>22500</v>
+      </c>
+      <c r="E81" s="3">
         <v>24400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>25800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>29600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>20400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>24600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>25400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>30800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>21800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>18100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>16300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>26300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>19100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>19600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>21000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>22700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>16000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>17500</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>18400</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>20300</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-3700</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>14600</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>13800</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>16600</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>10400</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>11300</v>
       </c>
     </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6014,31 +6211,32 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E83" s="3">
         <v>1700</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>1800</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>1700</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>1500</v>
-      </c>
-      <c r="H83" s="3">
-        <v>1600</v>
       </c>
       <c r="I83" s="3">
         <v>1600</v>
       </c>
       <c r="J83" s="3">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="K83" s="3">
         <v>1700</v>
@@ -6050,16 +6248,16 @@
         <v>1700</v>
       </c>
       <c r="N83" s="3">
+        <v>1700</v>
+      </c>
+      <c r="O83" s="3">
         <v>1800</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>1900</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>1700</v>
-      </c>
-      <c r="Q83" s="3">
-        <v>1600</v>
       </c>
       <c r="R83" s="3">
         <v>1600</v>
@@ -6077,10 +6275,10 @@
         <v>1600</v>
       </c>
       <c r="W83" s="3">
+        <v>1600</v>
+      </c>
+      <c r="X83" s="3">
         <v>1500</v>
-      </c>
-      <c r="X83" s="3">
-        <v>1600</v>
       </c>
       <c r="Y83" s="3">
         <v>1600</v>
@@ -6091,11 +6289,14 @@
       <c r="AA83" s="3">
         <v>1600</v>
       </c>
-      <c r="AB83" s="3" t="s">
+      <c r="AB83" s="3">
+        <v>1600</v>
+      </c>
+      <c r="AC83" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6174,8 +6375,11 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6254,8 +6458,11 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6334,8 +6541,11 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6414,8 +6624,11 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6494,88 +6707,94 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>40600</v>
+      </c>
+      <c r="E89" s="3">
         <v>29400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>30200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-6400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>54200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>24900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>44200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>1300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>40900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>28200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>48000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-13800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>55800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>27500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>37100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-12300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>44400</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>18900</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>24200</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>3700</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>40900</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>9800</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>19000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>-1800</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>29700</v>
       </c>
-      <c r="AB89" s="3" t="s">
+      <c r="AC89" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6604,88 +6823,92 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="E91" s="3">
         <v>-3200</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-3300</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-2600</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-1400</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-1200</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-1700</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-2500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-1700</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-1200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-1300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-6000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-4500</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-6800</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-5700</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-4100</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-3200</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-2100</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-6800</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-1400</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-800</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-1200</v>
-      </c>
-      <c r="Z91" s="3">
-        <v>-1300</v>
       </c>
       <c r="AA91" s="3">
         <v>-1300</v>
       </c>
-      <c r="AB91" s="3" t="s">
+      <c r="AB91" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="AC91" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6764,8 +6987,11 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6844,88 +7070,94 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="E94" s="3">
         <v>-3200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-3300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-2600</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>23600</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-26200</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>28300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>12500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-25800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>12300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>10800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>7700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>16000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>8500</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-3700</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-16500</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-3900</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-9100</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-2100</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-10700</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>2600</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-4800</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-5200</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-10300</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-8300</v>
       </c>
-      <c r="AB94" s="3" t="s">
+      <c r="AC94" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6954,8 +7186,9 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6963,13 +7196,13 @@
         <v>-12200</v>
       </c>
       <c r="E96" s="3">
+        <v>-12200</v>
+      </c>
+      <c r="F96" s="3">
         <v>-12300</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-12500</v>
-      </c>
-      <c r="G96" s="3">
-        <v>-10400</v>
       </c>
       <c r="H96" s="3">
         <v>-10400</v>
@@ -6978,10 +7211,10 @@
         <v>-10400</v>
       </c>
       <c r="J96" s="3">
+        <v>-10400</v>
+      </c>
+      <c r="K96" s="3">
         <v>-11900</v>
-      </c>
-      <c r="K96" s="3">
-        <v>-9800</v>
       </c>
       <c r="L96" s="3">
         <v>-9800</v>
@@ -6990,10 +7223,10 @@
         <v>-9800</v>
       </c>
       <c r="N96" s="3">
+        <v>-9800</v>
+      </c>
+      <c r="O96" s="3">
         <v>-10300</v>
-      </c>
-      <c r="O96" s="3">
-        <v>-8300</v>
       </c>
       <c r="P96" s="3">
         <v>-8300</v>
@@ -7002,40 +7235,43 @@
         <v>-8300</v>
       </c>
       <c r="R96" s="3">
+        <v>-8300</v>
+      </c>
+      <c r="S96" s="3">
         <v>-8600</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-6700</v>
-      </c>
-      <c r="T96" s="3">
-        <v>-6800</v>
       </c>
       <c r="U96" s="3">
         <v>-6800</v>
       </c>
       <c r="V96" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="W96" s="3">
         <v>-7000</v>
-      </c>
-      <c r="W96" s="3">
-        <v>-5400</v>
       </c>
       <c r="X96" s="3">
         <v>-5400</v>
       </c>
       <c r="Y96" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="Z96" s="3">
         <v>-5600</v>
       </c>
-      <c r="Z96" s="3">
+      <c r="AA96" s="3">
         <v>-5400</v>
       </c>
-      <c r="AA96" s="3">
+      <c r="AB96" s="3">
         <v>-4600</v>
       </c>
-      <c r="AB96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7114,8 +7350,11 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7194,8 +7433,11 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7274,244 +7516,256 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-25400</v>
+      </c>
+      <c r="E100" s="3">
         <v>-42000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-75100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-73400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-10000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-8800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-17000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-27000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-6100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-9300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-8600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-64300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-29000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-7200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-7800</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-19400</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-34200</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-6600</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-6400</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-15300</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-8600</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-5800</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-11000</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-15900</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-4300</v>
       </c>
-      <c r="AB100" s="3" t="s">
+      <c r="AC100" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>800</v>
+      </c>
+      <c r="E101" s="3">
         <v>-1400</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-1200</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-300</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>100</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-100</v>
       </c>
-      <c r="I101" s="3">
-        <v>0</v>
-      </c>
       <c r="J101" s="3">
+        <v>0</v>
+      </c>
+      <c r="K101" s="3">
         <v>200</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>1000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>500</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>100</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-400</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>800</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-400</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-200</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>200</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-200</v>
       </c>
-      <c r="T101" s="3">
-        <v>0</v>
-      </c>
       <c r="U101" s="3">
+        <v>0</v>
+      </c>
+      <c r="V101" s="3">
         <v>-1100</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>700</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>100</v>
-      </c>
-      <c r="X101" s="3">
-        <v>400</v>
       </c>
       <c r="Y101" s="3">
         <v>400</v>
       </c>
       <c r="Z101" s="3">
+        <v>400</v>
+      </c>
+      <c r="AA101" s="3">
         <v>100</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>-500</v>
       </c>
-      <c r="AB101" s="3" t="s">
+      <c r="AC101" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>13000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-17200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-49400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-82600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>67900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-10200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>55400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-13000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>9900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>31700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>50300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-70800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>43600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>28400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>25400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-48000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>6100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>3200</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>14600</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-21600</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>35000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-400</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>3100</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-27900</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>16500</v>
       </c>
-      <c r="AB102" s="3" t="s">
+      <c r="AC102" s="3" t="s">
         <v>8</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/EXPO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/EXPO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="92">
   <si>
     <t>EXPO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AC102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,372 +665,385 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
         <v>44925</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44743</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44652</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44470</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44379</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44288</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44197</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44106</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44015</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43924</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43833</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43735</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43644</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43553</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43462</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43371</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43280</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43189</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43098</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43007</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42916</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42825</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42734</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>140300</v>
+      </c>
+      <c r="E8" s="3">
         <v>127400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>127200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>130300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>128500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>113500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>116400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>119900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>116500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>103200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>98700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>92000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>106000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>110100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>101500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>106500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>99000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>92100</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>95300</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>95600</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>96500</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>88300</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>87600</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>87800</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>84100</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>77000</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>77600</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>11600</v>
+      </c>
+      <c r="E9" s="3">
         <v>14800</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>12000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>12100</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>10600</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>9200</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>7900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>7400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>6900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>5900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>5200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>4200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>6200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>7900</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>6000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>6200</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>5600</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>6900</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>6600</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>5600</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>5800</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>5600</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>5200</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>3700</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>58100</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>50800</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>51200</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>128700</v>
+      </c>
+      <c r="E10" s="3">
         <v>112600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>115200</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>118200</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>117900</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>104300</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>108500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>112500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>109600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>97300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>93500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>87800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>99800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>102200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>95500</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>100300</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>93400</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>85200</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>88700</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>90000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>90700</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>82700</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>82400</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>84100</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>26000</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>26200</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>26400</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1060,8 +1073,9 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1143,8 +1157,11 @@
       <c r="AC12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1226,8 +1243,11 @@
       <c r="AC13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1309,8 +1329,11 @@
       <c r="AC14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1392,8 +1415,11 @@
       <c r="AC15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1420,174 +1446,181 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>111200</v>
+      </c>
+      <c r="E17" s="3">
         <v>105300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>90400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>85000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>91800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>90100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>84300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>90500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>92400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>85500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>78300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>82900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>70000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>88800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>78400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>81700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>83300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>65400</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>74700</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>73100</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>74900</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>70500</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>68300</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>67500</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>69500</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>62100</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>62000</v>
       </c>
     </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>29100</v>
+      </c>
+      <c r="E18" s="3">
         <v>22100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>36800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>45300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>36700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>23400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>32100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>29400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>24100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>17700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>20400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>9100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>36000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>21300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>23100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>24800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>15700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>26700</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>20600</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>22500</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>21600</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>17800</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>19400</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>20300</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>14600</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>14900</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>15600</v>
       </c>
     </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1617,174 +1650,181 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>6400</v>
+      </c>
+      <c r="E20" s="3">
         <v>8400</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-3400</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-9900</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-3900</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>5300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>5300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>6000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>9100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>4200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>12300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-12000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>5500</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>2100</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>4000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>7600</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-4800</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>3400</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>2500</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>800</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>2900</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>2700</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>2100</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>2800</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>1900</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>37500</v>
+      </c>
+      <c r="E21" s="3">
         <v>32400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>35200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>37200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>34500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>30200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>34000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>36300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>31800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>28500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>26300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>23100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>25800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>28700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>26900</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>30500</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>24900</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>23500</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>25600</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>26500</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>24000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>22200</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>23600</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>24000</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>19000</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>18400</v>
       </c>
-      <c r="AC21" s="3" t="s">
+      <c r="AD21" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1866,174 +1906,183 @@
       <c r="AC22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>35500</v>
+      </c>
+      <c r="E23" s="3">
         <v>30500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>33500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>35400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>32800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>28700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>32400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>34700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>30100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>26800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>24600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>21400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>24100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>26800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>25200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>28900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>23300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>22000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>24000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>24900</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>22500</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>20700</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>22000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>22300</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>17400</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>16800</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>17900</v>
       </c>
     </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>6400</v>
+      </c>
+      <c r="E24" s="3">
         <v>8000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>9000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>9700</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>3200</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>8300</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>7800</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>9300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>5000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>6600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>5100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-2200</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>7700</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>5600</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>7900</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>600</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>5900</v>
-      </c>
-      <c r="U24" s="3">
-        <v>6500</v>
       </c>
       <c r="V24" s="3">
         <v>6500</v>
       </c>
       <c r="W24" s="3">
+        <v>6500</v>
+      </c>
+      <c r="X24" s="3">
         <v>2100</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>7900</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>7400</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>8600</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>800</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>6400</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>6600</v>
       </c>
     </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2115,174 +2164,183 @@
       <c r="AC25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>29100</v>
+      </c>
+      <c r="E26" s="3">
         <v>22500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>24400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>25800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>29600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>20400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>24600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>25400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>30800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>21800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>18100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>16300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>26300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>19100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>19600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>21000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>22700</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>16000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>17500</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>18400</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>20300</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>12800</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>14600</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>13800</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>16600</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>10400</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>11300</v>
       </c>
     </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>29100</v>
+      </c>
+      <c r="E27" s="3">
         <v>22500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>24400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>25800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>29600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>20400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>24600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>25400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>30800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>21800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>18100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>16300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>26300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>19100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>19600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>21000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>22700</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>16000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>17500</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>18400</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>20300</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>12800</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>14600</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>13800</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>16600</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>10400</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>11300</v>
       </c>
     </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2364,8 +2422,11 @@
       <c r="AC28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2411,17 +2472,17 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-      <c r="R29" s="3" t="s">
-        <v>8</v>
+      <c r="R29" s="3">
+        <v>0</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T29" s="3">
-        <v>0</v>
-      </c>
-      <c r="U29" s="3" t="s">
+      <c r="T29" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="U29" s="3">
+        <v>0</v>
       </c>
       <c r="V29" s="3" t="s">
         <v>8</v>
@@ -2429,11 +2490,11 @@
       <c r="W29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="X29" s="3">
+      <c r="X29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y29" s="3">
         <v>-16500</v>
-      </c>
-      <c r="Y29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Z29" s="3" t="s">
         <v>8</v>
@@ -2447,8 +2508,11 @@
       <c r="AC29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2530,8 +2594,11 @@
       <c r="AC30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2613,174 +2680,183 @@
       <c r="AC31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-6400</v>
+      </c>
+      <c r="E32" s="3">
         <v>-8400</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>3400</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>9900</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>3900</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-5300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-5300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-6000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-9100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-4200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-12300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>12000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-5500</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-2100</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-4000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-7600</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>4800</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-3400</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-2500</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-800</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-2900</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-2700</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-2100</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-2800</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>-1900</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>29100</v>
+      </c>
+      <c r="E33" s="3">
         <v>22500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>24400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>25800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>29600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>20400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>24600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>25400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>30800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>21800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>18100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>16300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>26300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>19100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>19600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>21000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>22700</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>16000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>17500</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>18400</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>20300</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-3700</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>14600</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>13800</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>16600</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>10400</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>11300</v>
       </c>
     </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2862,179 +2938,188 @@
       <c r="AC34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>29100</v>
+      </c>
+      <c r="E35" s="3">
         <v>22500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>24400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>25800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>29600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>20400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>24600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>25400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>30800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>21800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>18100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>16300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>26300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>19100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>19600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>21000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>22700</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>16000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>17500</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>18400</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>20300</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-3700</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>14600</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>13800</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>16600</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>10400</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>11300</v>
       </c>
     </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
         <v>44925</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44743</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44652</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44470</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44379</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44288</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44197</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44106</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44015</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43924</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43833</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43735</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43644</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43553</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43462</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43371</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43280</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43189</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43098</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43007</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42916</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42825</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42734</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3064,8 +3149,9 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3095,91 +3181,95 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>125600</v>
+      </c>
+      <c r="E41" s="3">
         <v>161500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>148400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>165600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>215100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>297700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>229800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>240000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>184500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>197500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>187600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>155900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>105600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>176400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>132800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>104500</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>79100</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>127100</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>121000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>117800</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>103200</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>124800</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>89800</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>90200</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>87100</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>115000</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>98400</v>
       </c>
     </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3198,154 +3288,160 @@
       <c r="H42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I42" s="3">
+      <c r="I42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J42" s="3">
         <v>25000</v>
       </c>
-      <c r="J42" s="3">
-        <v>0</v>
-      </c>
       <c r="K42" s="3">
+        <v>0</v>
+      </c>
+      <c r="L42" s="3">
         <v>30000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>45000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>20100</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>34200</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>46400</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>55200</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>77100</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>90000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>92700</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>81500</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>81400</v>
-      </c>
-      <c r="V42" s="3">
-        <v>75500</v>
       </c>
       <c r="W42" s="3">
         <v>75500</v>
       </c>
       <c r="X42" s="3">
+        <v>75500</v>
+      </c>
+      <c r="Y42" s="3">
         <v>71600</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>75800</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>71800</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>67800</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AC42" s="3">
         <v>58800</v>
       </c>
-      <c r="AC42" s="3">
+      <c r="AD42" s="3">
         <v>52000</v>
       </c>
     </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>173100</v>
+      </c>
+      <c r="E43" s="3">
         <v>170100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>166000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>161800</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>147500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>139900</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>144000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>142700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>124200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>111600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>110000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>109300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>127200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>120100</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>128300</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>129700</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>118900</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>105800</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>122900</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>116500</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>117200</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>110100</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>124800</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>107400</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>96300</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>87400</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>94300</v>
       </c>
     </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3427,174 +3523,183 @@
       <c r="AC44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>19600</v>
+      </c>
+      <c r="E45" s="3">
         <v>17600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>18100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>15100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>14100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>15200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>18700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>15100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>14800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>12700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>11000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>14800</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>14100</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>12300</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>13200</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>10500</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>14000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>12200</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>11200</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>9200</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>9600</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>9000</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>10700</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>9300</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>12400</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>12900</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>12600</v>
       </c>
     </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>318300</v>
+      </c>
+      <c r="E46" s="3">
         <v>349200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>332500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>342500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>376700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>452800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>417600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>397800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>353600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>366800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>328600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>314300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>293400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>364000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>351500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>334700</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>304600</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>326600</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>336500</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>319000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>305500</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>315500</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>301100</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>278700</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>263600</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>274000</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>257300</v>
       </c>
     </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3676,91 +3781,97 @@
       <c r="AC47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>86000</v>
+      </c>
+      <c r="E48" s="3">
         <v>83500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>82400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>80100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>78000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>74300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>75900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>77400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>78900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>79100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>80500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>80400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>82300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>84600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>83000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>78800</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>74700</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>46100</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>44000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>41400</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>40400</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>35000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>35200</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>35900</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>36600</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>36700</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>37500</v>
       </c>
     </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3842,8 +3953,11 @@
       <c r="AC49" s="3">
         <v>8600</v>
       </c>
-    </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD49" s="3">
+        <v>8600</v>
+      </c>
+    </row>
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3925,8 +4039,11 @@
       <c r="AC50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4008,91 +4125,97 @@
       <c r="AC51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>153500</v>
+      </c>
+      <c r="E52" s="3">
         <v>145400</v>
-      </c>
-      <c r="E52" s="3">
-        <v>135500</v>
       </c>
       <c r="F52" s="3">
         <v>135500</v>
       </c>
       <c r="G52" s="3">
+        <v>135500</v>
+      </c>
+      <c r="H52" s="3">
         <v>154300</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>148000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>136300</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>135100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>135900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>125500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>116900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>109900</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>99300</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>106200</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>101300</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>98500</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>101300</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>87600</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>91800</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>86700</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>86000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>80500</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>90800</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>86500</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>89400</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>84400</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>82000</v>
       </c>
     </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4174,91 +4297,97 @@
       <c r="AC53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>566400</v>
+      </c>
+      <c r="E54" s="3">
         <v>586700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>559000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>566700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>617500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>683700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>638300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>618900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>577000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>580100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>534700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>513200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>483700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>563400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>544500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>520600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>489200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>468900</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>480900</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>455700</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>440500</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>439600</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>435600</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>409700</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>398200</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>403700</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>385400</v>
       </c>
     </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4288,8 +4417,9 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4319,91 +4449,95 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>26300</v>
+      </c>
+      <c r="E57" s="3">
         <v>29100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>31800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>26700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>30800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>24500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>21400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>27000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>18400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>16300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>18600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>16200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>14000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>18600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>16500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>19700</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>12400</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>12300</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>13200</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>12400</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>16500</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>14700</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>13800</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>10600</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>10200</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>10100</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>9700</v>
       </c>
     </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4485,174 +4619,183 @@
       <c r="AC58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>82900</v>
+      </c>
+      <c r="E59" s="3">
         <v>129900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>106100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>100900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>78300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>128500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>105000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>96000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>69500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>101000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>77800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>73600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>63100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>105400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>84500</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>73200</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>59800</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>86000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>74900</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>64900</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>53200</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>78400</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>67500</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>57500</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>47200</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>70200</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>59500</v>
       </c>
     </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>109200</v>
+      </c>
+      <c r="E60" s="3">
         <v>159000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>137900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>127500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>109100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>153000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>126400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>123000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>87900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>117300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>96400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>89800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>77100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>124000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>101000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>92900</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>72200</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>98300</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>88100</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>77300</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>69600</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>93100</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>81300</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>68100</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>57400</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>80200</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>69200</v>
       </c>
     </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4734,91 +4877,97 @@
       <c r="AC61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>115400</v>
+      </c>
+      <c r="E62" s="3">
         <v>106900</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>101300</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>101700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>121900</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>113700</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>106900</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>108100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>111500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>101300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>95100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>90800</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>83100</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>89200</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>86200</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>83900</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>87900</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>56700</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>62100</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>59700</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>64200</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>57400</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>54300</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>52200</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>56000</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>50200</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>49400</v>
       </c>
     </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4900,8 +5049,11 @@
       <c r="AC63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4983,8 +5135,11 @@
       <c r="AC64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5066,91 +5221,97 @@
       <c r="AC65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>224600</v>
+      </c>
+      <c r="E66" s="3">
         <v>265900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>239200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>229200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>231000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>266700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>233300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>231100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>199400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>218600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>191500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>180600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>160200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>213200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>187200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>176800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>160000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>155000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>150300</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>136900</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>133800</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>150500</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>135600</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>120300</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>113500</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>130400</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>118600</v>
       </c>
     </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5180,8 +5341,9 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5263,8 +5425,11 @@
       <c r="AC68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5346,8 +5511,11 @@
       <c r="AC69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5429,8 +5597,11 @@
       <c r="AC70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5512,91 +5683,97 @@
       <c r="AC71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>543000</v>
+      </c>
+      <c r="E72" s="3">
         <v>528800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>518600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>506600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>493400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>478400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>468600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>454600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>439700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>421800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>410000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>402000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>395600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>384700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>374000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>363000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>350500</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>342000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>332900</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>322400</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>311000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>304000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>313300</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>304200</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>296000</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>291200</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>285600</v>
       </c>
     </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5678,8 +5855,11 @@
       <c r="AC73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5761,8 +5941,11 @@
       <c r="AC74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5844,91 +6027,97 @@
       <c r="AC75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>341900</v>
+      </c>
+      <c r="E76" s="3">
         <v>320800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>319800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>337500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>386600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>417100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>405000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>387800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>377600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>361500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>343200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>332600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>323500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>350300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>357300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>343900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>329200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>313900</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>330600</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>318800</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>306600</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>289100</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>300100</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>289400</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>284700</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>273300</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>266800</v>
       </c>
     </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6010,179 +6199,188 @@
       <c r="AC77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
         <v>44925</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44743</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44652</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44470</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44379</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44288</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44197</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44106</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44015</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43924</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43833</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43735</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43644</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43553</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43462</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43371</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43280</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43189</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43098</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43007</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42916</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42825</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42734</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>29100</v>
+      </c>
+      <c r="E81" s="3">
         <v>22500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>24400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>25800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>29600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>20400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>24600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>25400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>30800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>21800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>18100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>16300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>26300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>19100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>19600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>21000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>22700</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>16000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>17500</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>18400</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>20300</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-3700</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>14600</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>13800</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>16600</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>10400</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>11300</v>
       </c>
     </row>
-    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6212,34 +6410,35 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-    </row>
-    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E83" s="3">
         <v>1900</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>1700</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>1800</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>1700</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>1500</v>
-      </c>
-      <c r="I83" s="3">
-        <v>1600</v>
       </c>
       <c r="J83" s="3">
         <v>1600</v>
       </c>
       <c r="K83" s="3">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="L83" s="3">
         <v>1700</v>
@@ -6251,16 +6450,16 @@
         <v>1700</v>
       </c>
       <c r="O83" s="3">
+        <v>1700</v>
+      </c>
+      <c r="P83" s="3">
         <v>1800</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>1900</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>1700</v>
-      </c>
-      <c r="R83" s="3">
-        <v>1600</v>
       </c>
       <c r="S83" s="3">
         <v>1600</v>
@@ -6278,10 +6477,10 @@
         <v>1600</v>
       </c>
       <c r="X83" s="3">
+        <v>1600</v>
+      </c>
+      <c r="Y83" s="3">
         <v>1500</v>
-      </c>
-      <c r="Y83" s="3">
-        <v>1600</v>
       </c>
       <c r="Z83" s="3">
         <v>1600</v>
@@ -6292,11 +6491,14 @@
       <c r="AB83" s="3">
         <v>1600</v>
       </c>
-      <c r="AC83" s="3" t="s">
+      <c r="AC83" s="3">
+        <v>1600</v>
+      </c>
+      <c r="AD83" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6378,8 +6580,11 @@
       <c r="AC84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6461,8 +6666,11 @@
       <c r="AC85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6544,8 +6752,11 @@
       <c r="AC86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6627,8 +6838,11 @@
       <c r="AC87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6710,91 +6924,97 @@
       <c r="AC88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-6700</v>
+      </c>
+      <c r="E89" s="3">
         <v>40600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>29400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>30200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-6400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>54200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>24900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>44200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>40900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>28200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>48000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-13800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>55800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>27500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>37100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-12300</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>44400</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>18900</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>24200</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>3700</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>40900</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>9800</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>19000</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>-1800</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>29700</v>
       </c>
-      <c r="AC89" s="3" t="s">
+      <c r="AD89" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6824,91 +7044,95 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-    </row>
-    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="E91" s="3">
         <v>-2900</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-3200</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-3300</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-2600</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-1400</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-1200</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-1700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-2500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-1700</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-1200</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-1300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-6000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-4500</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-6800</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-5700</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-4100</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-3200</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-2100</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-6800</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-1400</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-800</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-1200</v>
-      </c>
-      <c r="AA91" s="3">
-        <v>-1300</v>
       </c>
       <c r="AB91" s="3">
         <v>-1300</v>
       </c>
-      <c r="AC91" s="3" t="s">
+      <c r="AC91" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="AD91" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6990,8 +7214,11 @@
       <c r="AC92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7073,91 +7300,97 @@
       <c r="AC93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="E94" s="3">
         <v>-2900</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-3200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-3300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-2600</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>23600</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-26200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>28300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>12500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-25800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>12300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>10800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>7700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>16000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>8500</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-3700</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-16500</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-3900</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-9100</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-2100</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-10700</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>2600</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-4800</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-5200</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-10300</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-8300</v>
       </c>
-      <c r="AC94" s="3" t="s">
+      <c r="AD94" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7187,25 +7420,26 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-    </row>
-    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-12200</v>
+        <v>-14500</v>
       </c>
       <c r="E96" s="3">
         <v>-12200</v>
       </c>
       <c r="F96" s="3">
+        <v>-12200</v>
+      </c>
+      <c r="G96" s="3">
         <v>-12300</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-12500</v>
-      </c>
-      <c r="H96" s="3">
-        <v>-10400</v>
       </c>
       <c r="I96" s="3">
         <v>-10400</v>
@@ -7214,10 +7448,10 @@
         <v>-10400</v>
       </c>
       <c r="K96" s="3">
+        <v>-10400</v>
+      </c>
+      <c r="L96" s="3">
         <v>-11900</v>
-      </c>
-      <c r="L96" s="3">
-        <v>-9800</v>
       </c>
       <c r="M96" s="3">
         <v>-9800</v>
@@ -7226,10 +7460,10 @@
         <v>-9800</v>
       </c>
       <c r="O96" s="3">
+        <v>-9800</v>
+      </c>
+      <c r="P96" s="3">
         <v>-10300</v>
-      </c>
-      <c r="P96" s="3">
-        <v>-8300</v>
       </c>
       <c r="Q96" s="3">
         <v>-8300</v>
@@ -7238,40 +7472,43 @@
         <v>-8300</v>
       </c>
       <c r="S96" s="3">
+        <v>-8300</v>
+      </c>
+      <c r="T96" s="3">
         <v>-8600</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-6700</v>
-      </c>
-      <c r="U96" s="3">
-        <v>-6800</v>
       </c>
       <c r="V96" s="3">
         <v>-6800</v>
       </c>
       <c r="W96" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="X96" s="3">
         <v>-7000</v>
-      </c>
-      <c r="X96" s="3">
-        <v>-5400</v>
       </c>
       <c r="Y96" s="3">
         <v>-5400</v>
       </c>
       <c r="Z96" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="AA96" s="3">
         <v>-5600</v>
       </c>
-      <c r="AA96" s="3">
+      <c r="AB96" s="3">
         <v>-5400</v>
       </c>
-      <c r="AB96" s="3">
+      <c r="AC96" s="3">
         <v>-4600</v>
       </c>
-      <c r="AC96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7353,8 +7590,11 @@
       <c r="AC97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7436,8 +7676,11 @@
       <c r="AC98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7519,253 +7762,265 @@
       <c r="AC99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-23700</v>
+      </c>
+      <c r="E100" s="3">
         <v>-25400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-42000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-75100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-73400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-10000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-8800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-17000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-27000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-6100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-9300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-8600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-64300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-29000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-7200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-7800</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-19400</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-34200</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-6600</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-6400</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-15300</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-8600</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-5800</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-11000</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-15900</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-4300</v>
       </c>
-      <c r="AC100" s="3" t="s">
+      <c r="AD100" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>300</v>
+      </c>
+      <c r="E101" s="3">
         <v>800</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-1400</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-1200</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-300</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>100</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-100</v>
       </c>
-      <c r="J101" s="3">
-        <v>0</v>
-      </c>
       <c r="K101" s="3">
+        <v>0</v>
+      </c>
+      <c r="L101" s="3">
         <v>200</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>1000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>500</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>100</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-400</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>800</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-400</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-200</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>200</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-200</v>
       </c>
-      <c r="U101" s="3">
-        <v>0</v>
-      </c>
       <c r="V101" s="3">
+        <v>0</v>
+      </c>
+      <c r="W101" s="3">
         <v>-1100</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>700</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>100</v>
-      </c>
-      <c r="Y101" s="3">
-        <v>400</v>
       </c>
       <c r="Z101" s="3">
         <v>400</v>
       </c>
       <c r="AA101" s="3">
+        <v>400</v>
+      </c>
+      <c r="AB101" s="3">
         <v>100</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>-500</v>
       </c>
-      <c r="AC101" s="3" t="s">
+      <c r="AD101" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-35800</v>
+      </c>
+      <c r="E102" s="3">
         <v>13000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-17200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-49400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-82600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>67900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-10200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>55400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-13000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>9900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>31700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>50300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-70800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>43600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>28400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>25400</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-48000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>6100</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>3200</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>14600</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-21600</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>35000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-400</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>3100</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-27900</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>16500</v>
       </c>
-      <c r="AC102" s="3" t="s">
+      <c r="AD102" s="3" t="s">
         <v>8</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/EXPO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/EXPO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="92">
   <si>
     <t>EXPO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AD102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,385 +665,398 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44925</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44743</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44652</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44470</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44379</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44288</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44197</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44106</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44015</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43924</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43833</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43644</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43553</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43462</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43371</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43280</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43189</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43098</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43007</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42916</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42825</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42734</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>140200</v>
+      </c>
+      <c r="E8" s="3">
         <v>140300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>127400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>127200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>130300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>128500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>113500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>116400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>119900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>116500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>103200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>98700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>92000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>106000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>110100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>101500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>106500</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>99000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>92100</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>95300</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>95600</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>96500</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>88300</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>87600</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>87800</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>84100</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>77000</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>77600</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>10600</v>
+      </c>
+      <c r="E9" s="3">
         <v>11600</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>14800</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>12000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>12100</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>10600</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>9200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>7900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>7400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>6900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>5900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>5200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>4200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>6200</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>7900</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>6000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>6200</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>5600</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>6900</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>6600</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>5600</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>5800</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>5600</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>5200</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>3700</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>58100</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>50800</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AE9" s="3">
         <v>51200</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>129600</v>
+      </c>
+      <c r="E10" s="3">
         <v>128700</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>112600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>115200</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>118200</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>117900</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>104300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>108500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>112500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>109600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>97300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>93500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>87800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>99800</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>102200</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>95500</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>100300</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>93400</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>85200</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>88700</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>90000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>90700</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>82700</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>82400</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>84100</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>26000</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>26200</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AE10" s="3">
         <v>26400</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1074,8 +1087,9 @@
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1160,8 +1174,11 @@
       <c r="AD12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1246,8 +1263,11 @@
       <c r="AD13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1332,8 +1352,11 @@
       <c r="AD14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1418,8 +1441,11 @@
       <c r="AD15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1447,180 +1473,187 @@
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
-    </row>
-    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>110300</v>
+      </c>
+      <c r="E17" s="3">
         <v>111200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>105300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>90400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>85000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>91800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>90100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>84300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>90500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>92400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>85500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>78300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>82900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>70000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>88800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>78400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>81700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>83300</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>65400</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>74700</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>73100</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>74900</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>70500</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>68300</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>67500</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>69500</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>62100</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>62000</v>
       </c>
     </row>
-    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>29900</v>
+      </c>
+      <c r="E18" s="3">
         <v>29100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>22100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>36800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>45300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>36700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>23400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>32100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>29400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>24100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>17700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>20400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>9100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>36000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>21300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>23100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>24800</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>15700</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>26700</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>20600</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>22500</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>21600</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>17800</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>19400</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>20300</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>14600</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>14900</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>15600</v>
       </c>
     </row>
-    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1651,8 +1684,9 @@
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
-    </row>
-    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1660,171 +1694,177 @@
         <v>6400</v>
       </c>
       <c r="E20" s="3">
+        <v>6400</v>
+      </c>
+      <c r="F20" s="3">
         <v>8400</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-3400</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-9900</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-3900</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>5300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>5300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>6000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>9100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>4200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>12300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-12000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>5500</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>2100</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>4000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>7600</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-4800</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>3400</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>2500</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>800</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>2900</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>2700</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>2100</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>2800</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>1900</v>
       </c>
-      <c r="AD20" s="3">
+      <c r="AE20" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>38400</v>
+      </c>
+      <c r="E21" s="3">
         <v>37500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>32400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>35200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>37200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>34500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>30200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>34000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>36300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>31800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>28500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>26300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>23100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>25800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>28700</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>26900</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>30500</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>24900</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>23500</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>25600</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>26500</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>24000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>22200</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>23600</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>24000</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>19000</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>18400</v>
       </c>
-      <c r="AD21" s="3" t="s">
+      <c r="AE21" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1909,180 +1949,189 @@
       <c r="AD22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>36300</v>
+      </c>
+      <c r="E23" s="3">
         <v>35500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>30500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>33500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>35400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>32800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>28700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>32400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>34700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>30100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>26800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>24600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>21400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>24100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>26800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>25200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>28900</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>23300</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>22000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>24000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>24900</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>22500</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>20700</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>22000</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>22300</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>17400</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>16800</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>17900</v>
       </c>
     </row>
-    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>10500</v>
+      </c>
+      <c r="E24" s="3">
         <v>6400</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>8000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>9000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>9700</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>3200</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>8300</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>7800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>9300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>5000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>6600</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>5100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-2200</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>7700</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>5600</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>7900</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>600</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>5900</v>
-      </c>
-      <c r="V24" s="3">
-        <v>6500</v>
       </c>
       <c r="W24" s="3">
         <v>6500</v>
       </c>
       <c r="X24" s="3">
+        <v>6500</v>
+      </c>
+      <c r="Y24" s="3">
         <v>2100</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>7900</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>7400</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>8600</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>800</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>6400</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AE24" s="3">
         <v>6600</v>
       </c>
     </row>
-    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2167,180 +2216,189 @@
       <c r="AD25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>25700</v>
+      </c>
+      <c r="E26" s="3">
         <v>29100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>22500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>24400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>25800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>29600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>20400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>24600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>25400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>30800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>21800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>18100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>16300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>26300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>19100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>19600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>21000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>22700</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>16000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>17500</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>18400</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>20300</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>12800</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>14600</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>13800</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>16600</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>10400</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>11300</v>
       </c>
     </row>
-    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>25700</v>
+      </c>
+      <c r="E27" s="3">
         <v>29100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>22500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>24400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>25800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>29600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>20400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>24600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>25400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>30800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>21800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>18100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>16300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>26300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>19100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>19600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>21000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>22700</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>16000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>17500</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>18400</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>20300</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>12800</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>14600</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>13800</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>16600</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>10400</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>11300</v>
       </c>
     </row>
-    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2425,8 +2483,11 @@
       <c r="AD28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2475,17 +2536,17 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-      <c r="S29" s="3" t="s">
-        <v>8</v>
+      <c r="S29" s="3">
+        <v>0</v>
       </c>
       <c r="T29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U29" s="3">
-        <v>0</v>
-      </c>
-      <c r="V29" s="3" t="s">
+      <c r="U29" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="V29" s="3">
+        <v>0</v>
       </c>
       <c r="W29" s="3" t="s">
         <v>8</v>
@@ -2493,11 +2554,11 @@
       <c r="X29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y29" s="3">
+      <c r="Y29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z29" s="3">
         <v>-16500</v>
-      </c>
-      <c r="Z29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="AA29" s="3" t="s">
         <v>8</v>
@@ -2511,8 +2572,11 @@
       <c r="AD29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2597,8 +2661,11 @@
       <c r="AD30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2683,8 +2750,11 @@
       <c r="AD31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2692,171 +2762,177 @@
         <v>-6400</v>
       </c>
       <c r="E32" s="3">
+        <v>-6400</v>
+      </c>
+      <c r="F32" s="3">
         <v>-8400</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>3400</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>9900</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>3900</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-5300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-5300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-6000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-9100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-4200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-12300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>12000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-5500</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-2100</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-4000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-7600</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>4800</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-3400</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-2500</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-800</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-2900</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-2700</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-2100</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>-2800</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>-1900</v>
       </c>
-      <c r="AD32" s="3">
+      <c r="AE32" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>25700</v>
+      </c>
+      <c r="E33" s="3">
         <v>29100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>22500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>24400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>25800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>29600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>20400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>24600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>25400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>30800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>21800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>18100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>16300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>26300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>19100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>19600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>21000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>22700</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>16000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>17500</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>18400</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>20300</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-3700</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>14600</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>13800</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>16600</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>10400</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>11300</v>
       </c>
     </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2941,185 +3017,194 @@
       <c r="AD34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>25700</v>
+      </c>
+      <c r="E35" s="3">
         <v>29100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>22500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>24400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>25800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>29600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>20400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>24600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>25400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>30800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>21800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>18100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>16300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>26300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>19100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>19600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>21000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>22700</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>16000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>17500</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>18400</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>20300</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-3700</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>14600</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>13800</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>16600</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>10400</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>11300</v>
       </c>
     </row>
-    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44925</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44743</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44652</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44470</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44379</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44288</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44197</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44106</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44015</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43924</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43833</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43644</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43553</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43462</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43371</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43280</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43189</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43098</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43007</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42916</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42825</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42734</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3150,8 +3235,9 @@
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
-    </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3182,94 +3268,98 @@
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
-    </row>
-    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>148200</v>
+      </c>
+      <c r="E41" s="3">
         <v>125600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>161500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>148400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>165600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>215100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>297700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>229800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>240000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>184500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>197500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>187600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>155900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>105600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>176400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>132800</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>104500</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>79100</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>127100</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>121000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>117800</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>103200</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>124800</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>89800</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>90200</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>87100</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>115000</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>98400</v>
       </c>
     </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3291,157 +3381,163 @@
       <c r="I42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J42" s="3">
+      <c r="J42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K42" s="3">
         <v>25000</v>
       </c>
-      <c r="K42" s="3">
-        <v>0</v>
-      </c>
       <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3">
         <v>30000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>45000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>20100</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>34200</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>46400</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>55200</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>77100</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>90000</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>92700</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>81500</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>81400</v>
-      </c>
-      <c r="W42" s="3">
-        <v>75500</v>
       </c>
       <c r="X42" s="3">
         <v>75500</v>
       </c>
       <c r="Y42" s="3">
+        <v>75500</v>
+      </c>
+      <c r="Z42" s="3">
         <v>71600</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>75800</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>71800</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AC42" s="3">
         <v>67800</v>
       </c>
-      <c r="AC42" s="3">
+      <c r="AD42" s="3">
         <v>58800</v>
       </c>
-      <c r="AD42" s="3">
+      <c r="AE42" s="3">
         <v>52000</v>
       </c>
     </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>175800</v>
+      </c>
+      <c r="E43" s="3">
         <v>173100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>170100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>166000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>161800</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>147500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>139900</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>144000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>142700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>124200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>111600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>110000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>109300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>127200</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>120100</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>128300</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>129700</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>118900</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>105800</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>122900</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>116500</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>117200</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>110100</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>124800</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>107400</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>96300</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>87400</v>
       </c>
-      <c r="AD43" s="3">
+      <c r="AE43" s="3">
         <v>94300</v>
       </c>
     </row>
-    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3526,180 +3622,189 @@
       <c r="AD44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>20600</v>
+      </c>
+      <c r="E45" s="3">
         <v>19600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>17600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>18100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>15100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>14100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>15200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>18700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>15100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>14800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>12700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>11000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>14800</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>14100</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>12300</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>13200</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>10500</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>14000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>12200</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>11200</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>9200</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>9600</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>9000</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>10700</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>9300</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>12400</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>12900</v>
       </c>
-      <c r="AD45" s="3">
+      <c r="AE45" s="3">
         <v>12600</v>
       </c>
     </row>
-    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>344600</v>
+      </c>
+      <c r="E46" s="3">
         <v>318300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>349200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>332500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>342500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>376700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>452800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>417600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>397800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>353600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>366800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>328600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>314300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>293400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>364000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>351500</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>334700</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>304600</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>326600</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>336500</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>319000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>305500</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>315500</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>301100</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>278700</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>263600</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>274000</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AE46" s="3">
         <v>257300</v>
       </c>
     </row>
-    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3784,94 +3889,100 @@
       <c r="AD47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>102400</v>
+      </c>
+      <c r="E48" s="3">
         <v>86000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>83500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>82400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>80100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>78000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>74300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>75900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>77400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>78900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>79100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>80500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>80400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>82300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>84600</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>83000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>78800</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>74700</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>46100</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>44000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>41400</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>40400</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>35000</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>35200</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>35900</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>36600</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>36700</v>
       </c>
-      <c r="AD48" s="3">
+      <c r="AE48" s="3">
         <v>37500</v>
       </c>
     </row>
-    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3956,8 +4067,11 @@
       <c r="AD49" s="3">
         <v>8600</v>
       </c>
-    </row>
-    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE49" s="3">
+        <v>8600</v>
+      </c>
+    </row>
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4042,8 +4156,11 @@
       <c r="AD50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4128,94 +4245,100 @@
       <c r="AD51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>148600</v>
+      </c>
+      <c r="E52" s="3">
         <v>153500</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>145400</v>
-      </c>
-      <c r="F52" s="3">
-        <v>135500</v>
       </c>
       <c r="G52" s="3">
         <v>135500</v>
       </c>
       <c r="H52" s="3">
+        <v>135500</v>
+      </c>
+      <c r="I52" s="3">
         <v>154300</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>148000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>136300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>135100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>135900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>125500</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>116900</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>109900</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>99300</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>106200</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>101300</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>98500</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>101300</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>87600</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>91800</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>86700</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>86000</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>80500</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>90800</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>86500</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>89400</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>84400</v>
       </c>
-      <c r="AD52" s="3">
+      <c r="AE52" s="3">
         <v>82000</v>
       </c>
     </row>
-    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4300,94 +4423,100 @@
       <c r="AD53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>604300</v>
+      </c>
+      <c r="E54" s="3">
         <v>566400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>586700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>559000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>566700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>617500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>683700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>638300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>618900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>577000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>580100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>534700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>513200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>483700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>563400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>544500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>520600</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>489200</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>468900</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>480900</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>455700</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>440500</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>439600</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>435600</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>409700</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>398200</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>403700</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>385400</v>
       </c>
     </row>
-    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4418,8 +4547,9 @@
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
-    </row>
-    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4450,94 +4580,98 @@
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
-    </row>
-    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>19800</v>
+      </c>
+      <c r="E57" s="3">
         <v>26300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>29100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>31800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>26700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>30800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>24500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>21400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>27000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>18400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>16300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>18600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>16200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>14000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>18600</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>16500</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>19700</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>12400</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>12300</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>13200</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>12400</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>16500</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>14700</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>13800</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>10600</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>10200</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>10100</v>
       </c>
-      <c r="AD57" s="3">
+      <c r="AE57" s="3">
         <v>9700</v>
       </c>
     </row>
-    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4622,180 +4756,189 @@
       <c r="AD58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>104700</v>
+      </c>
+      <c r="E59" s="3">
         <v>82900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>129900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>106100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>100900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>78300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>128500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>105000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>96000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>69500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>101000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>77800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>73600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>63100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>105400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>84500</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>73200</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>59800</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>86000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>74900</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>64900</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>53200</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>78400</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>67500</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>57500</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>47200</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>70200</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>59500</v>
       </c>
     </row>
-    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>124500</v>
+      </c>
+      <c r="E60" s="3">
         <v>109200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>159000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>137900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>127500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>109100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>153000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>126400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>123000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>87900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>117300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>96400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>89800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>77100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>124000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>101000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>92900</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>72200</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>98300</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>88100</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>77300</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>69600</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>93100</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>81300</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>68100</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>57400</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>80200</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>69200</v>
       </c>
     </row>
-    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4880,94 +5023,100 @@
       <c r="AD61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>122700</v>
+      </c>
+      <c r="E62" s="3">
         <v>115400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>106900</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>101300</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>101700</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>121900</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>113700</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>106900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>108100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>111500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>101300</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>95100</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>90800</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>83100</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>89200</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>86200</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>83900</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>87900</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>56700</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>62100</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>59700</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>64200</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>57400</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>54300</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>52200</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>56000</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>50200</v>
       </c>
-      <c r="AD62" s="3">
+      <c r="AE62" s="3">
         <v>49400</v>
       </c>
     </row>
-    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5052,8 +5201,11 @@
       <c r="AD63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5138,8 +5290,11 @@
       <c r="AD64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5224,94 +5379,100 @@
       <c r="AD65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>247200</v>
+      </c>
+      <c r="E66" s="3">
         <v>224600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>265900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>239200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>229200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>231000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>266700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>233300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>231100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>199400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>218600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>191500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>180600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>160200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>213200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>187200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>176800</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>160000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>155000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>150300</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>136900</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>133800</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>150500</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>135600</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>120300</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>113500</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>130400</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>118600</v>
       </c>
     </row>
-    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5342,8 +5503,9 @@
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
-    </row>
-    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5428,8 +5590,11 @@
       <c r="AD68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5514,8 +5679,11 @@
       <c r="AD69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5600,8 +5768,11 @@
       <c r="AD70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5686,94 +5857,100 @@
       <c r="AD71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>555400</v>
+      </c>
+      <c r="E72" s="3">
         <v>543000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>528800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>518600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>506600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>493400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>478400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>468600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>454600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>439700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>421800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>410000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>402000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>395600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>384700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>374000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>363000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>350500</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>342000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>332900</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>322400</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>311000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>304000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>313300</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>304200</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>296000</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>291200</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>285600</v>
       </c>
     </row>
-    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5858,8 +6035,11 @@
       <c r="AD73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5944,8 +6124,11 @@
       <c r="AD74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6030,94 +6213,100 @@
       <c r="AD75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>357100</v>
+      </c>
+      <c r="E76" s="3">
         <v>341900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>320800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>319800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>337500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>386600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>417100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>405000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>387800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>377600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>361500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>343200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>332600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>323500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>350300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>357300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>343900</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>329200</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>313900</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>330600</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>318800</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>306600</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>289100</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>300100</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>289400</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>284700</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>273300</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>266800</v>
       </c>
     </row>
-    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6202,185 +6391,194 @@
       <c r="AD77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44925</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44743</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44652</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44470</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44379</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44288</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44197</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44106</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44015</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43924</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43833</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43644</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43553</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43462</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43371</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43280</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43189</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43098</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43007</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42916</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42825</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42734</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>25700</v>
+      </c>
+      <c r="E81" s="3">
         <v>29100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>22500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>24400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>25800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>29600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>20400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>24600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>25400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>30800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>21800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>18100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>16300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>26300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>19100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>19600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>21000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>22700</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>16000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>17500</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>18400</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>20300</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-3700</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>14600</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>13800</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>16600</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>10400</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>11300</v>
       </c>
     </row>
-    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6411,37 +6609,38 @@
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
-    </row>
-    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E83" s="3">
         <v>2000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>1900</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>1700</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>1800</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>1700</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>1500</v>
-      </c>
-      <c r="J83" s="3">
-        <v>1600</v>
       </c>
       <c r="K83" s="3">
         <v>1600</v>
       </c>
       <c r="L83" s="3">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="M83" s="3">
         <v>1700</v>
@@ -6453,16 +6652,16 @@
         <v>1700</v>
       </c>
       <c r="P83" s="3">
+        <v>1700</v>
+      </c>
+      <c r="Q83" s="3">
         <v>1800</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>1900</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>1700</v>
-      </c>
-      <c r="S83" s="3">
-        <v>1600</v>
       </c>
       <c r="T83" s="3">
         <v>1600</v>
@@ -6480,10 +6679,10 @@
         <v>1600</v>
       </c>
       <c r="Y83" s="3">
+        <v>1600</v>
+      </c>
+      <c r="Z83" s="3">
         <v>1500</v>
-      </c>
-      <c r="Z83" s="3">
-        <v>1600</v>
       </c>
       <c r="AA83" s="3">
         <v>1600</v>
@@ -6494,11 +6693,14 @@
       <c r="AC83" s="3">
         <v>1600</v>
       </c>
-      <c r="AD83" s="3" t="s">
+      <c r="AD83" s="3">
+        <v>1600</v>
+      </c>
+      <c r="AE83" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6583,8 +6785,11 @@
       <c r="AD84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6669,8 +6874,11 @@
       <c r="AD85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6755,8 +6963,11 @@
       <c r="AD86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6841,8 +7052,11 @@
       <c r="AD87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6927,94 +7141,100 @@
       <c r="AD88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>40500</v>
+      </c>
+      <c r="E89" s="3">
         <v>-6700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>40600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>29400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>30200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-6400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>54200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>24900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>44200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>40900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>28200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>48000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-13800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>55800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>27500</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>37100</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-12300</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>44400</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>18900</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>24200</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>3700</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>40900</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>9800</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>19000</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>-1800</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>29700</v>
       </c>
-      <c r="AD89" s="3" t="s">
+      <c r="AE89" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7045,94 +7265,98 @@
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
-    </row>
-    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="E91" s="3">
         <v>-5700</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-2900</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-3200</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-3300</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-2600</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-1400</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-1200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-2500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-800</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-1700</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-1200</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-6000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-4500</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-6800</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-5700</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-4100</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-3200</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-2100</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-6800</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-1400</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-800</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-1200</v>
-      </c>
-      <c r="AB91" s="3">
-        <v>-1300</v>
       </c>
       <c r="AC91" s="3">
         <v>-1300</v>
       </c>
-      <c r="AD91" s="3" t="s">
+      <c r="AD91" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="AE91" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7217,8 +7441,11 @@
       <c r="AD92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7303,94 +7530,100 @@
       <c r="AD93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="E94" s="3">
         <v>-5700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-2900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-3200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-3300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-2600</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>23600</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-26200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>28300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>12500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-25800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>12300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>10800</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>7700</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>16000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>8500</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-3700</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-16500</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-3900</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-9100</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-2100</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-10700</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>2600</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-4800</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-5200</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-10300</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-8300</v>
       </c>
-      <c r="AD94" s="3" t="s">
+      <c r="AE94" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7421,28 +7654,29 @@
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
-    </row>
-    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-13200</v>
+      </c>
+      <c r="E96" s="3">
         <v>-14500</v>
-      </c>
-      <c r="E96" s="3">
-        <v>-12200</v>
       </c>
       <c r="F96" s="3">
         <v>-12200</v>
       </c>
       <c r="G96" s="3">
+        <v>-12200</v>
+      </c>
+      <c r="H96" s="3">
         <v>-12300</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-12500</v>
-      </c>
-      <c r="I96" s="3">
-        <v>-10400</v>
       </c>
       <c r="J96" s="3">
         <v>-10400</v>
@@ -7451,10 +7685,10 @@
         <v>-10400</v>
       </c>
       <c r="L96" s="3">
+        <v>-10400</v>
+      </c>
+      <c r="M96" s="3">
         <v>-11900</v>
-      </c>
-      <c r="M96" s="3">
-        <v>-9800</v>
       </c>
       <c r="N96" s="3">
         <v>-9800</v>
@@ -7463,10 +7697,10 @@
         <v>-9800</v>
       </c>
       <c r="P96" s="3">
+        <v>-9800</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-10300</v>
-      </c>
-      <c r="Q96" s="3">
-        <v>-8300</v>
       </c>
       <c r="R96" s="3">
         <v>-8300</v>
@@ -7475,40 +7709,43 @@
         <v>-8300</v>
       </c>
       <c r="T96" s="3">
+        <v>-8300</v>
+      </c>
+      <c r="U96" s="3">
         <v>-8600</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-6700</v>
-      </c>
-      <c r="V96" s="3">
-        <v>-6800</v>
       </c>
       <c r="W96" s="3">
         <v>-6800</v>
       </c>
       <c r="X96" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="Y96" s="3">
         <v>-7000</v>
-      </c>
-      <c r="Y96" s="3">
-        <v>-5400</v>
       </c>
       <c r="Z96" s="3">
         <v>-5400</v>
       </c>
       <c r="AA96" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="AB96" s="3">
         <v>-5600</v>
       </c>
-      <c r="AB96" s="3">
+      <c r="AC96" s="3">
         <v>-5400</v>
       </c>
-      <c r="AC96" s="3">
+      <c r="AD96" s="3">
         <v>-4600</v>
       </c>
-      <c r="AD96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7593,8 +7830,11 @@
       <c r="AD97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7679,8 +7919,11 @@
       <c r="AD98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7765,262 +8008,274 @@
       <c r="AD99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-12700</v>
+      </c>
+      <c r="E100" s="3">
         <v>-23700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-25400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-42000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-75100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-73400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-10000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-8800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-17000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-27000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-6100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-9300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-8600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-64300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-29000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-7200</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-7800</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-19400</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-34200</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-6600</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-6400</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-15300</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-8600</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-5800</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-11000</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-15900</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>-4300</v>
       </c>
-      <c r="AD100" s="3" t="s">
+      <c r="AE100" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>100</v>
+      </c>
+      <c r="E101" s="3">
         <v>300</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>800</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-1400</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-1200</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-300</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>100</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-100</v>
       </c>
-      <c r="K101" s="3">
-        <v>0</v>
-      </c>
       <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
         <v>200</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>1000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>500</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>100</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-400</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>800</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-400</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-200</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>200</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-200</v>
       </c>
-      <c r="V101" s="3">
-        <v>0</v>
-      </c>
       <c r="W101" s="3">
+        <v>0</v>
+      </c>
+      <c r="X101" s="3">
         <v>-1100</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>700</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>100</v>
-      </c>
-      <c r="Z101" s="3">
-        <v>400</v>
       </c>
       <c r="AA101" s="3">
         <v>400</v>
       </c>
       <c r="AB101" s="3">
+        <v>400</v>
+      </c>
+      <c r="AC101" s="3">
         <v>100</v>
       </c>
-      <c r="AC101" s="3">
+      <c r="AD101" s="3">
         <v>-500</v>
       </c>
-      <c r="AD101" s="3" t="s">
+      <c r="AE101" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>22500</v>
+      </c>
+      <c r="E102" s="3">
         <v>-35800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>13000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-17200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-49400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-82600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>67900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-10200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>55400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-13000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>9900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>31700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>50300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-70800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>43600</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>28400</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>25400</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-48000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>6100</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>3200</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>14600</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-21600</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>35000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-400</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>3100</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-27900</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>16500</v>
       </c>
-      <c r="AD102" s="3" t="s">
+      <c r="AE102" s="3" t="s">
         <v>8</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/EXPO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/EXPO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="92">
   <si>
     <t>EXPO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AE102"/>
+  <dimension ref="A5:AF102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,398 +665,411 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="32" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45198</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44925</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44743</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44652</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44470</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44379</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44288</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44197</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44106</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44015</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43924</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43833</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43644</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43553</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43462</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43371</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43280</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43189</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43098</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>43007</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42916</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42825</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42734</v>
       </c>
-      <c r="AE7" s="2">
+      <c r="AF7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>133300</v>
+      </c>
+      <c r="E8" s="3">
         <v>140200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>140300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>127400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>127200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>130300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>128500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>113500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>116400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>119900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>116500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>103200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>98700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>92000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>106000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>110100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>101500</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>106500</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>99000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>92100</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>95300</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>95600</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>96500</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>88300</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>87600</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>87800</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>84100</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>77000</v>
       </c>
-      <c r="AE8" s="3">
+      <c r="AF8" s="3">
         <v>77600</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>8400</v>
+      </c>
+      <c r="E9" s="3">
         <v>10600</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>11600</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>14800</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>12000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>12100</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>10600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>9200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>7900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>7400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>6900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>5900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>5200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>4200</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>6200</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>7900</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>6000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>6200</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>5600</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>6900</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>6600</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>5600</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>5800</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>5600</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>5200</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>3700</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>58100</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AE9" s="3">
         <v>50800</v>
       </c>
-      <c r="AE9" s="3">
+      <c r="AF9" s="3">
         <v>51200</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>124900</v>
+      </c>
+      <c r="E10" s="3">
         <v>129600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>128700</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>112600</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>115200</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>118200</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>117900</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>104300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>108500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>112500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>109600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>97300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>93500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>87800</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>99800</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>102200</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>95500</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>100300</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>93400</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>85200</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>88700</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>90000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>90700</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>82700</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>82400</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>84100</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>26000</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AE10" s="3">
         <v>26200</v>
       </c>
-      <c r="AE10" s="3">
+      <c r="AF10" s="3">
         <v>26400</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1088,8 +1101,9 @@
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
       <c r="AE11" s="3"/>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF11" s="3"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1177,8 +1191,11 @@
       <c r="AE12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1266,8 +1283,11 @@
       <c r="AE13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1355,8 +1375,11 @@
       <c r="AE14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1444,8 +1467,11 @@
       <c r="AE15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1474,186 +1500,193 @@
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
       <c r="AE16" s="3"/>
-    </row>
-    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF16" s="3"/>
+    </row>
+    <row r="17" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>99400</v>
+      </c>
+      <c r="E17" s="3">
         <v>110300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>111200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>105300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>90400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>85000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>91800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>90100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>84300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>90500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>92400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>85500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>78300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>82900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>70000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>88800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>78400</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>81700</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>83300</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>65400</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>74700</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>73100</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>74900</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>70500</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>68300</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>67500</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>69500</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>62100</v>
       </c>
-      <c r="AE17" s="3">
+      <c r="AF17" s="3">
         <v>62000</v>
       </c>
     </row>
-    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>33900</v>
+      </c>
+      <c r="E18" s="3">
         <v>29900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>29100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>22100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>36800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>45300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>36700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>23400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>32100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>29400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>24100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>17700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>20400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>9100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>36000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>21300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>23100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>24800</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>15700</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>26700</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>20600</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>22500</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>21600</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>17800</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>19400</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>20300</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>14600</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>14900</v>
       </c>
-      <c r="AE18" s="3">
+      <c r="AF18" s="3">
         <v>15600</v>
       </c>
     </row>
-    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1685,186 +1718,193 @@
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
       <c r="AE19" s="3"/>
-    </row>
-    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF19" s="3"/>
+    </row>
+    <row r="20" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>6400</v>
+        <v>100</v>
       </c>
       <c r="E20" s="3">
         <v>6400</v>
       </c>
       <c r="F20" s="3">
+        <v>6400</v>
+      </c>
+      <c r="G20" s="3">
         <v>8400</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-3400</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-9900</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-3900</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>5300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>5300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>6000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>9100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>4200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>12300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-12000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>5500</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>2100</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>4000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>7600</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-4800</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>3400</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>2500</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>800</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>2900</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>2700</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>2100</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>2800</v>
       </c>
-      <c r="AD20" s="3">
+      <c r="AE20" s="3">
         <v>1900</v>
       </c>
-      <c r="AE20" s="3">
+      <c r="AF20" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>36400</v>
+      </c>
+      <c r="E21" s="3">
         <v>38400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>37500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>32400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>35200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>37200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>34500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>30200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>34000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>36300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>31800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>28500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>26300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>23100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>25800</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>28700</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>26900</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>30500</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>24900</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>23500</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>25600</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>26500</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>24000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>22200</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>23600</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>24000</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>19000</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>18400</v>
       </c>
-      <c r="AE21" s="3" t="s">
+      <c r="AF21" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1952,186 +1992,195 @@
       <c r="AE22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>34000</v>
+      </c>
+      <c r="E23" s="3">
         <v>36300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>35500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>30500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>33500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>35400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>32800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>28700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>32400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>34700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>30100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>26800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>24600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>21400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>24100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>26800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>25200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>28900</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>23300</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>22000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>24000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>24900</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>22500</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>20700</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>22000</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>22300</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>17400</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>16800</v>
       </c>
-      <c r="AE23" s="3">
+      <c r="AF23" s="3">
         <v>17900</v>
       </c>
     </row>
-    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>9500</v>
+      </c>
+      <c r="E24" s="3">
         <v>10500</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>6400</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>8000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>9000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>9700</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>3200</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>8300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>7800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>9300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>5000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>6600</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>5100</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-2200</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>7700</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>5600</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>7900</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>600</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>5900</v>
-      </c>
-      <c r="W24" s="3">
-        <v>6500</v>
       </c>
       <c r="X24" s="3">
         <v>6500</v>
       </c>
       <c r="Y24" s="3">
+        <v>6500</v>
+      </c>
+      <c r="Z24" s="3">
         <v>2100</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>7900</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>7400</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>8600</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>800</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AE24" s="3">
         <v>6400</v>
       </c>
-      <c r="AE24" s="3">
+      <c r="AF24" s="3">
         <v>6600</v>
       </c>
     </row>
-    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2219,186 +2268,195 @@
       <c r="AE25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>24500</v>
+      </c>
+      <c r="E26" s="3">
         <v>25700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>29100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>22500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>24400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>25800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>29600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>20400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>24600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>25400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>30800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>21800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>18100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>16300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>26300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>19100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>19600</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>21000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>22700</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>16000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>17500</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>18400</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>20300</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>12800</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>14600</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>13800</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>16600</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>10400</v>
       </c>
-      <c r="AE26" s="3">
+      <c r="AF26" s="3">
         <v>11300</v>
       </c>
     </row>
-    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>24500</v>
+      </c>
+      <c r="E27" s="3">
         <v>25700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>29100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>22500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>24400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>25800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>29600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>20400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>24600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>25400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>30800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>21800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>18100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>16300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>26300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>19100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>19600</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>21000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>22700</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>16000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>17500</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>18400</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>20300</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>12800</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>14600</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>13800</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>16600</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>10400</v>
       </c>
-      <c r="AE27" s="3">
+      <c r="AF27" s="3">
         <v>11300</v>
       </c>
     </row>
-    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2486,8 +2544,11 @@
       <c r="AE28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2539,17 +2600,17 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-      <c r="T29" s="3" t="s">
-        <v>8</v>
+      <c r="T29" s="3">
+        <v>0</v>
       </c>
       <c r="U29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V29" s="3">
-        <v>0</v>
-      </c>
-      <c r="W29" s="3" t="s">
+      <c r="V29" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="W29" s="3">
+        <v>0</v>
       </c>
       <c r="X29" s="3" t="s">
         <v>8</v>
@@ -2557,11 +2618,11 @@
       <c r="Y29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Z29" s="3">
+      <c r="Z29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA29" s="3">
         <v>-16500</v>
-      </c>
-      <c r="AA29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="AB29" s="3" t="s">
         <v>8</v>
@@ -2575,8 +2636,11 @@
       <c r="AE29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2664,8 +2728,11 @@
       <c r="AE30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2753,186 +2820,195 @@
       <c r="AE31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-6400</v>
+        <v>-100</v>
       </c>
       <c r="E32" s="3">
         <v>-6400</v>
       </c>
       <c r="F32" s="3">
+        <v>-6400</v>
+      </c>
+      <c r="G32" s="3">
         <v>-8400</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>3400</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>9900</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>3900</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-5300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-5300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-6000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-9100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-4200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-12300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>12000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-5500</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-2100</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-4000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-7600</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>4800</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-3400</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-2500</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-800</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-2900</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-2700</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>-2100</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>-2800</v>
       </c>
-      <c r="AD32" s="3">
+      <c r="AE32" s="3">
         <v>-1900</v>
       </c>
-      <c r="AE32" s="3">
+      <c r="AF32" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>24500</v>
+      </c>
+      <c r="E33" s="3">
         <v>25700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>29100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>22500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>24400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>25800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>29600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>20400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>24600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>25400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>30800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>21800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>18100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>16300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>26300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>19100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>19600</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>21000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>22700</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>16000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>17500</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>18400</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>20300</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-3700</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>14600</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>13800</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>16600</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>10400</v>
       </c>
-      <c r="AE33" s="3">
+      <c r="AF33" s="3">
         <v>11300</v>
       </c>
     </row>
-    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -3020,191 +3096,200 @@
       <c r="AE34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>24500</v>
+      </c>
+      <c r="E35" s="3">
         <v>25700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>29100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>22500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>24400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>25800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>29600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>20400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>24600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>25400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>30800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>21800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>18100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>16300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>26300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>19100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>19600</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>21000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>22700</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>16000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>17500</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>18400</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>20300</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-3700</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>14600</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>13800</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>16600</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>10400</v>
       </c>
-      <c r="AE35" s="3">
+      <c r="AF35" s="3">
         <v>11300</v>
       </c>
     </row>
-    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45198</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44925</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44743</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44652</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44470</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44379</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44288</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44197</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44106</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44015</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43924</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43833</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43644</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43553</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43462</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43371</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43280</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43189</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43098</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>43007</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42916</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42825</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42734</v>
       </c>
-      <c r="AE38" s="2">
+      <c r="AF38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3236,8 +3321,9 @@
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
       <c r="AE39" s="3"/>
-    </row>
-    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF39" s="3"/>
+    </row>
+    <row r="40" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3269,275 +3355,285 @@
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
       <c r="AE40" s="3"/>
-    </row>
-    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF40" s="3"/>
+    </row>
+    <row r="41" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>137100</v>
+      </c>
+      <c r="E41" s="3">
         <v>148200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>125600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>161500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>148400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>165600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>215100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>297700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>229800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>240000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>184500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>197500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>187600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>155900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>105600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>176400</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>132800</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>104500</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>79100</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>127100</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>121000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>117800</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>103200</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>124800</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>89800</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>90200</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>87100</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>115000</v>
       </c>
-      <c r="AE41" s="3">
+      <c r="AF41" s="3">
         <v>98400</v>
       </c>
     </row>
-    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="3" t="s">
+      <c r="D42" s="3">
+        <v>0</v>
+      </c>
+      <c r="E42" s="3">
+        <v>0</v>
+      </c>
+      <c r="F42" s="3">
+        <v>0</v>
+      </c>
+      <c r="G42" s="3">
+        <v>0</v>
+      </c>
+      <c r="H42" s="3">
+        <v>0</v>
+      </c>
+      <c r="I42" s="3">
+        <v>0</v>
+      </c>
+      <c r="J42" s="3">
+        <v>0</v>
+      </c>
+      <c r="K42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>25000</v>
       </c>
-      <c r="L42" s="3">
-        <v>0</v>
-      </c>
       <c r="M42" s="3">
+        <v>0</v>
+      </c>
+      <c r="N42" s="3">
         <v>30000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>45000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>20100</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>34200</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>46400</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>55200</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>77100</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>90000</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>92700</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>81500</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>81400</v>
-      </c>
-      <c r="X42" s="3">
-        <v>75500</v>
       </c>
       <c r="Y42" s="3">
         <v>75500</v>
       </c>
       <c r="Z42" s="3">
+        <v>75500</v>
+      </c>
+      <c r="AA42" s="3">
         <v>71600</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>75800</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AC42" s="3">
         <v>71800</v>
       </c>
-      <c r="AC42" s="3">
+      <c r="AD42" s="3">
         <v>67800</v>
       </c>
-      <c r="AD42" s="3">
+      <c r="AE42" s="3">
         <v>58800</v>
       </c>
-      <c r="AE42" s="3">
+      <c r="AF42" s="3">
         <v>52000</v>
       </c>
     </row>
-    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>181800</v>
+      </c>
+      <c r="E43" s="3">
         <v>175800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>173100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>170100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>166000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>161800</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>147500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>139900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>144000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>142700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>124200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>111600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>110000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>109300</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>127200</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>120100</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>128300</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>129700</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>118900</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>105800</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>122900</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>116500</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>117200</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>110100</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>124800</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>107400</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>96300</v>
       </c>
-      <c r="AD43" s="3">
+      <c r="AE43" s="3">
         <v>87400</v>
       </c>
-      <c r="AE43" s="3">
+      <c r="AF43" s="3">
         <v>94300</v>
       </c>
     </row>
-    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3625,186 +3721,195 @@
       <c r="AE44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>24500</v>
+      </c>
+      <c r="E45" s="3">
         <v>20600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>19600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>17600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>18100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>15100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>14100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>15200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>18700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>15100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>14800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>12700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>11000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>14800</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>14100</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>12300</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>13200</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>10500</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>14000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>12200</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>11200</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>9200</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>9600</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>9000</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>10700</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>9300</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>12400</v>
       </c>
-      <c r="AD45" s="3">
+      <c r="AE45" s="3">
         <v>12900</v>
       </c>
-      <c r="AE45" s="3">
+      <c r="AF45" s="3">
         <v>12600</v>
       </c>
     </row>
-    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>343300</v>
+      </c>
+      <c r="E46" s="3">
         <v>344600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>318300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>349200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>332500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>342500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>376700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>452800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>417600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>397800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>353600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>366800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>328600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>314300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>293400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>364000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>351500</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>334700</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>304600</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>326600</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>336500</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>319000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>305500</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>315500</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>301100</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>278700</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>263600</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AE46" s="3">
         <v>274000</v>
       </c>
-      <c r="AE46" s="3">
+      <c r="AF46" s="3">
         <v>257300</v>
       </c>
     </row>
-    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3892,97 +3997,103 @@
       <c r="AE47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>100500</v>
+      </c>
+      <c r="E48" s="3">
         <v>102400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>86000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>83500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>82400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>80100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>78000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>74300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>75900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>77400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>78900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>79100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>80500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>80400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>82300</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>84600</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>83000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>78800</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>74700</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>46100</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>44000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>41400</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>40400</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>35000</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>35200</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>35900</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>36600</v>
       </c>
-      <c r="AD48" s="3">
+      <c r="AE48" s="3">
         <v>36700</v>
       </c>
-      <c r="AE48" s="3">
+      <c r="AF48" s="3">
         <v>37500</v>
       </c>
     </row>
-    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -4070,8 +4181,11 @@
       <c r="AE49" s="3">
         <v>8600</v>
       </c>
-    </row>
-    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF49" s="3">
+        <v>8600</v>
+      </c>
+    </row>
+    <row r="50" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4159,8 +4273,11 @@
       <c r="AE50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4248,97 +4365,103 @@
       <c r="AE51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>150000</v>
+      </c>
+      <c r="E52" s="3">
         <v>148600</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>153500</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>145400</v>
-      </c>
-      <c r="G52" s="3">
-        <v>135500</v>
       </c>
       <c r="H52" s="3">
         <v>135500</v>
       </c>
       <c r="I52" s="3">
+        <v>135500</v>
+      </c>
+      <c r="J52" s="3">
         <v>154300</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>148000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>136300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>135100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>135900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>125500</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>116900</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>109900</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>99300</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>106200</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>101300</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>98500</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>101300</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>87600</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>91800</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>86700</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>86000</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>80500</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>90800</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>86500</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>89400</v>
       </c>
-      <c r="AD52" s="3">
+      <c r="AE52" s="3">
         <v>84400</v>
       </c>
-      <c r="AE52" s="3">
+      <c r="AF52" s="3">
         <v>82000</v>
       </c>
     </row>
-    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4426,97 +4549,103 @@
       <c r="AE53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>602500</v>
+      </c>
+      <c r="E54" s="3">
         <v>604300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>566400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>586700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>559000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>566700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>617500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>683700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>638300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>618900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>577000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>580100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>534700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>513200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>483700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>563400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>544500</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>520600</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>489200</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>468900</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>480900</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>455700</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>440500</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>439600</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>435600</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>409700</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>398200</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>403700</v>
       </c>
-      <c r="AE54" s="3">
+      <c r="AF54" s="3">
         <v>385400</v>
       </c>
     </row>
-    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4548,8 +4677,9 @@
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
       <c r="AE55" s="3"/>
-    </row>
-    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF55" s="3"/>
+    </row>
+    <row r="56" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4581,97 +4711,101 @@
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
       <c r="AE56" s="3"/>
-    </row>
-    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF56" s="3"/>
+    </row>
+    <row r="57" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>19600</v>
+      </c>
+      <c r="E57" s="3">
         <v>19800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>26300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>29100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>31800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>26700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>30800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>24500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>21400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>27000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>18400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>16300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>18600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>16200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>14000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>18600</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>16500</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>19700</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>12400</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>12300</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>13200</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>12400</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>16500</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>14700</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>13800</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>10600</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>10200</v>
       </c>
-      <c r="AD57" s="3">
+      <c r="AE57" s="3">
         <v>10100</v>
       </c>
-      <c r="AE57" s="3">
+      <c r="AF57" s="3">
         <v>9700</v>
       </c>
     </row>
-    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4759,186 +4893,195 @@
       <c r="AE58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>110000</v>
+      </c>
+      <c r="E59" s="3">
         <v>104700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>82900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>129900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>106100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>100900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>78300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>128500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>105000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>96000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>69500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>101000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>77800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>73600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>63100</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>105400</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>84500</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>73200</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>59800</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>86000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>74900</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>64900</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>53200</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>78400</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>67500</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>57500</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>47200</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>70200</v>
       </c>
-      <c r="AE59" s="3">
+      <c r="AF59" s="3">
         <v>59500</v>
       </c>
     </row>
-    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>129700</v>
+      </c>
+      <c r="E60" s="3">
         <v>124500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>109200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>159000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>137900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>127500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>109100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>153000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>126400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>123000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>87900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>117300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>96400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>89800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>77100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>124000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>101000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>92900</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>72200</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>98300</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>88100</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>77300</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>69600</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>93100</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>81300</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>68100</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>57400</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>80200</v>
       </c>
-      <c r="AE60" s="3">
+      <c r="AF60" s="3">
         <v>69200</v>
       </c>
     </row>
-    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -5026,97 +5169,103 @@
       <c r="AE61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>119200</v>
+      </c>
+      <c r="E62" s="3">
         <v>122700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>115400</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>106900</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>101300</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>101700</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>121900</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>113700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>106900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>108100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>111500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>101300</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>95100</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>90800</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>83100</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>89200</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>86200</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>83900</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>87900</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>56700</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>62100</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>59700</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>64200</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>57400</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>54300</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>52200</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>56000</v>
       </c>
-      <c r="AD62" s="3">
+      <c r="AE62" s="3">
         <v>50200</v>
       </c>
-      <c r="AE62" s="3">
+      <c r="AF62" s="3">
         <v>49400</v>
       </c>
     </row>
-    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5204,8 +5353,11 @@
       <c r="AE63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5293,8 +5445,11 @@
       <c r="AE64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5382,97 +5537,103 @@
       <c r="AE65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>248800</v>
+      </c>
+      <c r="E66" s="3">
         <v>247200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>224600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>265900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>239200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>229200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>231000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>266700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>233300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>231100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>199400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>218600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>191500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>180600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>160200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>213200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>187200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>176800</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>160000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>155000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>150300</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>136900</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>133800</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>150500</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>135600</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>120300</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>113500</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>130400</v>
       </c>
-      <c r="AE66" s="3">
+      <c r="AF66" s="3">
         <v>118600</v>
       </c>
     </row>
-    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5504,8 +5665,9 @@
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
       <c r="AE67" s="3"/>
-    </row>
-    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF67" s="3"/>
+    </row>
+    <row r="68" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5593,8 +5755,11 @@
       <c r="AE68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5682,8 +5847,11 @@
       <c r="AE69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5771,8 +5939,11 @@
       <c r="AE70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5860,97 +6031,103 @@
       <c r="AE71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>566500</v>
+      </c>
+      <c r="E72" s="3">
         <v>555400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>543000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>528800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>518600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>506600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>493400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>478400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>468600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>454600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>439700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>421800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>410000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>402000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>395600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>384700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>374000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>363000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>350500</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>342000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>332900</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>322400</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>311000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>304000</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>313300</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>304200</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>296000</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>291200</v>
       </c>
-      <c r="AE72" s="3">
+      <c r="AF72" s="3">
         <v>285600</v>
       </c>
     </row>
-    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -6038,8 +6215,11 @@
       <c r="AE73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -6127,8 +6307,11 @@
       <c r="AE74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6216,97 +6399,103 @@
       <c r="AE75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>353600</v>
+      </c>
+      <c r="E76" s="3">
         <v>357100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>341900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>320800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>319800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>337500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>386600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>417100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>405000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>387800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>377600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>361500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>343200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>332600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>323500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>350300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>357300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>343900</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>329200</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>313900</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>330600</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>318800</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>306600</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>289100</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>300100</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>289400</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>284700</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>273300</v>
       </c>
-      <c r="AE76" s="3">
+      <c r="AF76" s="3">
         <v>266800</v>
       </c>
     </row>
-    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6394,191 +6583,200 @@
       <c r="AE77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45198</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44925</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44743</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44652</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44470</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44379</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44288</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44197</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44106</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44015</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43924</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43833</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43644</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43553</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43462</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43371</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43280</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43189</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43098</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>43007</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42916</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42825</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42734</v>
       </c>
-      <c r="AE80" s="2">
+      <c r="AF80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>24500</v>
+      </c>
+      <c r="E81" s="3">
         <v>25700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>29100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>22500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>24400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>25800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>29600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>20400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>24600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>25400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>30800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>21800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>18100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>16300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>26300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>19100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>19600</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>21000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>22700</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>16000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>17500</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>18400</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>20300</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-3700</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>14600</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>13800</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>16600</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>10400</v>
       </c>
-      <c r="AE81" s="3">
+      <c r="AF81" s="3">
         <v>11300</v>
       </c>
     </row>
-    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6610,40 +6808,41 @@
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
       <c r="AE82" s="3"/>
-    </row>
-    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF82" s="3"/>
+    </row>
+    <row r="83" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E83" s="3">
         <v>2200</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>2000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>1900</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>1700</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>1800</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>1700</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>1500</v>
-      </c>
-      <c r="K83" s="3">
-        <v>1600</v>
       </c>
       <c r="L83" s="3">
         <v>1600</v>
       </c>
       <c r="M83" s="3">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="N83" s="3">
         <v>1700</v>
@@ -6655,16 +6854,16 @@
         <v>1700</v>
       </c>
       <c r="Q83" s="3">
+        <v>1700</v>
+      </c>
+      <c r="R83" s="3">
         <v>1800</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>1900</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>1700</v>
-      </c>
-      <c r="T83" s="3">
-        <v>1600</v>
       </c>
       <c r="U83" s="3">
         <v>1600</v>
@@ -6682,10 +6881,10 @@
         <v>1600</v>
       </c>
       <c r="Z83" s="3">
+        <v>1600</v>
+      </c>
+      <c r="AA83" s="3">
         <v>1500</v>
-      </c>
-      <c r="AA83" s="3">
-        <v>1600</v>
       </c>
       <c r="AB83" s="3">
         <v>1600</v>
@@ -6696,11 +6895,14 @@
       <c r="AD83" s="3">
         <v>1600</v>
       </c>
-      <c r="AE83" s="3" t="s">
+      <c r="AE83" s="3">
+        <v>1600</v>
+      </c>
+      <c r="AF83" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6788,8 +6990,11 @@
       <c r="AE84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6877,8 +7082,11 @@
       <c r="AE85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6966,8 +7174,11 @@
       <c r="AE86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -7055,8 +7266,11 @@
       <c r="AE87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -7144,97 +7358,103 @@
       <c r="AE88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>22200</v>
+      </c>
+      <c r="E89" s="3">
         <v>40500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-6700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>40600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>29400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>30200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-6400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>54200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>24900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>44200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>40900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>28200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>48000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-13800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>55800</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>27500</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>37100</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-12300</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>44400</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>18900</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>24200</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>3700</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>40900</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>9800</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>19000</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>-1800</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>29700</v>
       </c>
-      <c r="AE89" s="3" t="s">
+      <c r="AF89" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7266,97 +7486,101 @@
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
       <c r="AE90" s="3"/>
-    </row>
-    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF90" s="3"/>
+    </row>
+    <row r="91" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="E91" s="3">
         <v>-5400</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-5700</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-2900</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-3200</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-3300</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-2600</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-1400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-1700</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-2500</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-800</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-1700</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-1300</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-6000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-4500</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-6800</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-5700</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-4100</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-3200</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-2100</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-6800</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-1400</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-800</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-1200</v>
-      </c>
-      <c r="AC91" s="3">
-        <v>-1300</v>
       </c>
       <c r="AD91" s="3">
         <v>-1300</v>
       </c>
-      <c r="AE91" s="3" t="s">
+      <c r="AE91" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="AF91" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7444,8 +7668,11 @@
       <c r="AE92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7533,97 +7760,103 @@
       <c r="AE93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="E94" s="3">
         <v>-5400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-5700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-2900</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-3200</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-3300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-2600</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>23600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-26200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>28300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>12500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-25800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>12300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>10800</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>7700</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>16000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>8500</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-3700</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-16500</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-3900</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-9100</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-2100</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-10700</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>2600</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-4800</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-5200</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-10300</v>
       </c>
-      <c r="AD94" s="3">
+      <c r="AE94" s="3">
         <v>-8300</v>
       </c>
-      <c r="AE94" s="3" t="s">
+      <c r="AF94" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7655,8 +7888,9 @@
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
       <c r="AE95" s="3"/>
-    </row>
-    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF95" s="3"/>
+    </row>
+    <row r="96" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7664,22 +7898,22 @@
         <v>-13200</v>
       </c>
       <c r="E96" s="3">
+        <v>-13200</v>
+      </c>
+      <c r="F96" s="3">
         <v>-14500</v>
-      </c>
-      <c r="F96" s="3">
-        <v>-12200</v>
       </c>
       <c r="G96" s="3">
         <v>-12200</v>
       </c>
       <c r="H96" s="3">
+        <v>-12200</v>
+      </c>
+      <c r="I96" s="3">
         <v>-12300</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-12500</v>
-      </c>
-      <c r="J96" s="3">
-        <v>-10400</v>
       </c>
       <c r="K96" s="3">
         <v>-10400</v>
@@ -7688,10 +7922,10 @@
         <v>-10400</v>
       </c>
       <c r="M96" s="3">
+        <v>-10400</v>
+      </c>
+      <c r="N96" s="3">
         <v>-11900</v>
-      </c>
-      <c r="N96" s="3">
-        <v>-9800</v>
       </c>
       <c r="O96" s="3">
         <v>-9800</v>
@@ -7700,10 +7934,10 @@
         <v>-9800</v>
       </c>
       <c r="Q96" s="3">
+        <v>-9800</v>
+      </c>
+      <c r="R96" s="3">
         <v>-10300</v>
-      </c>
-      <c r="R96" s="3">
-        <v>-8300</v>
       </c>
       <c r="S96" s="3">
         <v>-8300</v>
@@ -7712,40 +7946,43 @@
         <v>-8300</v>
       </c>
       <c r="U96" s="3">
+        <v>-8300</v>
+      </c>
+      <c r="V96" s="3">
         <v>-8600</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-6700</v>
-      </c>
-      <c r="W96" s="3">
-        <v>-6800</v>
       </c>
       <c r="X96" s="3">
         <v>-6800</v>
       </c>
       <c r="Y96" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="Z96" s="3">
         <v>-7000</v>
-      </c>
-      <c r="Z96" s="3">
-        <v>-5400</v>
       </c>
       <c r="AA96" s="3">
         <v>-5400</v>
       </c>
       <c r="AB96" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="AC96" s="3">
         <v>-5600</v>
       </c>
-      <c r="AC96" s="3">
+      <c r="AD96" s="3">
         <v>-5400</v>
       </c>
-      <c r="AD96" s="3">
+      <c r="AE96" s="3">
         <v>-4600</v>
       </c>
-      <c r="AE96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7833,8 +8070,11 @@
       <c r="AE97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7922,8 +8162,11 @@
       <c r="AE98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -8011,271 +8254,283 @@
       <c r="AE99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-29600</v>
+      </c>
+      <c r="E100" s="3">
         <v>-12700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-23700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-25400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-42000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-75100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-73400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-10000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-8800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-17000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-27000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-6100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-9300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-8600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-64300</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-29000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-7200</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-7800</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-19400</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-34200</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-6600</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-6400</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-15300</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-8600</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-5800</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-11000</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>-15900</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
         <v>-4300</v>
       </c>
-      <c r="AE100" s="3" t="s">
+      <c r="AF100" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E101" s="3">
         <v>100</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>300</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>800</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-1400</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-1200</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-300</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-100</v>
       </c>
-      <c r="L101" s="3">
-        <v>0</v>
-      </c>
       <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3">
         <v>200</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>1000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>500</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>100</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-400</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>800</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-400</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-200</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>200</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-200</v>
       </c>
-      <c r="W101" s="3">
-        <v>0</v>
-      </c>
       <c r="X101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y101" s="3">
         <v>-1100</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>700</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>100</v>
-      </c>
-      <c r="AA101" s="3">
-        <v>400</v>
       </c>
       <c r="AB101" s="3">
         <v>400</v>
       </c>
       <c r="AC101" s="3">
+        <v>400</v>
+      </c>
+      <c r="AD101" s="3">
         <v>100</v>
       </c>
-      <c r="AD101" s="3">
+      <c r="AE101" s="3">
         <v>-500</v>
       </c>
-      <c r="AE101" s="3" t="s">
+      <c r="AF101" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-11100</v>
+      </c>
+      <c r="E102" s="3">
         <v>22500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-35800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>13000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-17200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-49400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-82600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>67900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-10200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>55400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-13000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>9900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>31700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>50300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-70800</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>43600</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>28400</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>25400</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-48000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>6100</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>3200</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>14600</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-21600</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>35000</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-400</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>3100</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>-27900</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>16500</v>
       </c>
-      <c r="AE102" s="3" t="s">
+      <c r="AF102" s="3" t="s">
         <v>8</v>
       </c>
     </row>
